--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -183,127 +183,14 @@
   </si>
   <si>
     <t>修复品牌上下线后无法搜索到相关普通品牌</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Fix  Bug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>租客PC&amp;租客APP</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复新增优选品牌，优选品牌主页房源显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉/吴永余</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网/APP"区域筛选"区域名称去除"区"字</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>新特性</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱彤</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市区域字段顺序更改</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐房源排序</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>【慢SQL优化一期】- 【SLOW-20160824009】 【SLOW-20160824010】 【SLOW-20160824011】</t>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>【慢SQL优化一期】- 【SLOW-20160824014】</t>
-  </si>
-  <si>
-    <t>【慢SQL优化一期】- 【SLOW-20160824015】</t>
-  </si>
-  <si>
-    <t>【扫码项目】登录增加手机17号段</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码项目</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>裔玲玲</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>【扫码项目】发送短信限制条数增加白名单</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.prin优化</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常日志处理</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要不紧急</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东状态控制</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS、房东PC、房东APP、租客APP</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -311,19 +198,19 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>吕崇新</t>
+    <t>周云</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>发现组</t>
+    <t>EQ组</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>余星赞</t>
+    <t>吴永余</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
+    <t>通过</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -331,136 +218,249 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>修复新增优选品牌，优选品牌主页房源显示</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉/吴永余</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网/APP"区域筛选"区域名称去除"区"字</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市区域字段顺序更改</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐房源排序</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【慢SQL优化一期】- 【SLOW-20160824009】 【SLOW-20160824010】 【SLOW-20160824011】</t>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【慢SQL优化一期】- 【SLOW-20160824014】</t>
+  </si>
+  <si>
+    <t>【慢SQL优化一期】- 【SLOW-20160824015】</t>
+  </si>
+  <si>
+    <t>【扫码项目】登录增加手机17号段</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码项目</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【扫码项目】发送短信限制条数增加白名单</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.prin优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常日志处理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要不紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东状态控制</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、房东PC、房东APP、租客APP</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>配置中心基本设置</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东PC</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>彭堃、郑良杰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>施超</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东角色类型管理</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>李亚林</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邵明基</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>消息同类合并（业主、投诉、报修）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东PC、房东APP、租客APP、BS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邵明基/余星赞</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发现组System.out.print优化</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东PC、房东APP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>彭堃</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>无需测试</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>打印问题，技术特性不属于产品特性，研发自己验收</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Top1日志打印去重</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东PC、房东APP、租客APP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>部分列表操作后，页面自动刷新回到第一页</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>BS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>苏玉军</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>纪维玉</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>通过</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>蘑菇宝“待生成”在审核失败后不显示账单。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>租客APP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>茅寰寰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>蘑菇宝申请审核日志优化</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>王云飞</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>租金宝导航增加待买回订单个数图标</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>韩美娟</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东端增加账户充值后有待买回蘑菇宝则立即买回</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取推送的总数量和未读数量，sql优化</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Fix Bug</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>租客账单性能优化（金融）测试</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>收据打印</t>
@@ -470,7 +470,7 @@
     <rPh sb="2" eb="3">
       <t>da'y</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>孙伟、崔斌</t>
@@ -480,29 +480,29 @@
     <rPh sb="3" eb="4">
       <t>c'b</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>捷豹组</t>
     <rPh sb="0" eb="1">
       <t>jie'bao'zu</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>施超</t>
     <rPh sb="0" eb="1">
       <t>shi'chao</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>pass</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>补录租约租客已注销问题修复</t>
@@ -524,28 +524,28 @@
     <rPh sb="11" eb="12">
       <t>xiu'fu</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东PC/房东APP</t>
     <rPh sb="5" eb="6">
       <t>fang'dong</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>崔斌</t>
     <rPh sb="0" eb="1">
       <t>c'b</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>谷丽娜</t>
     <rPh sb="0" eb="1">
       <t>gu'l'n</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发起签约快捷租期选择</t>
@@ -564,14 +564,14 @@
     <rPh sb="8" eb="9">
       <t>xuan'z</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>王辉</t>
     <rPh sb="0" eb="1">
       <t>wang'h</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>补录租约快捷租期选择</t>
@@ -590,7 +590,7 @@
     <rPh sb="8" eb="9">
       <t>xuan'z</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>签约单列表房源地址优化</t>
@@ -609,7 +609,7 @@
     <rPh sb="9" eb="10">
       <t>you'h</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>签约单小红点</t>
@@ -619,14 +619,14 @@
     <rPh sb="3" eb="4">
       <t>xiao'hong'd</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>王祥毅</t>
     <rPh sb="0" eb="1">
       <t>w'x'y</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>租客账单性能优化</t>
@@ -642,21 +642,21 @@
     <rPh sb="6" eb="7">
       <t>you'h</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>租客APP</t>
     <rPh sb="0" eb="1">
       <t>zu'k</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>武孟华</t>
     <rPh sb="0" eb="1">
       <t>w'm'h</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东录入费用水电煤后会变成押金</t>
@@ -669,7 +669,7 @@
     <rPh sb="4" eb="5">
       <t>t'z'm</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>补录租约租客性别选择问题修复</t>
@@ -694,7 +694,7 @@
     <rPh sb="12" eb="13">
       <t>xiu'f</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>重要不紧急</t>
@@ -785,84 +785,84 @@
   </si>
   <si>
     <t>运营报表一期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>张浩、傅其亮、苏国泰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>磐石组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>王健</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>BS报表查询优化</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>优化</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>钱文博、傅其亮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>风控规则调整、工作台</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>张浩</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>王之臣</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>金融报表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>孙苏文</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>房东风控管理二期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>张浩、傅其亮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技术经理</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>EQ组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>5.0.4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mogoroom-tasktracker</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>jdbc.properties</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -954,19 +954,19 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>修改从库数据源配置</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>周云</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>史欣欣</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -986,34 +986,34 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mogoroom-renter</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>jdbc.driverClassName_se=
 jdbc.url_se=
 jdbc.username_se=
 jdbc.password_se=</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配置值为IP为15的从库DB</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mogoroom-renterpc</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>修改</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1094,16 +1094,16 @@
       </rPr>
       <t>se</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mogoroom-
 renterembed</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>memcache</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">微信
@@ -1113,40 +1113,40 @@
 set 11_smsRequestIp_w_f_ip_ 0 0 723
 101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发送短信白名单</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>朱彤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这部分IP无需校验
 发送短信的上限</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技术经理</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>EQ组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>5.0.4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mogoroom-tasktracker</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>jdbc.properties</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1238,19 +1238,19 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>修改从库数据源配置</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>周云</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>史欣欣</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1270,34 +1270,34 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mogoroom-renter</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>jdbc.driverClassName_se=
 jdbc.url_se=
 jdbc.username_se=
 jdbc.password_se=</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配置值为IP为15的从库DB</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mogoroom-renterpc</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>修改</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1378,16 +1378,16 @@
       </rPr>
       <t>se</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>mogoroom-
 renterembed</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>memcache</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">微信
@@ -1397,31 +1397,63 @@
 set 11_smsRequestIp_w_f_ip_ 0 0 723
 101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发送短信白名单</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>朱彤</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这部分IP无需校验
 发送短信的上限</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要且紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除图片 roomdi为空判断</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敖</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1496,13 +1528,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -1696,14 +1721,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1713,12 +1738,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1804,9 +1829,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2385,10 +2407,10 @@
   <dimension ref="A1:U154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2477,2998 +2499,3026 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A2" s="48">
+    <row r="2" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="50">
         <v>42663</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="50">
         <v>42663</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="52" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="51">
+      <c r="O2" s="50">
         <v>42667</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="55"/>
-    </row>
-    <row r="3" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="48">
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A3" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="50">
         <v>42663</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="50">
         <v>42663</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="49"/>
+      <c r="K3" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="50">
         <v>42667</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-    </row>
-    <row r="4" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="48">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+    </row>
+    <row r="4" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="47">
         <v>3</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <v>42663</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="50">
         <v>42663</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="52" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="50">
         <v>42667</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="60"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="59"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="48">
+    <row r="5" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="47">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <v>42663</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="50">
         <v>42663</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="52" t="s">
+      <c r="J5" s="57"/>
+      <c r="K5" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="50">
         <v>42667</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A6" s="48">
+    <row r="6" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="50">
         <v>42663</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="50">
         <v>42663</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="52" t="s">
+      <c r="J6" s="57"/>
+      <c r="K6" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="50">
         <v>42667</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="60"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="59"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="48">
+    <row r="7" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="47">
         <v>6</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <v>42663</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="50">
         <v>42663</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="52" t="s">
+      <c r="J7" s="57"/>
+      <c r="K7" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="50">
         <v>42667</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="60"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A8" s="48">
+    <row r="8" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="47">
         <v>7</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="50">
         <v>42663</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="50">
         <v>42663</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="52" t="s">
+      <c r="J8" s="57"/>
+      <c r="K8" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="50">
         <v>42667</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="60"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="59"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="48">
+    <row r="9" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="47">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="50">
         <v>42663</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="50">
         <v>42663</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="52" t="s">
+      <c r="J9" s="57"/>
+      <c r="K9" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="52" t="s">
+      <c r="N9" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="50">
         <v>42667</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="P9" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="59"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="48">
+    <row r="10" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="47">
         <v>9</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <v>42663</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="50">
         <v>42663</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="52" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="50" t="s">
+      <c r="M10" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="50">
         <v>42667</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="59"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="48">
+    <row r="11" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="47">
         <v>10</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <v>42663</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <v>42663</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="52" t="s">
+      <c r="J11" s="57"/>
+      <c r="K11" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="50" t="s">
+      <c r="M11" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="52" t="s">
+      <c r="N11" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="50">
         <v>42667</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="60"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="59"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="48">
+    <row r="12" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="47">
         <v>11</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <v>42663</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="50">
         <v>42663</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="52" t="s">
+      <c r="J12" s="57"/>
+      <c r="K12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="50" t="s">
+      <c r="M12" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="50">
         <v>42667</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="P12" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="60"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="59"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="48">
+    <row r="13" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="47">
         <v>12</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="50">
         <v>42663</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <v>42663</v>
       </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="52" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="50">
         <v>42667</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="P13" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="60"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="59"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:21" s="63" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="48">
+    <row r="14" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="47">
         <v>13</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="50">
         <v>42663</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="50">
         <v>42663</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="52" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="52" t="s">
+      <c r="M14" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="52" t="s">
+      <c r="N14" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="50">
         <v>42667</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="62"/>
-    </row>
-    <row r="15" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="48">
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="61"/>
+    </row>
+    <row r="15" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="47">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="50">
         <v>42663</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="50">
         <v>42663</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="52" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="51">
+      <c r="O15" s="50">
         <v>42667</v>
       </c>
-      <c r="P15" s="52" t="s">
+      <c r="P15" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="55"/>
-    </row>
-    <row r="16" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="48">
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54"/>
+    </row>
+    <row r="16" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="47">
         <v>15</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="50">
         <v>42663</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="50">
         <v>42663</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="52" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="52" t="s">
+      <c r="M16" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="50">
         <v>42667</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="55"/>
-    </row>
-    <row r="17" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A17" s="48">
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54"/>
+    </row>
+    <row r="17" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="47">
         <v>16</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="50">
         <v>42663</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <v>42663</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="52" t="s">
+      <c r="J17" s="49"/>
+      <c r="K17" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="52" t="s">
+      <c r="N17" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="50">
         <v>42667</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="55"/>
-    </row>
-    <row r="18" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="48">
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54"/>
+    </row>
+    <row r="18" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="47">
         <v>17</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="50">
         <v>42663</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <v>42663</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="52" t="s">
+      <c r="J18" s="49"/>
+      <c r="K18" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="50">
         <v>42667</v>
       </c>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="54" t="s">
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="U18" s="55"/>
-    </row>
-    <row r="19" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="48">
+      <c r="U18" s="54"/>
+    </row>
+    <row r="19" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="47">
         <v>18</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="50">
         <v>42663</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="50">
         <v>42663</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="52" t="s">
+      <c r="J19" s="49"/>
+      <c r="K19" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="52" t="s">
+      <c r="N19" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="O19" s="51">
+      <c r="O19" s="50">
         <v>42667</v>
       </c>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="54" t="s">
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="U19" s="55"/>
-    </row>
-    <row r="20" spans="1:21" s="63" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A20" s="48">
+      <c r="U19" s="54"/>
+    </row>
+    <row r="20" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="47">
         <v>19</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="50">
         <v>42663</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="50">
         <v>42663</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="52" t="s">
+      <c r="J20" s="49"/>
+      <c r="K20" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="52" t="s">
+      <c r="M20" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="N20" s="52" t="s">
+      <c r="N20" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="50">
         <v>42667</v>
       </c>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="62"/>
-    </row>
-    <row r="21" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A21" s="48">
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="61"/>
+    </row>
+    <row r="21" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="47">
         <v>20</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="50">
         <v>42663</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="50">
         <v>42663</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="52" t="s">
+      <c r="J21" s="49"/>
+      <c r="K21" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="50">
         <v>42667</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="55"/>
-    </row>
-    <row r="22" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="48">
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="54"/>
+    </row>
+    <row r="22" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="47">
         <v>21</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="50">
         <v>42663</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="50">
         <v>42663</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="52" t="s">
+      <c r="J22" s="49"/>
+      <c r="K22" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="52" t="s">
+      <c r="M22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="N22" s="52" t="s">
+      <c r="N22" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="50">
         <v>42667</v>
       </c>
-      <c r="P22" s="52" t="s">
+      <c r="P22" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="55"/>
-    </row>
-    <row r="23" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A23" s="48">
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="54"/>
+    </row>
+    <row r="23" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="47">
         <v>22</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="50">
         <v>42663</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="50">
         <v>42663</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="52" t="s">
+      <c r="J23" s="49"/>
+      <c r="K23" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="M23" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="52" t="s">
+      <c r="N23" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O23" s="51">
+      <c r="O23" s="50">
         <v>42667</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="P23" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
-    </row>
-    <row r="24" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="48">
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54"/>
+    </row>
+    <row r="24" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="47">
         <v>23</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="50">
         <v>42663</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="50">
         <v>42663</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="52" t="s">
+      <c r="J24" s="49"/>
+      <c r="K24" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="L24" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="52" t="s">
+      <c r="M24" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="N24" s="52" t="s">
+      <c r="N24" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O24" s="51">
+      <c r="O24" s="50">
         <v>42667</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="P24" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="55"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="54"/>
     </row>
     <row r="25" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>24</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>116</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="50">
         <v>42664</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="50">
         <v>42664</v>
       </c>
       <c r="J25" s="26"/>
-      <c r="K25" s="52" t="s">
+      <c r="K25" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="M25" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="52" t="s">
+      <c r="N25" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="50">
         <v>42667</v>
       </c>
-      <c r="P25" s="52" t="s">
+      <c r="P25" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="45"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="44"/>
     </row>
     <row r="26" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="48">
+      <c r="A26" s="47">
         <v>25</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="50">
         <v>42663</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <v>42663</v>
       </c>
       <c r="J26" s="26"/>
-      <c r="K26" s="52" t="s">
+      <c r="K26" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="L26" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="52" t="s">
+      <c r="M26" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="52" t="s">
+      <c r="N26" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="50">
         <v>42667</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="P26" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="45"/>
-    </row>
-    <row r="27" spans="1:21" s="63" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="48">
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="44"/>
+    </row>
+    <row r="27" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="47">
         <v>26</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="50">
         <v>42665</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="50">
         <v>42665</v>
       </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="52" t="s">
+      <c r="J27" s="49"/>
+      <c r="K27" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="52" t="s">
+      <c r="M27" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="N27" s="52" t="s">
+      <c r="N27" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O27" s="51">
+      <c r="O27" s="50">
         <v>42667</v>
       </c>
-      <c r="P27" s="52" t="s">
+      <c r="P27" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="62"/>
-    </row>
-    <row r="28" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="48">
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="61"/>
+    </row>
+    <row r="28" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="47">
         <v>27</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>116</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="50">
         <v>42665</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="50">
         <v>42665</v>
       </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="52" t="s">
+      <c r="J28" s="49"/>
+      <c r="K28" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="M28" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="N28" s="52" t="s">
+      <c r="N28" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O28" s="51">
+      <c r="O28" s="50">
         <v>42667</v>
       </c>
-      <c r="P28" s="52" t="s">
+      <c r="P28" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="55"/>
-    </row>
-    <row r="29" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="48">
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="54"/>
+    </row>
+    <row r="29" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="47">
         <v>28</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="50">
         <v>42665</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="50">
         <v>42665</v>
       </c>
-      <c r="J29" s="50"/>
-      <c r="K29" s="52" t="s">
+      <c r="J29" s="49"/>
+      <c r="K29" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="50" t="s">
+      <c r="L29" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="M29" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="N29" s="52" t="s">
+      <c r="N29" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O29" s="51">
+      <c r="O29" s="50">
         <v>42667</v>
       </c>
-      <c r="P29" s="52" t="s">
+      <c r="P29" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="55"/>
-    </row>
-    <row r="30" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="48">
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="54"/>
+    </row>
+    <row r="30" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="47">
         <v>29</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="50">
         <v>42665</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="50">
         <v>42665</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="52" t="s">
+      <c r="J30" s="49"/>
+      <c r="K30" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="M30" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="52" t="s">
+      <c r="N30" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O30" s="51">
+      <c r="O30" s="50">
         <v>42667</v>
       </c>
-      <c r="P30" s="52" t="s">
+      <c r="P30" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="55"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="54"/>
     </row>
     <row r="31" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="48">
+      <c r="A31" s="47">
         <v>30</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="50">
         <v>42665</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="50">
         <v>42665</v>
       </c>
       <c r="J31" s="26"/>
-      <c r="K31" s="52" t="s">
+      <c r="K31" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M31" s="52" t="s">
+      <c r="M31" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="N31" s="52" t="s">
+      <c r="N31" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O31" s="51">
+      <c r="O31" s="50">
         <v>42667</v>
       </c>
-      <c r="P31" s="52" t="s">
+      <c r="P31" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="45"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="44"/>
     </row>
     <row r="32" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="48">
+      <c r="A32" s="47">
         <v>31</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="50">
         <v>42665</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="50">
         <v>42665</v>
       </c>
       <c r="J32" s="26"/>
-      <c r="K32" s="52" t="s">
+      <c r="K32" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="L32" s="50" t="s">
+      <c r="L32" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M32" s="52" t="s">
+      <c r="M32" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="N32" s="52" t="s">
+      <c r="N32" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32" s="50">
         <v>42667</v>
       </c>
-      <c r="P32" s="52" t="s">
+      <c r="P32" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="45"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="44"/>
     </row>
     <row r="33" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="48">
+      <c r="A33" s="47">
         <v>32</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="50">
         <v>42665</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="50">
         <v>42665</v>
       </c>
       <c r="J33" s="26"/>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="L33" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="N33" s="52" t="s">
+      <c r="N33" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O33" s="51">
+      <c r="O33" s="50">
         <v>42667</v>
       </c>
-      <c r="P33" s="52" t="s">
+      <c r="P33" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="45"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="44"/>
     </row>
     <row r="34" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A34" s="48">
+      <c r="A34" s="47">
         <v>33</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="49" t="s">
         <v>116</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="50">
         <v>42665</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="50">
         <v>42665</v>
       </c>
       <c r="J34" s="26"/>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="L34" s="50" t="s">
+      <c r="L34" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="52" t="s">
+      <c r="M34" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="N34" s="52" t="s">
+      <c r="N34" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O34" s="51">
+      <c r="O34" s="50">
         <v>42667</v>
       </c>
-      <c r="P34" s="52" t="s">
+      <c r="P34" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="45"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="44"/>
     </row>
     <row r="35" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="48">
+      <c r="A35" s="47">
         <v>34</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="49" t="s">
         <v>116</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="50">
         <v>42665</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="50">
         <v>42665</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="52" t="s">
+      <c r="J35" s="49"/>
+      <c r="K35" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L35" s="50" t="s">
+      <c r="L35" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="52" t="s">
+      <c r="M35" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="N35" s="52" t="s">
+      <c r="N35" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O35" s="51">
+      <c r="O35" s="50">
         <v>42667</v>
       </c>
-      <c r="P35" s="52" t="s">
+      <c r="P35" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="45"/>
-    </row>
-    <row r="36" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="48">
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="44"/>
+    </row>
+    <row r="36" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="47">
         <v>35</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="50">
         <v>42660</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="50">
         <v>42660</v>
       </c>
-      <c r="J36" s="50"/>
-      <c r="K36" s="52" t="s">
+      <c r="J36" s="49"/>
+      <c r="K36" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="50" t="s">
+      <c r="L36" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M36" s="50" t="s">
+      <c r="M36" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="52" t="s">
+      <c r="N36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="51">
+      <c r="O36" s="50">
         <v>42664</v>
       </c>
-      <c r="P36" s="52" t="s">
+      <c r="P36" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="55"/>
-    </row>
-    <row r="37" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="48">
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="54"/>
+    </row>
+    <row r="37" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="47">
         <v>36</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="50">
         <v>42660</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="51">
+      <c r="I37" s="50">
         <v>42660</v>
       </c>
-      <c r="J37" s="50"/>
-      <c r="K37" s="52" t="s">
+      <c r="J37" s="49"/>
+      <c r="K37" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="L37" s="50" t="s">
+      <c r="L37" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="50" t="s">
+      <c r="M37" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N37" s="52" t="s">
+      <c r="N37" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="51">
+      <c r="O37" s="50">
         <v>42664</v>
       </c>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="55"/>
-    </row>
-    <row r="38" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="48">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="54"/>
+    </row>
+    <row r="38" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="47">
         <v>37</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="51">
+      <c r="G38" s="50">
         <v>42660</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="51">
+      <c r="I38" s="50">
         <v>42660</v>
       </c>
-      <c r="J38" s="50"/>
-      <c r="K38" s="52" t="s">
+      <c r="J38" s="49"/>
+      <c r="K38" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="50" t="s">
+      <c r="M38" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N38" s="52" t="s">
+      <c r="N38" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="51">
+      <c r="O38" s="50">
         <v>42664</v>
       </c>
-      <c r="P38" s="52" t="s">
+      <c r="P38" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="55"/>
-    </row>
-    <row r="39" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="48">
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="54"/>
+    </row>
+    <row r="39" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="47">
         <v>38</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="51">
+      <c r="G39" s="50">
         <v>42661</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="51">
+      <c r="I39" s="50">
         <v>42661</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="52" t="s">
+      <c r="J39" s="49"/>
+      <c r="K39" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="50" t="s">
+      <c r="M39" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N39" s="52" t="s">
+      <c r="N39" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="51">
+      <c r="O39" s="50">
         <v>42664</v>
       </c>
-      <c r="P39" s="52" t="s">
+      <c r="P39" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="55"/>
-    </row>
-    <row r="40" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="48">
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="54"/>
+    </row>
+    <row r="40" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="47">
         <v>39</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="51">
+      <c r="G40" s="50">
         <v>42661</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="51">
+      <c r="I40" s="50">
         <v>42661</v>
       </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="52" t="s">
+      <c r="J40" s="49"/>
+      <c r="K40" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L40" s="50" t="s">
+      <c r="L40" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M40" s="50" t="s">
+      <c r="M40" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="52" t="s">
+      <c r="N40" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="51">
+      <c r="O40" s="50">
         <v>42664</v>
       </c>
-      <c r="P40" s="52" t="s">
+      <c r="P40" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="55"/>
-    </row>
-    <row r="41" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="48">
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="54"/>
+    </row>
+    <row r="41" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A41" s="47">
         <v>40</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="51">
+      <c r="G41" s="50">
         <v>42661</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="51">
+      <c r="I41" s="50">
         <v>42661</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="52" t="s">
+      <c r="J41" s="49"/>
+      <c r="K41" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M41" s="50" t="s">
+      <c r="M41" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N41" s="52" t="s">
+      <c r="N41" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="51">
+      <c r="O41" s="50">
         <v>42664</v>
       </c>
-      <c r="P41" s="52" t="s">
+      <c r="P41" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="55"/>
-    </row>
-    <row r="42" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="48">
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="54"/>
+    </row>
+    <row r="42" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="47">
         <v>41</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="50">
         <v>42667</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="50">
         <v>42663</v>
       </c>
-      <c r="J42" s="50"/>
-      <c r="K42" s="52" t="s">
+      <c r="J42" s="49"/>
+      <c r="K42" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M42" s="50" t="s">
+      <c r="M42" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N42" s="52" t="s">
+      <c r="N42" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="51">
+      <c r="O42" s="50">
         <v>42667</v>
       </c>
-      <c r="P42" s="52" t="s">
+      <c r="P42" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="55"/>
-    </row>
-    <row r="43" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="48">
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="54"/>
+    </row>
+    <row r="43" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="47">
         <v>42</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="50">
         <v>42667</v>
       </c>
-      <c r="H43" s="51" t="s">
+      <c r="H43" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="51">
+      <c r="I43" s="50">
         <v>42665</v>
       </c>
-      <c r="J43" s="50"/>
-      <c r="K43" s="52" t="s">
+      <c r="J43" s="49"/>
+      <c r="K43" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="L43" s="50" t="s">
+      <c r="L43" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="50" t="s">
+      <c r="M43" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N43" s="52" t="s">
+      <c r="N43" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="51">
+      <c r="O43" s="50">
         <v>42667</v>
       </c>
-      <c r="P43" s="52" t="s">
+      <c r="P43" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="55"/>
-    </row>
-    <row r="44" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="48">
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="54"/>
+    </row>
+    <row r="44" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A44" s="47">
         <v>43</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="50">
         <v>42664</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="50">
         <v>42664</v>
       </c>
-      <c r="J44" s="50"/>
-      <c r="K44" s="52" t="s">
+      <c r="J44" s="49"/>
+      <c r="K44" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="L44" s="50" t="s">
+      <c r="L44" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M44" s="50" t="s">
+      <c r="M44" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N44" s="52" t="s">
+      <c r="N44" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O44" s="51">
+      <c r="O44" s="50">
         <v>42664</v>
       </c>
-      <c r="P44" s="52" t="s">
+      <c r="P44" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="55"/>
-    </row>
-    <row r="45" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A45" s="48">
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="54"/>
+    </row>
+    <row r="45" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A45" s="47">
         <v>44</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="50">
         <v>42664</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="51">
+      <c r="I45" s="50">
         <v>42664</v>
       </c>
-      <c r="J45" s="50"/>
-      <c r="K45" s="52" t="s">
+      <c r="J45" s="49"/>
+      <c r="K45" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M45" s="50" t="s">
+      <c r="M45" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N45" s="52" t="s">
+      <c r="N45" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O45" s="51">
+      <c r="O45" s="50">
         <v>42664</v>
       </c>
-      <c r="P45" s="52" t="s">
+      <c r="P45" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="55"/>
-    </row>
-    <row r="46" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="48">
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="54"/>
+    </row>
+    <row r="46" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A46" s="47">
         <v>45</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="50">
         <v>42667</v>
       </c>
-      <c r="H46" s="51" t="s">
+      <c r="H46" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="51">
+      <c r="I46" s="50">
         <v>42665</v>
       </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="52" t="s">
+      <c r="J46" s="49"/>
+      <c r="K46" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="L46" s="50" t="s">
+      <c r="L46" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M46" s="50" t="s">
+      <c r="M46" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N46" s="52" t="s">
+      <c r="N46" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O46" s="51">
+      <c r="O46" s="50">
         <v>42668</v>
       </c>
-      <c r="P46" s="52" t="s">
+      <c r="P46" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="55"/>
-    </row>
-    <row r="47" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A47" s="48">
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="54"/>
+    </row>
+    <row r="47" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A47" s="47">
         <v>46</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="52" t="s">
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L47" s="50" t="s">
+      <c r="L47" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="50" t="s">
+      <c r="M47" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="52" t="s">
+      <c r="N47" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="51">
+      <c r="O47" s="50">
         <v>42668</v>
       </c>
-      <c r="P47" s="52" t="s">
+      <c r="P47" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="55"/>
-    </row>
-    <row r="48" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A48" s="48">
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="54"/>
+    </row>
+    <row r="48" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A48" s="47">
         <v>47</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="50">
         <v>42664</v>
       </c>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="51">
+      <c r="I48" s="50">
         <v>42664</v>
       </c>
-      <c r="J48" s="50"/>
-      <c r="K48" s="52" t="s">
+      <c r="J48" s="49"/>
+      <c r="K48" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="L48" s="50" t="s">
+      <c r="L48" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M48" s="50" t="s">
+      <c r="M48" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N48" s="52" t="s">
+      <c r="N48" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="51">
+      <c r="O48" s="50">
         <v>42667</v>
       </c>
-      <c r="P48" s="52" t="s">
+      <c r="P48" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="55"/>
-    </row>
-    <row r="49" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A49" s="48">
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="54"/>
+    </row>
+    <row r="49" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A49" s="47">
         <v>48</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="50">
         <v>42664</v>
       </c>
-      <c r="H49" s="51" t="s">
+      <c r="H49" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="51">
+      <c r="I49" s="50">
         <v>42664</v>
       </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="52" t="s">
+      <c r="J49" s="49"/>
+      <c r="K49" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="L49" s="50" t="s">
+      <c r="L49" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M49" s="50" t="s">
+      <c r="M49" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N49" s="52" t="s">
+      <c r="N49" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="51">
+      <c r="O49" s="50">
         <v>42664</v>
       </c>
-      <c r="P49" s="52" t="s">
+      <c r="P49" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="55"/>
-    </row>
-    <row r="50" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A50" s="48">
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="54"/>
+    </row>
+    <row r="50" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A50" s="47">
         <v>49</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="51">
+      <c r="G50" s="50">
         <v>42664</v>
       </c>
-      <c r="H50" s="51" t="s">
+      <c r="H50" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="51">
+      <c r="I50" s="50">
         <v>42664</v>
       </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="52" t="s">
+      <c r="J50" s="49"/>
+      <c r="K50" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="L50" s="50" t="s">
+      <c r="L50" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M50" s="50" t="s">
+      <c r="M50" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="N50" s="52" t="s">
+      <c r="N50" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="51">
+      <c r="O50" s="50">
         <v>42664</v>
       </c>
-      <c r="P50" s="52" t="s">
+      <c r="P50" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="55"/>
-    </row>
-    <row r="51" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A51" s="48">
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="54"/>
+    </row>
+    <row r="51" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A51" s="47">
         <v>50</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="51">
+      <c r="G51" s="50">
         <v>42667</v>
       </c>
-      <c r="H51" s="51" t="s">
+      <c r="H51" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="51">
+      <c r="I51" s="50">
         <v>42667</v>
       </c>
-      <c r="J51" s="50"/>
-      <c r="K51" s="52" t="s">
+      <c r="J51" s="49"/>
+      <c r="K51" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="L51" s="50" t="s">
+      <c r="L51" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M51" s="50" t="s">
+      <c r="M51" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N51" s="52" t="s">
+      <c r="N51" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O51" s="51">
+      <c r="O51" s="50">
         <v>42667</v>
       </c>
-      <c r="P51" s="52" t="s">
+      <c r="P51" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="55"/>
-    </row>
-    <row r="52" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A52" s="48">
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="54"/>
+    </row>
+    <row r="52" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A52" s="47">
         <v>51</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="51">
+      <c r="G52" s="50">
         <v>42661</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="51">
+      <c r="I52" s="50">
         <v>42661</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="52" t="s">
+      <c r="J52" s="49"/>
+      <c r="K52" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="L52" s="50" t="s">
+      <c r="L52" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M52" s="50" t="s">
+      <c r="M52" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N52" s="52" t="s">
+      <c r="N52" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O52" s="51">
+      <c r="O52" s="50">
         <v>42664</v>
       </c>
-      <c r="P52" s="52" t="s">
+      <c r="P52" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="55"/>
-    </row>
-    <row r="53" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="48">
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="54"/>
+    </row>
+    <row r="53" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A53" s="47">
         <v>52</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="51">
+      <c r="G53" s="50">
         <v>42663</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I53" s="51"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="52" t="s">
+      <c r="I53" s="50"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="L53" s="50" t="s">
+      <c r="L53" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="M53" s="50" t="s">
+      <c r="M53" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="N53" s="52" t="s">
+      <c r="N53" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O53" s="51">
+      <c r="O53" s="50">
         <v>42667</v>
       </c>
-      <c r="P53" s="52" t="s">
+      <c r="P53" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="55"/>
-    </row>
-    <row r="54" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A54" s="48">
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="54"/>
+    </row>
+    <row r="54" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A54" s="47">
         <v>53</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="51">
+      <c r="G54" s="50">
         <v>42661</v>
       </c>
-      <c r="H54" s="50" t="s">
+      <c r="H54" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I54" s="51"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="52" t="s">
+      <c r="I54" s="50"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="L54" s="50" t="s">
+      <c r="L54" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="M54" s="50" t="s">
+      <c r="M54" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="N54" s="52" t="s">
+      <c r="N54" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O54" s="51">
+      <c r="O54" s="50">
         <v>42667</v>
       </c>
-      <c r="P54" s="52" t="s">
+      <c r="P54" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="66" t="s">
+      <c r="Q54" s="58"/>
+      <c r="R54" s="58"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="U54" s="55"/>
-    </row>
-    <row r="55" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A55" s="48">
+      <c r="U54" s="54"/>
+    </row>
+    <row r="55" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A55" s="47">
         <v>54</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G55" s="50">
         <v>42662</v>
       </c>
-      <c r="H55" s="50" t="s">
+      <c r="H55" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I55" s="51"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="52" t="s">
+      <c r="I55" s="50"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="L55" s="50" t="s">
+      <c r="L55" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="M55" s="50" t="s">
+      <c r="M55" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="N55" s="52" t="s">
+      <c r="N55" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O55" s="51">
+      <c r="O55" s="50">
         <v>42668</v>
       </c>
-      <c r="P55" s="52" t="s">
+      <c r="P55" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="55"/>
-    </row>
-    <row r="56" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="48">
+      <c r="Q55" s="58"/>
+      <c r="R55" s="58"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="54"/>
+    </row>
+    <row r="56" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A56" s="47">
         <v>55</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G56" s="50">
         <v>42665</v>
       </c>
-      <c r="H56" s="50" t="s">
+      <c r="H56" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I56" s="51"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="52" t="s">
+      <c r="I56" s="50"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="L56" s="50" t="s">
+      <c r="L56" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="M56" s="50" t="s">
+      <c r="M56" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="N56" s="52" t="s">
+      <c r="N56" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O56" s="51">
+      <c r="O56" s="50">
         <v>42669</v>
       </c>
-      <c r="P56" s="52" t="s">
+      <c r="P56" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="55"/>
-    </row>
-    <row r="57" spans="1:21" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A57" s="48">
+      <c r="Q56" s="58"/>
+      <c r="R56" s="58"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="54"/>
+    </row>
+    <row r="57" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A57" s="47">
         <v>56</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F57" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="50">
         <v>42665</v>
       </c>
-      <c r="H57" s="50" t="s">
+      <c r="H57" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I57" s="51"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="52" t="s">
+      <c r="I57" s="50"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="L57" s="50" t="s">
+      <c r="L57" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="M57" s="50" t="s">
+      <c r="M57" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="N57" s="52" t="s">
+      <c r="N57" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="O57" s="51">
+      <c r="O57" s="50">
         <v>42670</v>
       </c>
-      <c r="P57" s="52" t="s">
+      <c r="P57" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="55"/>
-    </row>
-    <row r="58" spans="1:21" s="14" customFormat="1" ht="16.5">
-      <c r="A58" s="22"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="40"/>
+      <c r="Q57" s="58"/>
+      <c r="R57" s="58"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="54"/>
+    </row>
+    <row r="58" spans="1:21" s="55" customFormat="1" ht="16.5">
+      <c r="A58" s="47">
+        <v>57</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="50">
+        <v>42668</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="50"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="L58" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="M58" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="N58" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O58" s="50">
+        <v>42669</v>
+      </c>
+      <c r="P58" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="58"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="54"/>
     </row>
     <row r="59" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A59" s="22"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
       <c r="J59" s="23"/>
-      <c r="K59" s="33"/>
+      <c r="K59" s="32"/>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="40"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="39"/>
     </row>
     <row r="60" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A60" s="22"/>
@@ -5477,67 +5527,67 @@
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
       <c r="J60" s="23"/>
-      <c r="K60" s="33"/>
+      <c r="K60" s="32"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="40"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="39"/>
     </row>
     <row r="61" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A61" s="22"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="31"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
       <c r="J61" s="23"/>
-      <c r="K61" s="33"/>
+      <c r="K61" s="32"/>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="40"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="39"/>
     </row>
     <row r="62" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A62" s="22"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="23"/>
-      <c r="K62" s="33"/>
+      <c r="K62" s="32"/>
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="40"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="39"/>
     </row>
     <row r="63" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A63" s="22"/>
@@ -5546,21 +5596,21 @@
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
       <c r="J63" s="23"/>
-      <c r="K63" s="33"/>
+      <c r="K63" s="32"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="40"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="39"/>
     </row>
     <row r="64" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A64" s="22"/>
@@ -5569,21 +5619,21 @@
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
       <c r="J64" s="23"/>
-      <c r="K64" s="33"/>
+      <c r="K64" s="32"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="40"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="39"/>
     </row>
     <row r="65" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A65" s="22"/>
@@ -5592,21 +5642,21 @@
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
       <c r="J65" s="23"/>
-      <c r="K65" s="33"/>
+      <c r="K65" s="32"/>
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="40"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="39"/>
     </row>
     <row r="66" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A66" s="22"/>
@@ -5615,21 +5665,21 @@
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
       <c r="J66" s="23"/>
-      <c r="K66" s="33"/>
+      <c r="K66" s="32"/>
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="40"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="39"/>
     </row>
     <row r="67" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A67" s="22"/>
@@ -5638,21 +5688,21 @@
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
       <c r="J67" s="23"/>
-      <c r="K67" s="33"/>
+      <c r="K67" s="32"/>
       <c r="L67" s="23"/>
       <c r="M67" s="23"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="40"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="39"/>
     </row>
     <row r="68" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A68" s="22"/>
@@ -5661,21 +5711,21 @@
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
       <c r="J68" s="23"/>
-      <c r="K68" s="33"/>
+      <c r="K68" s="32"/>
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="40"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="39"/>
     </row>
     <row r="69" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A69" s="22"/>
@@ -5684,21 +5734,21 @@
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="23"/>
-      <c r="K69" s="33"/>
+      <c r="K69" s="32"/>
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="40"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="39"/>
     </row>
     <row r="70" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A70" s="22"/>
@@ -5707,21 +5757,21 @@
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
       <c r="J70" s="23"/>
-      <c r="K70" s="33"/>
+      <c r="K70" s="32"/>
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="40"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="39"/>
     </row>
     <row r="71" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A71" s="22"/>
@@ -5730,21 +5780,21 @@
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="23"/>
-      <c r="K71" s="33"/>
+      <c r="K71" s="32"/>
       <c r="L71" s="23"/>
       <c r="M71" s="23"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="40"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="39"/>
     </row>
     <row r="72" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A72" s="22"/>
@@ -5753,21 +5803,21 @@
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
       <c r="J72" s="23"/>
-      <c r="K72" s="33"/>
+      <c r="K72" s="32"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="40"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="39"/>
     </row>
     <row r="73" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A73" s="22"/>
@@ -5776,21 +5826,21 @@
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
       <c r="J73" s="23"/>
-      <c r="K73" s="33"/>
+      <c r="K73" s="32"/>
       <c r="L73" s="23"/>
       <c r="M73" s="23"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="40"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="39"/>
     </row>
     <row r="74" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A74" s="22"/>
@@ -5799,21 +5849,21 @@
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="23"/>
-      <c r="K74" s="33"/>
+      <c r="K74" s="32"/>
       <c r="L74" s="23"/>
       <c r="M74" s="23"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="40"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="39"/>
     </row>
     <row r="75" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A75" s="22"/>
@@ -5822,21 +5872,21 @@
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
       <c r="J75" s="23"/>
-      <c r="K75" s="33"/>
+      <c r="K75" s="32"/>
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="40"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="39"/>
     </row>
     <row r="76" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A76" s="22"/>
@@ -5845,21 +5895,21 @@
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
       <c r="J76" s="23"/>
-      <c r="K76" s="33"/>
+      <c r="K76" s="32"/>
       <c r="L76" s="23"/>
       <c r="M76" s="23"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="40"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="39"/>
     </row>
     <row r="77" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A77" s="22"/>
@@ -5868,21 +5918,21 @@
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
       <c r="J77" s="23"/>
-      <c r="K77" s="33"/>
+      <c r="K77" s="32"/>
       <c r="L77" s="23"/>
       <c r="M77" s="23"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="40"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="39"/>
     </row>
     <row r="78" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A78" s="22"/>
@@ -5891,21 +5941,21 @@
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
       <c r="J78" s="23"/>
-      <c r="K78" s="33"/>
+      <c r="K78" s="32"/>
       <c r="L78" s="23"/>
       <c r="M78" s="23"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="40"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="39"/>
     </row>
     <row r="79" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A79" s="22"/>
@@ -5914,21 +5964,21 @@
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
       <c r="J79" s="23"/>
-      <c r="K79" s="33"/>
+      <c r="K79" s="32"/>
       <c r="L79" s="23"/>
       <c r="M79" s="23"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="40"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="39"/>
     </row>
     <row r="80" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A80" s="22"/>
@@ -5937,21 +5987,21 @@
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
       <c r="J80" s="23"/>
-      <c r="K80" s="33"/>
+      <c r="K80" s="32"/>
       <c r="L80" s="23"/>
       <c r="M80" s="23"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="40"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="39"/>
     </row>
     <row r="81" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A81" s="22"/>
@@ -5960,21 +6010,21 @@
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
       <c r="J81" s="23"/>
-      <c r="K81" s="33"/>
+      <c r="K81" s="32"/>
       <c r="L81" s="23"/>
       <c r="M81" s="23"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="40"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="39"/>
     </row>
     <row r="82" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A82" s="22"/>
@@ -5983,21 +6033,21 @@
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
       <c r="J82" s="23"/>
-      <c r="K82" s="33"/>
+      <c r="K82" s="32"/>
       <c r="L82" s="23"/>
       <c r="M82" s="23"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="40"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="39"/>
     </row>
     <row r="83" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A83" s="22"/>
@@ -6006,21 +6056,21 @@
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
       <c r="J83" s="23"/>
-      <c r="K83" s="33"/>
+      <c r="K83" s="32"/>
       <c r="L83" s="23"/>
       <c r="M83" s="23"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="40"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="39"/>
     </row>
     <row r="84" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A84" s="22"/>
@@ -6029,21 +6079,21 @@
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
       <c r="J84" s="23"/>
-      <c r="K84" s="33"/>
+      <c r="K84" s="32"/>
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="40"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="39"/>
     </row>
     <row r="85" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A85" s="22"/>
@@ -6052,21 +6102,21 @@
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
       <c r="J85" s="23"/>
-      <c r="K85" s="33"/>
+      <c r="K85" s="32"/>
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="39"/>
-      <c r="U85" s="40"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="39"/>
     </row>
     <row r="86" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A86" s="22"/>
@@ -6075,21 +6125,21 @@
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
       <c r="J86" s="23"/>
-      <c r="K86" s="33"/>
+      <c r="K86" s="32"/>
       <c r="L86" s="23"/>
       <c r="M86" s="23"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="40"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="34"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="39"/>
     </row>
     <row r="87" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A87" s="22"/>
@@ -6098,21 +6148,21 @@
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
       <c r="J87" s="23"/>
-      <c r="K87" s="33"/>
+      <c r="K87" s="32"/>
       <c r="L87" s="23"/>
       <c r="M87" s="23"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="40"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="39"/>
     </row>
     <row r="88" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A88" s="22"/>
@@ -6121,21 +6171,21 @@
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
       <c r="J88" s="23"/>
-      <c r="K88" s="33"/>
+      <c r="K88" s="32"/>
       <c r="L88" s="23"/>
       <c r="M88" s="23"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="40"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="39"/>
     </row>
     <row r="89" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A89" s="22"/>
@@ -6144,21 +6194,21 @@
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
       <c r="J89" s="23"/>
-      <c r="K89" s="33"/>
+      <c r="K89" s="32"/>
       <c r="L89" s="23"/>
       <c r="M89" s="23"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="40"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="32"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="34"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="39"/>
     </row>
     <row r="90" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A90" s="22"/>
@@ -6167,21 +6217,21 @@
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
       <c r="J90" s="23"/>
-      <c r="K90" s="33"/>
+      <c r="K90" s="32"/>
       <c r="L90" s="23"/>
       <c r="M90" s="23"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="40"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="39"/>
     </row>
     <row r="91" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A91" s="22"/>
@@ -6190,21 +6240,21 @@
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
       <c r="J91" s="23"/>
-      <c r="K91" s="33"/>
+      <c r="K91" s="32"/>
       <c r="L91" s="23"/>
       <c r="M91" s="23"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="40"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="34"/>
+      <c r="S91" s="34"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="39"/>
     </row>
     <row r="92" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A92" s="22"/>
@@ -6213,21 +6263,21 @@
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
       <c r="J92" s="23"/>
-      <c r="K92" s="33"/>
+      <c r="K92" s="32"/>
       <c r="L92" s="23"/>
       <c r="M92" s="23"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="32"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="40"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="39"/>
     </row>
     <row r="93" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A93" s="22"/>
@@ -6236,21 +6286,21 @@
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
       <c r="J93" s="23"/>
-      <c r="K93" s="33"/>
+      <c r="K93" s="32"/>
       <c r="L93" s="23"/>
       <c r="M93" s="23"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="40"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="34"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="39"/>
     </row>
     <row r="94" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A94" s="22"/>
@@ -6259,44 +6309,44 @@
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
       <c r="J94" s="23"/>
-      <c r="K94" s="33"/>
+      <c r="K94" s="32"/>
       <c r="L94" s="23"/>
       <c r="M94" s="23"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="32"/>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="39"/>
-      <c r="U94" s="40"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="39"/>
     </row>
     <row r="95" spans="1:21" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="47"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="27"/>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="32"/>
+      <c r="G95" s="31"/>
       <c r="H95" s="23"/>
-      <c r="I95" s="32"/>
+      <c r="I95" s="31"/>
       <c r="J95" s="23"/>
-      <c r="K95" s="33"/>
+      <c r="K95" s="32"/>
       <c r="L95" s="23"/>
       <c r="M95" s="23"/>
-      <c r="N95" s="33"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="33"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="42"/>
-      <c r="U95" s="43"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="41"/>
+      <c r="U95" s="42"/>
     </row>
     <row r="96" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="A96" s="22"/>
@@ -6305,21 +6355,21 @@
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
-      <c r="G96" s="32"/>
+      <c r="G96" s="31"/>
       <c r="H96" s="23"/>
-      <c r="I96" s="32"/>
+      <c r="I96" s="31"/>
       <c r="J96" s="23"/>
-      <c r="K96" s="33"/>
+      <c r="K96" s="32"/>
       <c r="L96" s="23"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33"/>
-      <c r="O96" s="32"/>
-      <c r="P96" s="33"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="42"/>
-      <c r="U96" s="40"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="34"/>
+      <c r="S96" s="34"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="39"/>
     </row>
     <row r="97" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="A97" s="22"/>
@@ -6328,21 +6378,21 @@
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
-      <c r="G97" s="32"/>
+      <c r="G97" s="31"/>
       <c r="H97" s="23"/>
-      <c r="I97" s="32"/>
+      <c r="I97" s="31"/>
       <c r="J97" s="23"/>
-      <c r="K97" s="33"/>
+      <c r="K97" s="32"/>
       <c r="L97" s="23"/>
       <c r="M97" s="23"/>
-      <c r="N97" s="33"/>
-      <c r="O97" s="32"/>
-      <c r="P97" s="33"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="39"/>
-      <c r="U97" s="40"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="34"/>
+      <c r="S97" s="34"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="39"/>
     </row>
     <row r="98" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="A98" s="22"/>
@@ -6351,1154 +6401,1154 @@
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
-      <c r="G98" s="32"/>
+      <c r="G98" s="31"/>
       <c r="H98" s="23"/>
-      <c r="I98" s="32"/>
+      <c r="I98" s="31"/>
       <c r="J98" s="23"/>
-      <c r="K98" s="33"/>
+      <c r="K98" s="32"/>
       <c r="L98" s="23"/>
       <c r="M98" s="23"/>
-      <c r="N98" s="33"/>
-      <c r="O98" s="32"/>
-      <c r="P98" s="33"/>
-      <c r="Q98" s="35"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="35"/>
-      <c r="T98" s="39"/>
-      <c r="U98" s="40"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="34"/>
+      <c r="S98" s="34"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="39"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="35"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="46"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="35"/>
-      <c r="T99" s="41"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="45"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="34"/>
+      <c r="S99" s="34"/>
+      <c r="T99" s="40"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="35"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="46"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="35"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="35"/>
-      <c r="R100" s="35"/>
-      <c r="S100" s="35"/>
-      <c r="T100" s="41"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34"/>
+      <c r="O100" s="45"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="34"/>
+      <c r="S100" s="34"/>
+      <c r="T100" s="40"/>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="35"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="35"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="46"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="41"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="34"/>
+      <c r="S101" s="34"/>
+      <c r="T101" s="40"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="35"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="46"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="35"/>
-      <c r="O102" s="46"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="35"/>
-      <c r="T102" s="41"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="34"/>
+      <c r="S102" s="34"/>
+      <c r="T102" s="40"/>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
-      <c r="S103" s="35"/>
-      <c r="T103" s="41"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="45"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34"/>
+      <c r="S103" s="34"/>
+      <c r="T103" s="40"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="35"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
-      <c r="M104" s="35"/>
-      <c r="N104" s="35"/>
-      <c r="O104" s="46"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35"/>
-      <c r="S104" s="35"/>
-      <c r="T104" s="41"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="34"/>
+      <c r="R104" s="34"/>
+      <c r="S104" s="34"/>
+      <c r="T104" s="40"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="35"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="35"/>
-      <c r="M105" s="35"/>
-      <c r="N105" s="35"/>
-      <c r="O105" s="46"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="35"/>
-      <c r="R105" s="35"/>
-      <c r="S105" s="35"/>
-      <c r="T105" s="41"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="40"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="40"/>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="46"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="35"/>
-      <c r="M106" s="35"/>
-      <c r="N106" s="35"/>
-      <c r="O106" s="46"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="35"/>
-      <c r="R106" s="35"/>
-      <c r="S106" s="35"/>
-      <c r="T106" s="41"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="34"/>
+      <c r="N106" s="34"/>
+      <c r="O106" s="45"/>
+      <c r="P106" s="40"/>
+      <c r="Q106" s="34"/>
+      <c r="R106" s="34"/>
+      <c r="S106" s="34"/>
+      <c r="T106" s="40"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="35"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="35"/>
-      <c r="M107" s="35"/>
-      <c r="N107" s="35"/>
-      <c r="O107" s="46"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="35"/>
-      <c r="R107" s="35"/>
-      <c r="S107" s="35"/>
-      <c r="T107" s="41"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="34"/>
+      <c r="N107" s="34"/>
+      <c r="O107" s="45"/>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="34"/>
+      <c r="R107" s="34"/>
+      <c r="S107" s="34"/>
+      <c r="T107" s="40"/>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="35"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="35"/>
-      <c r="N108" s="35"/>
-      <c r="O108" s="46"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="35"/>
-      <c r="R108" s="35"/>
-      <c r="S108" s="35"/>
-      <c r="T108" s="41"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+      <c r="O108" s="45"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="34"/>
+      <c r="S108" s="34"/>
+      <c r="T108" s="40"/>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="35"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="35"/>
-      <c r="N109" s="35"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="35"/>
-      <c r="R109" s="35"/>
-      <c r="S109" s="35"/>
-      <c r="T109" s="41"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="40"/>
+      <c r="Q109" s="34"/>
+      <c r="R109" s="34"/>
+      <c r="S109" s="34"/>
+      <c r="T109" s="40"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="35"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="35"/>
-      <c r="L110" s="35"/>
-      <c r="M110" s="35"/>
-      <c r="N110" s="35"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="35"/>
-      <c r="R110" s="35"/>
-      <c r="S110" s="35"/>
-      <c r="T110" s="41"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="34"/>
+      <c r="N110" s="34"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="34"/>
+      <c r="R110" s="34"/>
+      <c r="S110" s="34"/>
+      <c r="T110" s="40"/>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="35"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="35"/>
-      <c r="L111" s="35"/>
-      <c r="M111" s="35"/>
-      <c r="N111" s="35"/>
-      <c r="O111" s="46"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="35"/>
-      <c r="R111" s="35"/>
-      <c r="S111" s="35"/>
-      <c r="T111" s="41"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="34"/>
+      <c r="N111" s="34"/>
+      <c r="O111" s="45"/>
+      <c r="P111" s="40"/>
+      <c r="Q111" s="34"/>
+      <c r="R111" s="34"/>
+      <c r="S111" s="34"/>
+      <c r="T111" s="40"/>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="35"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="46"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="35"/>
-      <c r="L112" s="35"/>
-      <c r="M112" s="35"/>
-      <c r="N112" s="35"/>
-      <c r="O112" s="46"/>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="35"/>
-      <c r="R112" s="35"/>
-      <c r="S112" s="35"/>
-      <c r="T112" s="41"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="45"/>
+      <c r="P112" s="40"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="34"/>
+      <c r="S112" s="34"/>
+      <c r="T112" s="40"/>
     </row>
     <row r="113" spans="1:20">
-      <c r="A113" s="35"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="35"/>
-      <c r="L113" s="35"/>
-      <c r="M113" s="35"/>
-      <c r="N113" s="35"/>
-      <c r="O113" s="46"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="35"/>
-      <c r="R113" s="35"/>
-      <c r="S113" s="35"/>
-      <c r="T113" s="41"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="45"/>
+      <c r="P113" s="40"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="34"/>
+      <c r="S113" s="34"/>
+      <c r="T113" s="40"/>
     </row>
     <row r="114" spans="1:20">
-      <c r="A114" s="35"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="35"/>
-      <c r="L114" s="35"/>
-      <c r="M114" s="35"/>
-      <c r="N114" s="35"/>
-      <c r="O114" s="46"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="35"/>
-      <c r="R114" s="35"/>
-      <c r="S114" s="35"/>
-      <c r="T114" s="41"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
+      <c r="M114" s="34"/>
+      <c r="N114" s="34"/>
+      <c r="O114" s="45"/>
+      <c r="P114" s="40"/>
+      <c r="Q114" s="34"/>
+      <c r="R114" s="34"/>
+      <c r="S114" s="34"/>
+      <c r="T114" s="40"/>
     </row>
     <row r="115" spans="1:20">
-      <c r="A115" s="35"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="46"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="35"/>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="46"/>
-      <c r="P115" s="41"/>
-      <c r="Q115" s="35"/>
-      <c r="R115" s="35"/>
-      <c r="S115" s="35"/>
-      <c r="T115" s="41"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34"/>
+      <c r="M115" s="34"/>
+      <c r="N115" s="34"/>
+      <c r="O115" s="45"/>
+      <c r="P115" s="40"/>
+      <c r="Q115" s="34"/>
+      <c r="R115" s="34"/>
+      <c r="S115" s="34"/>
+      <c r="T115" s="40"/>
     </row>
     <row r="116" spans="1:20">
-      <c r="A116" s="35"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="35"/>
-      <c r="L116" s="35"/>
-      <c r="M116" s="35"/>
-      <c r="N116" s="35"/>
-      <c r="O116" s="46"/>
-      <c r="P116" s="41"/>
-      <c r="Q116" s="35"/>
-      <c r="R116" s="35"/>
-      <c r="S116" s="35"/>
-      <c r="T116" s="41"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+      <c r="N116" s="34"/>
+      <c r="O116" s="45"/>
+      <c r="P116" s="40"/>
+      <c r="Q116" s="34"/>
+      <c r="R116" s="34"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="40"/>
     </row>
     <row r="117" spans="1:20">
-      <c r="A117" s="35"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="35"/>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="35"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="41"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35"/>
-      <c r="S117" s="35"/>
-      <c r="T117" s="41"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="34"/>
+      <c r="M117" s="34"/>
+      <c r="N117" s="34"/>
+      <c r="O117" s="45"/>
+      <c r="P117" s="40"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="34"/>
+      <c r="T117" s="40"/>
     </row>
     <row r="118" spans="1:20">
-      <c r="A118" s="35"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="46"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="35"/>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="35"/>
-      <c r="O118" s="46"/>
-      <c r="P118" s="41"/>
-      <c r="Q118" s="35"/>
-      <c r="R118" s="35"/>
-      <c r="S118" s="35"/>
-      <c r="T118" s="41"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="34"/>
+      <c r="M118" s="34"/>
+      <c r="N118" s="34"/>
+      <c r="O118" s="45"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="34"/>
+      <c r="R118" s="34"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="40"/>
     </row>
     <row r="119" spans="1:20">
-      <c r="A119" s="35"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="35"/>
-      <c r="L119" s="35"/>
-      <c r="M119" s="35"/>
-      <c r="N119" s="35"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="41"/>
-      <c r="Q119" s="35"/>
-      <c r="R119" s="35"/>
-      <c r="S119" s="35"/>
-      <c r="T119" s="41"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="45"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="34"/>
+      <c r="M119" s="34"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="45"/>
+      <c r="P119" s="40"/>
+      <c r="Q119" s="34"/>
+      <c r="R119" s="34"/>
+      <c r="S119" s="34"/>
+      <c r="T119" s="40"/>
     </row>
     <row r="120" spans="1:20">
-      <c r="A120" s="35"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="35"/>
-      <c r="L120" s="35"/>
-      <c r="M120" s="35"/>
-      <c r="N120" s="35"/>
-      <c r="O120" s="46"/>
-      <c r="P120" s="41"/>
-      <c r="T120" s="41"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="45"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34"/>
+      <c r="M120" s="34"/>
+      <c r="N120" s="34"/>
+      <c r="O120" s="45"/>
+      <c r="P120" s="40"/>
+      <c r="T120" s="40"/>
     </row>
     <row r="121" spans="1:20">
-      <c r="A121" s="35"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="35"/>
-      <c r="L121" s="35"/>
-      <c r="M121" s="35"/>
-      <c r="N121" s="35"/>
-      <c r="O121" s="46"/>
-      <c r="P121" s="41"/>
-      <c r="T121" s="41"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
+      <c r="M121" s="34"/>
+      <c r="N121" s="34"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="40"/>
+      <c r="T121" s="40"/>
     </row>
     <row r="122" spans="1:20">
-      <c r="A122" s="35"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="35"/>
-      <c r="L122" s="35"/>
-      <c r="M122" s="35"/>
-      <c r="N122" s="35"/>
-      <c r="O122" s="46"/>
-      <c r="P122" s="41"/>
-      <c r="T122" s="41"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="45"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="34"/>
+      <c r="O122" s="45"/>
+      <c r="P122" s="40"/>
+      <c r="T122" s="40"/>
     </row>
     <row r="123" spans="1:20">
-      <c r="A123" s="35"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="35"/>
-      <c r="L123" s="35"/>
-      <c r="M123" s="35"/>
-      <c r="N123" s="35"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="41"/>
-      <c r="T123" s="41"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="45"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+      <c r="M123" s="34"/>
+      <c r="N123" s="34"/>
+      <c r="O123" s="45"/>
+      <c r="P123" s="40"/>
+      <c r="T123" s="40"/>
     </row>
     <row r="124" spans="1:20">
-      <c r="A124" s="35"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="35"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="41"/>
-      <c r="T124" s="41"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="45"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
+      <c r="M124" s="34"/>
+      <c r="N124" s="34"/>
+      <c r="O124" s="45"/>
+      <c r="P124" s="40"/>
+      <c r="T124" s="40"/>
     </row>
     <row r="125" spans="1:20">
-      <c r="A125" s="35"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="35"/>
-      <c r="L125" s="35"/>
-      <c r="M125" s="35"/>
-      <c r="N125" s="35"/>
-      <c r="O125" s="46"/>
-      <c r="P125" s="41"/>
-      <c r="T125" s="41"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="34"/>
+      <c r="L125" s="34"/>
+      <c r="M125" s="34"/>
+      <c r="N125" s="34"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="40"/>
+      <c r="T125" s="40"/>
     </row>
     <row r="126" spans="1:20">
-      <c r="A126" s="35"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="35"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="35"/>
-      <c r="L126" s="35"/>
-      <c r="M126" s="35"/>
-      <c r="N126" s="35"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="41"/>
-      <c r="T126" s="41"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="34"/>
+      <c r="N126" s="34"/>
+      <c r="O126" s="45"/>
+      <c r="P126" s="40"/>
+      <c r="T126" s="40"/>
     </row>
     <row r="127" spans="1:20">
-      <c r="A127" s="35"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="34"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
-      <c r="M127" s="35"/>
-      <c r="N127" s="35"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="41"/>
-      <c r="T127" s="41"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="45"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="34"/>
+      <c r="L127" s="34"/>
+      <c r="M127" s="34"/>
+      <c r="N127" s="34"/>
+      <c r="O127" s="45"/>
+      <c r="P127" s="40"/>
+      <c r="T127" s="40"/>
     </row>
     <row r="128" spans="1:20">
-      <c r="A128" s="35"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="46"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="35"/>
-      <c r="L128" s="35"/>
-      <c r="M128" s="35"/>
-      <c r="N128" s="35"/>
-      <c r="O128" s="46"/>
-      <c r="P128" s="41"/>
-      <c r="T128" s="41"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="34"/>
+      <c r="L128" s="34"/>
+      <c r="M128" s="34"/>
+      <c r="N128" s="34"/>
+      <c r="O128" s="45"/>
+      <c r="P128" s="40"/>
+      <c r="T128" s="40"/>
     </row>
     <row r="129" spans="1:20">
-      <c r="A129" s="35"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="46"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="35"/>
-      <c r="L129" s="35"/>
-      <c r="M129" s="35"/>
-      <c r="N129" s="35"/>
-      <c r="O129" s="46"/>
-      <c r="P129" s="41"/>
-      <c r="T129" s="41"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="34"/>
+      <c r="L129" s="34"/>
+      <c r="M129" s="34"/>
+      <c r="N129" s="34"/>
+      <c r="O129" s="45"/>
+      <c r="P129" s="40"/>
+      <c r="T129" s="40"/>
     </row>
     <row r="130" spans="1:20">
-      <c r="A130" s="35"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="46"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="35"/>
-      <c r="L130" s="35"/>
-      <c r="M130" s="35"/>
-      <c r="N130" s="35"/>
-      <c r="O130" s="46"/>
-      <c r="P130" s="41"/>
-      <c r="T130" s="41"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="45"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="34"/>
+      <c r="L130" s="34"/>
+      <c r="M130" s="34"/>
+      <c r="N130" s="34"/>
+      <c r="O130" s="45"/>
+      <c r="P130" s="40"/>
+      <c r="T130" s="40"/>
     </row>
     <row r="131" spans="1:20">
-      <c r="A131" s="35"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="46"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="35"/>
-      <c r="L131" s="35"/>
-      <c r="M131" s="35"/>
-      <c r="N131" s="35"/>
-      <c r="O131" s="46"/>
-      <c r="P131" s="41"/>
-      <c r="T131" s="41"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="45"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="34"/>
+      <c r="N131" s="34"/>
+      <c r="O131" s="45"/>
+      <c r="P131" s="40"/>
+      <c r="T131" s="40"/>
     </row>
     <row r="132" spans="1:20">
-      <c r="A132" s="35"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="35"/>
-      <c r="L132" s="35"/>
-      <c r="M132" s="35"/>
-      <c r="N132" s="35"/>
-      <c r="O132" s="46"/>
-      <c r="P132" s="41"/>
-      <c r="T132" s="41"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="45"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="34"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="34"/>
+      <c r="N132" s="34"/>
+      <c r="O132" s="45"/>
+      <c r="P132" s="40"/>
+      <c r="T132" s="40"/>
     </row>
     <row r="133" spans="1:20">
-      <c r="A133" s="35"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="41"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35"/>
-      <c r="N133" s="35"/>
-      <c r="O133" s="46"/>
-      <c r="P133" s="41"/>
-      <c r="T133" s="41"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="45"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="34"/>
+      <c r="L133" s="34"/>
+      <c r="M133" s="34"/>
+      <c r="N133" s="34"/>
+      <c r="O133" s="45"/>
+      <c r="P133" s="40"/>
+      <c r="T133" s="40"/>
     </row>
     <row r="134" spans="1:20">
-      <c r="A134" s="35"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="46"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="35"/>
-      <c r="M134" s="35"/>
-      <c r="N134" s="35"/>
-      <c r="O134" s="46"/>
-      <c r="P134" s="41"/>
-      <c r="T134" s="41"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="45"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="34"/>
+      <c r="L134" s="34"/>
+      <c r="M134" s="34"/>
+      <c r="N134" s="34"/>
+      <c r="O134" s="45"/>
+      <c r="P134" s="40"/>
+      <c r="T134" s="40"/>
     </row>
     <row r="135" spans="1:20">
-      <c r="A135" s="35"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="35"/>
-      <c r="L135" s="35"/>
-      <c r="M135" s="35"/>
-      <c r="N135" s="35"/>
-      <c r="O135" s="46"/>
-      <c r="P135" s="41"/>
-      <c r="T135" s="41"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="45"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="34"/>
+      <c r="L135" s="34"/>
+      <c r="M135" s="34"/>
+      <c r="N135" s="34"/>
+      <c r="O135" s="45"/>
+      <c r="P135" s="40"/>
+      <c r="T135" s="40"/>
     </row>
     <row r="136" spans="1:20">
-      <c r="A136" s="35"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="35"/>
-      <c r="I136" s="46"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="35"/>
-      <c r="L136" s="35"/>
-      <c r="M136" s="35"/>
-      <c r="N136" s="35"/>
-      <c r="O136" s="46"/>
-      <c r="P136" s="41"/>
-      <c r="T136" s="41"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="34"/>
+      <c r="L136" s="34"/>
+      <c r="M136" s="34"/>
+      <c r="N136" s="34"/>
+      <c r="O136" s="45"/>
+      <c r="P136" s="40"/>
+      <c r="T136" s="40"/>
     </row>
     <row r="137" spans="1:20">
-      <c r="A137" s="35"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="46"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="35"/>
-      <c r="M137" s="35"/>
-      <c r="N137" s="35"/>
-      <c r="O137" s="46"/>
-      <c r="P137" s="41"/>
-      <c r="T137" s="41"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="34"/>
+      <c r="L137" s="34"/>
+      <c r="M137" s="34"/>
+      <c r="N137" s="34"/>
+      <c r="O137" s="45"/>
+      <c r="P137" s="40"/>
+      <c r="T137" s="40"/>
     </row>
     <row r="138" spans="1:20">
-      <c r="A138" s="35"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="35"/>
-      <c r="I138" s="46"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="35"/>
-      <c r="L138" s="35"/>
-      <c r="M138" s="35"/>
-      <c r="N138" s="35"/>
-      <c r="O138" s="46"/>
-      <c r="P138" s="41"/>
-      <c r="T138" s="41"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="45"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="34"/>
+      <c r="L138" s="34"/>
+      <c r="M138" s="34"/>
+      <c r="N138" s="34"/>
+      <c r="O138" s="45"/>
+      <c r="P138" s="40"/>
+      <c r="T138" s="40"/>
     </row>
     <row r="139" spans="1:20">
-      <c r="A139" s="35"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="46"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="35"/>
-      <c r="M139" s="35"/>
-      <c r="N139" s="35"/>
-      <c r="O139" s="46"/>
-      <c r="P139" s="41"/>
-      <c r="T139" s="41"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="45"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="34"/>
+      <c r="L139" s="34"/>
+      <c r="M139" s="34"/>
+      <c r="N139" s="34"/>
+      <c r="O139" s="45"/>
+      <c r="P139" s="40"/>
+      <c r="T139" s="40"/>
     </row>
     <row r="140" spans="1:20">
-      <c r="A140" s="35"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="35"/>
-      <c r="I140" s="46"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="35"/>
-      <c r="L140" s="35"/>
-      <c r="M140" s="35"/>
-      <c r="N140" s="35"/>
-      <c r="O140" s="46"/>
-      <c r="P140" s="41"/>
-      <c r="T140" s="41"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="45"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="34"/>
+      <c r="L140" s="34"/>
+      <c r="M140" s="34"/>
+      <c r="N140" s="34"/>
+      <c r="O140" s="45"/>
+      <c r="P140" s="40"/>
+      <c r="T140" s="40"/>
     </row>
     <row r="141" spans="1:20">
-      <c r="A141" s="35"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="35"/>
-      <c r="I141" s="46"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="35"/>
-      <c r="L141" s="35"/>
-      <c r="M141" s="35"/>
-      <c r="N141" s="35"/>
-      <c r="O141" s="46"/>
-      <c r="P141" s="41"/>
-      <c r="T141" s="41"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="45"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="34"/>
+      <c r="L141" s="34"/>
+      <c r="M141" s="34"/>
+      <c r="N141" s="34"/>
+      <c r="O141" s="45"/>
+      <c r="P141" s="40"/>
+      <c r="T141" s="40"/>
     </row>
     <row r="142" spans="1:20">
-      <c r="A142" s="35"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
-      <c r="M142" s="35"/>
-      <c r="N142" s="35"/>
-      <c r="O142" s="46"/>
-      <c r="P142" s="41"/>
-      <c r="T142" s="41"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="45"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="34"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="34"/>
+      <c r="N142" s="34"/>
+      <c r="O142" s="45"/>
+      <c r="P142" s="40"/>
+      <c r="T142" s="40"/>
     </row>
     <row r="143" spans="1:20">
-      <c r="A143" s="35"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="46"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="35"/>
-      <c r="M143" s="35"/>
-      <c r="N143" s="35"/>
-      <c r="O143" s="46"/>
-      <c r="P143" s="41"/>
-      <c r="T143" s="41"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="45"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="34"/>
+      <c r="L143" s="34"/>
+      <c r="M143" s="34"/>
+      <c r="N143" s="34"/>
+      <c r="O143" s="45"/>
+      <c r="P143" s="40"/>
+      <c r="T143" s="40"/>
     </row>
     <row r="144" spans="1:20">
-      <c r="A144" s="35"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="35"/>
-      <c r="I144" s="46"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="35"/>
-      <c r="L144" s="35"/>
-      <c r="M144" s="35"/>
-      <c r="N144" s="35"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="41"/>
-      <c r="T144" s="41"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="45"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="34"/>
+      <c r="L144" s="34"/>
+      <c r="M144" s="34"/>
+      <c r="N144" s="34"/>
+      <c r="O144" s="45"/>
+      <c r="P144" s="40"/>
+      <c r="T144" s="40"/>
     </row>
     <row r="145" spans="1:20">
-      <c r="A145" s="35"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="35"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="35"/>
-      <c r="I145" s="46"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="35"/>
-      <c r="L145" s="35"/>
-      <c r="M145" s="35"/>
-      <c r="N145" s="35"/>
-      <c r="O145" s="46"/>
-      <c r="P145" s="41"/>
-      <c r="T145" s="41"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="45"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="34"/>
+      <c r="L145" s="34"/>
+      <c r="M145" s="34"/>
+      <c r="N145" s="34"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="40"/>
+      <c r="T145" s="40"/>
     </row>
     <row r="146" spans="1:20">
-      <c r="A146" s="35"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="35"/>
-      <c r="I146" s="46"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="35"/>
-      <c r="L146" s="35"/>
-      <c r="M146" s="35"/>
-      <c r="N146" s="35"/>
-      <c r="O146" s="46"/>
-      <c r="P146" s="41"/>
-      <c r="T146" s="41"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="45"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="34"/>
+      <c r="L146" s="34"/>
+      <c r="M146" s="34"/>
+      <c r="N146" s="34"/>
+      <c r="O146" s="45"/>
+      <c r="P146" s="40"/>
+      <c r="T146" s="40"/>
     </row>
     <row r="147" spans="1:20">
-      <c r="A147" s="35"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="46"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="35"/>
-      <c r="L147" s="35"/>
-      <c r="M147" s="35"/>
-      <c r="N147" s="35"/>
-      <c r="O147" s="46"/>
-      <c r="P147" s="41"/>
-      <c r="T147" s="41"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="45"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="34"/>
+      <c r="L147" s="34"/>
+      <c r="M147" s="34"/>
+      <c r="N147" s="34"/>
+      <c r="O147" s="45"/>
+      <c r="P147" s="40"/>
+      <c r="T147" s="40"/>
     </row>
     <row r="148" spans="1:20">
-      <c r="A148" s="35"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="41"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="46"/>
-      <c r="J148" s="34"/>
-      <c r="K148" s="35"/>
-      <c r="L148" s="35"/>
-      <c r="M148" s="35"/>
-      <c r="N148" s="35"/>
-      <c r="O148" s="46"/>
-      <c r="P148" s="41"/>
-      <c r="T148" s="41"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="34"/>
+      <c r="L148" s="34"/>
+      <c r="M148" s="34"/>
+      <c r="N148" s="34"/>
+      <c r="O148" s="45"/>
+      <c r="P148" s="40"/>
+      <c r="T148" s="40"/>
     </row>
     <row r="149" spans="1:20">
-      <c r="A149" s="35"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="46"/>
-      <c r="J149" s="34"/>
-      <c r="K149" s="35"/>
-      <c r="L149" s="35"/>
-      <c r="M149" s="35"/>
-      <c r="N149" s="35"/>
-      <c r="O149" s="46"/>
-      <c r="P149" s="41"/>
-      <c r="T149" s="41"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
+      <c r="F149" s="34"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="45"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="34"/>
+      <c r="L149" s="34"/>
+      <c r="M149" s="34"/>
+      <c r="N149" s="34"/>
+      <c r="O149" s="45"/>
+      <c r="P149" s="40"/>
+      <c r="T149" s="40"/>
     </row>
     <row r="150" spans="1:20">
-      <c r="A150" s="35"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="35"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="35"/>
-      <c r="I150" s="46"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="35"/>
-      <c r="L150" s="35"/>
-      <c r="M150" s="35"/>
-      <c r="N150" s="35"/>
-      <c r="O150" s="46"/>
-      <c r="P150" s="41"/>
-      <c r="T150" s="41"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="34"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="34"/>
+      <c r="I150" s="45"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="34"/>
+      <c r="L150" s="34"/>
+      <c r="M150" s="34"/>
+      <c r="N150" s="34"/>
+      <c r="O150" s="45"/>
+      <c r="P150" s="40"/>
+      <c r="T150" s="40"/>
     </row>
     <row r="151" spans="1:20">
-      <c r="A151" s="35"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="35"/>
-      <c r="E151" s="35"/>
-      <c r="F151" s="35"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="35"/>
-      <c r="I151" s="46"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="35"/>
-      <c r="L151" s="35"/>
-      <c r="M151" s="35"/>
-      <c r="N151" s="35"/>
-      <c r="O151" s="46"/>
-      <c r="P151" s="41"/>
-      <c r="T151" s="41"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34"/>
+      <c r="F151" s="34"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="45"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="34"/>
+      <c r="L151" s="34"/>
+      <c r="M151" s="34"/>
+      <c r="N151" s="34"/>
+      <c r="O151" s="45"/>
+      <c r="P151" s="40"/>
+      <c r="T151" s="40"/>
     </row>
     <row r="152" spans="1:20">
-      <c r="A152" s="35"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="41"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="35"/>
-      <c r="F152" s="35"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="35"/>
-      <c r="I152" s="46"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="35"/>
-      <c r="L152" s="35"/>
-      <c r="M152" s="35"/>
-      <c r="N152" s="35"/>
-      <c r="O152" s="46"/>
-      <c r="P152" s="41"/>
-      <c r="T152" s="41"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="34"/>
+      <c r="F152" s="34"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="45"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="34"/>
+      <c r="L152" s="34"/>
+      <c r="M152" s="34"/>
+      <c r="N152" s="34"/>
+      <c r="O152" s="45"/>
+      <c r="P152" s="40"/>
+      <c r="T152" s="40"/>
     </row>
     <row r="153" spans="1:20">
-      <c r="A153" s="35"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="46"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="35"/>
-      <c r="L153" s="35"/>
-      <c r="M153" s="35"/>
-      <c r="N153" s="35"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="41"/>
-      <c r="T153" s="41"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="34"/>
+      <c r="L153" s="34"/>
+      <c r="M153" s="34"/>
+      <c r="N153" s="34"/>
+      <c r="O153" s="45"/>
+      <c r="P153" s="40"/>
+      <c r="T153" s="40"/>
     </row>
     <row r="154" spans="1:20">
-      <c r="A154" s="35"/>
-      <c r="B154" s="35"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="35"/>
-      <c r="E154" s="35"/>
-      <c r="F154" s="35"/>
-      <c r="G154" s="46"/>
-      <c r="H154" s="35"/>
-      <c r="I154" s="46"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="35"/>
-      <c r="L154" s="35"/>
-      <c r="M154" s="35"/>
-      <c r="N154" s="35"/>
-      <c r="O154" s="46"/>
-      <c r="P154" s="41"/>
-      <c r="T154" s="41"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="34"/>
+      <c r="F154" s="34"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="34"/>
+      <c r="L154" s="34"/>
+      <c r="M154" s="34"/>
+      <c r="N154" s="34"/>
+      <c r="O154" s="45"/>
+      <c r="P154" s="40"/>
+      <c r="T154" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U154">
     <filterColumn colId="1"/>
   </autoFilter>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6 WLV2:WLV6 WBZ2:WBZ6 VSD2:VSD6 VIH2:VIH6 UYL2:UYL6 UOP2:UOP6 UET2:UET6 TUX2:TUX6 TLB2:TLB6 TBF2:TBF6 SRJ2:SRJ6 SHN2:SHN6 RXR2:RXR6 RNV2:RNV6 RDZ2:RDZ6 QUD2:QUD6 QKH2:QKH6 QAL2:QAL6 PQP2:PQP6 PGT2:PGT6 OWX2:OWX6 ONB2:ONB6 ODF2:ODF6 NTJ2:NTJ6 NJN2:NJN6 MZR2:MZR6 MPV2:MPV6 MFZ2:MFZ6 LWD2:LWD6 LMH2:LMH6 LCL2:LCL6 KSP2:KSP6 KIT2:KIT6 JYX2:JYX6 JPB2:JPB6 JFF2:JFF6 IVJ2:IVJ6 ILN2:ILN6 IBR2:IBR6 HRV2:HRV6 HHZ2:HHZ6 GYD2:GYD6 GOH2:GOH6 GEL2:GEL6 FUP2:FUP6 FKT2:FKT6 FAX2:FAX6 ERB2:ERB6 EHF2:EHF6 DXJ2:DXJ6 DNN2:DNN6 DDR2:DDR6 CTV2:CTV6 CJZ2:CJZ6 CAD2:CAD6 BQH2:BQH6 BGL2:BGL6 AWP2:AWP6 AMT2:AMT6 ACX2:ACX6 TB2:TB6 JF2:JF6 WVR2:WVR6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -7529,7 +7579,7 @@
     <col min="5" max="5" width="35" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.75" style="61" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="60" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
@@ -8357,36 +8407,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -8407,10 +8457,10 @@
       <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="67" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -8429,199 +8479,199 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="72" customFormat="1" ht="115.5">
-      <c r="A4" s="69">
+    <row r="4" spans="1:13" s="71" customFormat="1" ht="115.5">
+      <c r="A4" s="68">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="70"/>
-    </row>
-    <row r="5" spans="1:13" s="72" customFormat="1" ht="82.5">
-      <c r="A5" s="69">
+      <c r="M4" s="69"/>
+    </row>
+    <row r="5" spans="1:13" s="71" customFormat="1" ht="82.5">
+      <c r="A5" s="68">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="70"/>
-    </row>
-    <row r="6" spans="1:13" s="72" customFormat="1" ht="66">
-      <c r="A6" s="69">
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:13" s="71" customFormat="1" ht="66">
+      <c r="A6" s="68">
         <v>3</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="69" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="72" customFormat="1" ht="99">
-      <c r="A7" s="69">
+    <row r="7" spans="1:13" s="71" customFormat="1" ht="99">
+      <c r="A7" s="68">
         <v>4</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>186</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="68" t="s">
         <v>192</v>
       </c>
       <c r="M8" s="10" t="s">
@@ -8692,7 +8742,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -9550,36 +9600,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -9623,198 +9673,198 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="115.5">
-      <c r="A4" s="69">
+      <c r="A4" s="68">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="M4" s="70"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="82.5">
-      <c r="A5" s="69">
+      <c r="A5" s="68">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="M5" s="70"/>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="66">
-      <c r="A6" s="69">
+      <c r="A6" s="68">
         <v>3</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="69" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="99">
-      <c r="A7" s="69">
+      <c r="A7" s="68">
         <v>4</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>209</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="68" t="s">
         <v>215</v>
       </c>
       <c r="M8" s="10" t="s">
@@ -9825,7 +9875,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 JE1:JE1048576 WVQ1:WVQ1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -9909,7 +9959,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4.xlsx
@@ -13,14 +13,14 @@
     <sheet name="是否支持热发" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4 新特性|Fix Bug'!$A$1:$U$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4 新特性|Fix Bug'!$A$1:$U$155</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="245">
   <si>
     <t>No</t>
   </si>
@@ -1446,6 +1446,30 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要且紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片物理删除底层方法修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1743,7 +1767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1980,6 +2004,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2404,13 +2431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U154"/>
+  <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5189,54 +5216,58 @@
       <c r="T52" s="53"/>
       <c r="U52" s="54"/>
     </row>
-    <row r="53" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="53" spans="1:21" s="55" customFormat="1" ht="16.5">
       <c r="A53" s="47">
         <v>52</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="G53" s="50">
-        <v>42663</v>
+        <v>42668</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="50"/>
+        <v>20</v>
+      </c>
+      <c r="I53" s="50">
+        <v>42668</v>
+      </c>
       <c r="J53" s="49"/>
       <c r="K53" s="51" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="L53" s="49" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="M53" s="49" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="N53" s="51" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="O53" s="50">
-        <v>42667</v>
+        <v>42668</v>
       </c>
       <c r="P53" s="51" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="Q53" s="58"/>
       <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
+      <c r="S53" s="79" t="s">
+        <v>244</v>
+      </c>
       <c r="T53" s="53"/>
       <c r="U53" s="54"/>
     </row>
@@ -5248,10 +5279,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="64" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>103</v>
@@ -5260,7 +5291,7 @@
         <v>79</v>
       </c>
       <c r="G54" s="50">
-        <v>42661</v>
+        <v>42663</v>
       </c>
       <c r="H54" s="49" t="s">
         <v>79</v>
@@ -5268,7 +5299,7 @@
       <c r="I54" s="50"/>
       <c r="J54" s="49"/>
       <c r="K54" s="51" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L54" s="49" t="s">
         <v>171</v>
@@ -5288,9 +5319,7 @@
       <c r="Q54" s="58"/>
       <c r="R54" s="58"/>
       <c r="S54" s="58"/>
-      <c r="T54" s="65" t="s">
-        <v>176</v>
-      </c>
+      <c r="T54" s="53"/>
       <c r="U54" s="54"/>
     </row>
     <row r="55" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
@@ -5301,10 +5330,10 @@
         <v>75</v>
       </c>
       <c r="C55" s="64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="E55" s="49" t="s">
         <v>103</v>
@@ -5313,7 +5342,7 @@
         <v>79</v>
       </c>
       <c r="G55" s="50">
-        <v>42662</v>
+        <v>42661</v>
       </c>
       <c r="H55" s="49" t="s">
         <v>79</v>
@@ -5321,19 +5350,19 @@
       <c r="I55" s="50"/>
       <c r="J55" s="49"/>
       <c r="K55" s="51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L55" s="49" t="s">
         <v>171</v>
       </c>
       <c r="M55" s="49" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="N55" s="51" t="s">
         <v>106</v>
       </c>
       <c r="O55" s="50">
-        <v>42668</v>
+        <v>42667</v>
       </c>
       <c r="P55" s="51" t="s">
         <v>84</v>
@@ -5341,7 +5370,9 @@
       <c r="Q55" s="58"/>
       <c r="R55" s="58"/>
       <c r="S55" s="58"/>
-      <c r="T55" s="53"/>
+      <c r="T55" s="65" t="s">
+        <v>176</v>
+      </c>
       <c r="U55" s="54"/>
     </row>
     <row r="56" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
@@ -5352,7 +5383,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D56" s="49" t="s">
         <v>77</v>
@@ -5364,7 +5395,7 @@
         <v>79</v>
       </c>
       <c r="G56" s="50">
-        <v>42665</v>
+        <v>42662</v>
       </c>
       <c r="H56" s="49" t="s">
         <v>79</v>
@@ -5372,7 +5403,7 @@
       <c r="I56" s="50"/>
       <c r="J56" s="49"/>
       <c r="K56" s="51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L56" s="49" t="s">
         <v>171</v>
@@ -5384,7 +5415,7 @@
         <v>106</v>
       </c>
       <c r="O56" s="50">
-        <v>42669</v>
+        <v>42668</v>
       </c>
       <c r="P56" s="51" t="s">
         <v>84</v>
@@ -5403,7 +5434,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>77</v>
@@ -5423,7 +5454,7 @@
       <c r="I57" s="50"/>
       <c r="J57" s="49"/>
       <c r="K57" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L57" s="49" t="s">
         <v>171</v>
@@ -5435,7 +5466,7 @@
         <v>106</v>
       </c>
       <c r="O57" s="50">
-        <v>42670</v>
+        <v>42669</v>
       </c>
       <c r="P57" s="51" t="s">
         <v>84</v>
@@ -5446,27 +5477,27 @@
       <c r="T57" s="53"/>
       <c r="U57" s="54"/>
     </row>
-    <row r="58" spans="1:21" s="55" customFormat="1" ht="16.5">
+    <row r="58" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
       <c r="A58" s="47">
         <v>57</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="C58" s="64" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="F58" s="49" t="s">
         <v>79</v>
       </c>
       <c r="G58" s="50">
-        <v>42668</v>
+        <v>42665</v>
       </c>
       <c r="H58" s="49" t="s">
         <v>79</v>
@@ -5474,22 +5505,22 @@
       <c r="I58" s="50"/>
       <c r="J58" s="49"/>
       <c r="K58" s="51" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="L58" s="49" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="M58" s="49" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="N58" s="51" t="s">
         <v>106</v>
       </c>
       <c r="O58" s="50">
-        <v>42669</v>
+        <v>42670</v>
       </c>
       <c r="P58" s="51" t="s">
-        <v>238</v>
+        <v>84</v>
       </c>
       <c r="Q58" s="58"/>
       <c r="R58" s="58"/>
@@ -5497,33 +5528,61 @@
       <c r="T58" s="53"/>
       <c r="U58" s="54"/>
     </row>
-    <row r="59" spans="1:21" s="14" customFormat="1" ht="16.5">
-      <c r="A59" s="22"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="39"/>
+    <row r="59" spans="1:21" s="55" customFormat="1" ht="16.5">
+      <c r="A59" s="47">
+        <v>58</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="50">
+        <v>42668</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="50"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="L59" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="M59" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="N59" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O59" s="50">
+        <v>42669</v>
+      </c>
+      <c r="P59" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="58"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="54"/>
     </row>
     <row r="60" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="28"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
@@ -5545,8 +5604,8 @@
     </row>
     <row r="61" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A61" s="22"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="30"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
@@ -5569,7 +5628,7 @@
     <row r="62" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A62" s="22"/>
       <c r="B62" s="46"/>
-      <c r="C62" s="29"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
@@ -5591,8 +5650,8 @@
     </row>
     <row r="63" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="28"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
@@ -6305,7 +6364,7 @@
     <row r="94" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
-      <c r="C94" s="24"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
@@ -6325,15 +6384,15 @@
       <c r="T94" s="38"/>
       <c r="U94" s="39"/>
     </row>
-    <row r="95" spans="1:21" s="15" customFormat="1" ht="27" customHeight="1">
+    <row r="95" spans="1:21" s="14" customFormat="1" ht="16.5">
       <c r="A95" s="22"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="27"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="24"/>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="31"/>
-      <c r="H95" s="23"/>
+      <c r="H95" s="31"/>
       <c r="I95" s="31"/>
       <c r="J95" s="23"/>
       <c r="K95" s="32"/>
@@ -6342,16 +6401,16 @@
       <c r="N95" s="32"/>
       <c r="O95" s="31"/>
       <c r="P95" s="32"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="41"/>
-      <c r="U95" s="42"/>
-    </row>
-    <row r="96" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="34"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="39"/>
+    </row>
+    <row r="96" spans="1:21" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="24"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="27"/>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
@@ -6361,15 +6420,15 @@
       <c r="J96" s="23"/>
       <c r="K96" s="32"/>
       <c r="L96" s="23"/>
-      <c r="M96" s="32"/>
+      <c r="M96" s="23"/>
       <c r="N96" s="32"/>
       <c r="O96" s="31"/>
       <c r="P96" s="32"/>
-      <c r="Q96" s="34"/>
-      <c r="R96" s="34"/>
-      <c r="S96" s="34"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
       <c r="T96" s="41"/>
-      <c r="U96" s="39"/>
+      <c r="U96" s="42"/>
     </row>
     <row r="97" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="A97" s="22"/>
@@ -6384,14 +6443,14 @@
       <c r="J97" s="23"/>
       <c r="K97" s="32"/>
       <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
+      <c r="M97" s="32"/>
       <c r="N97" s="32"/>
       <c r="O97" s="31"/>
       <c r="P97" s="32"/>
       <c r="Q97" s="34"/>
       <c r="R97" s="34"/>
       <c r="S97" s="34"/>
-      <c r="T97" s="38"/>
+      <c r="T97" s="41"/>
       <c r="U97" s="39"/>
     </row>
     <row r="98" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
@@ -6417,27 +6476,28 @@
       <c r="T98" s="38"/>
       <c r="U98" s="39"/>
     </row>
-    <row r="99" spans="1:21">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="34"/>
-      <c r="O99" s="45"/>
-      <c r="P99" s="40"/>
+    <row r="99" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="32"/>
       <c r="Q99" s="34"/>
       <c r="R99" s="34"/>
       <c r="S99" s="34"/>
-      <c r="T99" s="40"/>
+      <c r="T99" s="38"/>
+      <c r="U99" s="39"/>
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="34"/>
@@ -6896,6 +6956,9 @@
       <c r="N120" s="34"/>
       <c r="O120" s="45"/>
       <c r="P120" s="40"/>
+      <c r="Q120" s="34"/>
+      <c r="R120" s="34"/>
+      <c r="S120" s="34"/>
       <c r="T120" s="40"/>
     </row>
     <row r="121" spans="1:20">
@@ -7544,8 +7607,27 @@
       <c r="P154" s="40"/>
       <c r="T154" s="40"/>
     </row>
+    <row r="155" spans="1:20">
+      <c r="A155" s="34"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="45"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="34"/>
+      <c r="L155" s="34"/>
+      <c r="M155" s="34"/>
+      <c r="N155" s="34"/>
+      <c r="O155" s="45"/>
+      <c r="P155" s="40"/>
+      <c r="T155" s="40"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U154">
+  <autoFilter ref="A1:U155">
     <filterColumn colId="1"/>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27345" windowHeight="13365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27345" windowHeight="13365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="(预发布)需要修改的配置文件" sheetId="4" r:id="rId2"/>
     <sheet name="(生产)需要修改的配置文件" sheetId="2" r:id="rId3"/>
-    <sheet name="是否支持热发" sheetId="3" r:id="rId4"/>
+    <sheet name="(公测)需要修改的配置文件" sheetId="6" r:id="rId4"/>
+    <sheet name="是否支持热发" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4 新特性|Fix Bug'!$A$1:$U$155</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="225">
   <si>
     <t>No</t>
   </si>
@@ -849,15 +850,7 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>5.0.4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>jdbc.url_se
 jdbc.username_se
@@ -989,30 +978,47 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>新增</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-renterpc</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-
+renterembed</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>memcache</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">微信
+set 10_smsRequestIp_w_f_ip_ 0 0 723
+101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
+支付宝
+set 11_smsRequestIp_w_f_ip_ 0 0 723
+101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
+</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>这部分IP无需校验
+发送短信的上限</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术经理</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>mogoroom-renter</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc.driverClassName_se=
-jdbc.url_se=
-jdbc.username_se=
-jdbc.password_se=</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置值为IP为15的从库DB</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-renterpc</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -1097,39 +1103,63 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>mogoroom-
-renterembed</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>memcache</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">微信
-set 10_smsRequestIp_w_f_ip_ 0 0 723
-101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
-支付宝
-set 11_smsRequestIp_w_f_ip_ 0 0 723
-101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送短信白名单</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱彤</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>这部分IP无需校验
-发送短信的上限</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术经理</t>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要且紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除图片 roomdi为空判断</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敖</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要且紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片物理删除底层方法修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -1137,162 +1167,19 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>5.0.4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdbc.properties</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>old修改成se
-示例：
-jdbc.driverClassName_old改为jdbc.driverClassName_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-jdbc.url_old改为jdbc.url_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-jdbc.username_old改为jdbc.username_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-jdbc.password_old改为jdbc.password_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改从库数据源配置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
+    <t>预发环境</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>史欣欣</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>jdbc.url_se
-jdbc.username_se
-jdbc.password_se
-的配置值改为IP为15的从库DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-renter</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>jdbc.driverClassName_se=
 jdbc.url_se=
 jdbc.username_se=
-jdbc.password_se=</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置值为IP为15的从库DB</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-renterpc</t>
+jdbc.password_se=
+配置值为从库DB</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -1300,106 +1187,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>old修改成se
-示例：
-jdbc.driverClassName_old改为jdbc.driverClassName_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-jdbc.url_old改为jdbc.url_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-jdbc.username_old改为jdbc.username_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-jdbc.password_old改为jdbc.password_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-
-renterembed</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>memcache</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">微信
-set 10_smsRequestIp_w_f_ip_ 0 0 723
-101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
-支付宝
-set 11_smsRequestIp_w_f_ip_ 0 0 723
-101.81.17.87,101.81.16.177,116.193.51.206,116.193.51.207,116.226.111.148,119.81.161.100,116.231.154.143,140.207.223.180,222.73.189.137,163.125.80.181,101.81.21.255,101.90.127.175,101.81.238.11,101.81.237.116,101.81.18.75,116.226.111.0,116.226.109.130,116.226.107.109,180.173.163.239,116.226.107.51,101.81.234.144,101.81.21.43,101.81.16.99,101.81.237.196,116.226.105.245,116.231.154.206,116.226.111.16,101.81.20.127,112.65.191.144,101.81.238.146,115.173.228.234,115.173.231.219,101.81.18.152,115.173.229.72,101.81.22.5,116.226.108.229,101.81.59.51,211.161.194.209,101.81.17.22,116.226.107.223,180.173.170.180,101.81.238.147,116.226.106.95,106.2.196.190,59.108.72.178,183.196.131.98,218.17.162.120,116.25.163.96,120.236.31.38
-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>发送短信白名单</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1408,68 +1195,15 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>这部分IP无需校验
-发送短信的上限</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要且紧急</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量删除图片 roomdi为空判断</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石组</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>李敖</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要且紧急</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片物理删除底层方法修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>田东兴</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
+    <t>jdbc.driverClassName_se=
+jdbc.url_se=
+jdbc.username_se=
+jdbc.password_se=
+配置值为IP为15的从库DB</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测环境</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1477,7 +1211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1594,6 +1328,11 @@
       <color indexed="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1993,6 +1732,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2004,9 +1746,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2023,74 +1762,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2110,7 +1781,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2433,7 +2104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4368,7 +4039,7 @@
         <v>42664</v>
       </c>
       <c r="P36" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="58"/>
       <c r="R36" s="58"/>
@@ -4421,7 +4092,7 @@
         <v>42664</v>
       </c>
       <c r="P37" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="58"/>
       <c r="R37" s="58"/>
@@ -4474,7 +4145,7 @@
         <v>42664</v>
       </c>
       <c r="P38" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="58"/>
       <c r="R38" s="58"/>
@@ -4527,7 +4198,7 @@
         <v>42664</v>
       </c>
       <c r="P39" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q39" s="58"/>
       <c r="R39" s="58"/>
@@ -4580,7 +4251,7 @@
         <v>42664</v>
       </c>
       <c r="P40" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q40" s="58"/>
       <c r="R40" s="58"/>
@@ -4633,7 +4304,7 @@
         <v>42664</v>
       </c>
       <c r="P41" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q41" s="58"/>
       <c r="R41" s="58"/>
@@ -4686,7 +4357,7 @@
         <v>42667</v>
       </c>
       <c r="P42" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q42" s="58"/>
       <c r="R42" s="58"/>
@@ -4739,7 +4410,7 @@
         <v>42667</v>
       </c>
       <c r="P43" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q43" s="58"/>
       <c r="R43" s="58"/>
@@ -4792,7 +4463,7 @@
         <v>42664</v>
       </c>
       <c r="P44" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q44" s="58"/>
       <c r="R44" s="58"/>
@@ -4845,7 +4516,7 @@
         <v>42664</v>
       </c>
       <c r="P45" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q45" s="58"/>
       <c r="R45" s="58"/>
@@ -4898,7 +4569,7 @@
         <v>42668</v>
       </c>
       <c r="P46" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q46" s="58"/>
       <c r="R46" s="58"/>
@@ -4943,7 +4614,7 @@
         <v>42668</v>
       </c>
       <c r="P47" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q47" s="58"/>
       <c r="R47" s="58"/>
@@ -4996,7 +4667,7 @@
         <v>42667</v>
       </c>
       <c r="P48" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q48" s="58"/>
       <c r="R48" s="58"/>
@@ -5049,7 +4720,7 @@
         <v>42664</v>
       </c>
       <c r="P49" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q49" s="58"/>
       <c r="R49" s="58"/>
@@ -5102,7 +4773,7 @@
         <v>42664</v>
       </c>
       <c r="P50" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q50" s="58"/>
       <c r="R50" s="58"/>
@@ -5155,7 +4826,7 @@
         <v>42667</v>
       </c>
       <c r="P51" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q51" s="58"/>
       <c r="R51" s="58"/>
@@ -5208,7 +4879,7 @@
         <v>42664</v>
       </c>
       <c r="P52" s="51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="Q52" s="58"/>
       <c r="R52" s="58"/>
@@ -5221,16 +4892,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="D53" s="49" t="s">
         <v>150</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="F53" s="49" t="s">
         <v>20</v>
@@ -5246,7 +4917,7 @@
       </c>
       <c r="J53" s="49"/>
       <c r="K53" s="51" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="L53" s="49" t="s">
         <v>27</v>
@@ -5261,12 +4932,12 @@
         <v>42668</v>
       </c>
       <c r="P53" s="51" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="Q53" s="58"/>
       <c r="R53" s="58"/>
-      <c r="S53" s="79" t="s">
-        <v>244</v>
+      <c r="S53" s="75" t="s">
+        <v>215</v>
       </c>
       <c r="T53" s="53"/>
       <c r="U53" s="54"/>
@@ -5533,16 +5204,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C59" s="64" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F59" s="49" t="s">
         <v>79</v>
@@ -5556,13 +5227,13 @@
       <c r="I59" s="50"/>
       <c r="J59" s="49"/>
       <c r="K59" s="51" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="L59" s="49" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="M59" s="49" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="N59" s="51" t="s">
         <v>106</v>
@@ -5571,7 +5242,7 @@
         <v>42669</v>
       </c>
       <c r="P59" s="51" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="Q59" s="58"/>
       <c r="R59" s="58"/>
@@ -7646,10 +7317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8489,36 +8160,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -8561,264 +8232,163 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="71" customFormat="1" ht="115.5">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="115.5">
       <c r="A4" s="68">
         <v>1</v>
       </c>
       <c r="B4" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="D4" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>186</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>188</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>191</v>
-      </c>
       <c r="K4" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="M4" s="69"/>
     </row>
-    <row r="5" spans="1:13" s="71" customFormat="1" ht="82.5">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="82.5">
       <c r="A5" s="68">
         <v>2</v>
       </c>
       <c r="B5" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="68" t="s">
+      <c r="F5" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>190</v>
-      </c>
       <c r="I5" s="68" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="M5" s="69"/>
     </row>
-    <row r="6" spans="1:13" s="71" customFormat="1" ht="66">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="99">
       <c r="A6" s="68">
         <v>3</v>
       </c>
       <c r="B6" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="D6" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="F6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="280.5">
+      <c r="A7" s="72">
+        <v>4</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="68" t="s">
+      <c r="F7" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="H7" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="71" customFormat="1" ht="99">
-      <c r="A7" s="68">
-        <v>4</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" s="69"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="L8" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="16.5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="16.5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="16.5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="16.5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8826,11 +8396,11 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65531:F65543 F131067:F131079 F196603:F196615 F262139:F262151 F327675:F327687 F393211:F393223 F458747:F458759 F524283:F524295 F589819:F589831 F655355:F655367 F720891:F720903 F786427:F786439 F851963:F851975 F917499:F917511 F983035:F983047 JB65531:JB65543 JB131067:JB131079 JB196603:JB196615 JB262139:JB262151 JB327675:JB327687 JB393211:JB393223 JB458747:JB458759 JB524283:JB524295 JB589819:JB589831 JB655355:JB655367 JB720891:JB720903 JB786427:JB786439 JB851963:JB851975 JB917499:JB917511 JB983035:JB983047 SX65531:SX65543 SX131067:SX131079 SX196603:SX196615 SX262139:SX262151 SX327675:SX327687 SX393211:SX393223 SX458747:SX458759 SX524283:SX524295 SX589819:SX589831 SX655355:SX655367 SX720891:SX720903 SX786427:SX786439 SX851963:SX851975 SX917499:SX917511 SX983035:SX983047 ACT65531:ACT65543 ACT131067:ACT131079 ACT196603:ACT196615 ACT262139:ACT262151 ACT327675:ACT327687 ACT393211:ACT393223 ACT458747:ACT458759 ACT524283:ACT524295 ACT589819:ACT589831 ACT655355:ACT655367 ACT720891:ACT720903 ACT786427:ACT786439 ACT851963:ACT851975 ACT917499:ACT917511 ACT983035:ACT983047 AMP65531:AMP65543 AMP131067:AMP131079 AMP196603:AMP196615 AMP262139:AMP262151 AMP327675:AMP327687 AMP393211:AMP393223 AMP458747:AMP458759 AMP524283:AMP524295 AMP589819:AMP589831 AMP655355:AMP655367 AMP720891:AMP720903 AMP786427:AMP786439 AMP851963:AMP851975 AMP917499:AMP917511 AMP983035:AMP983047 AWL65531:AWL65543 AWL131067:AWL131079 AWL196603:AWL196615 AWL262139:AWL262151 AWL327675:AWL327687 AWL393211:AWL393223 AWL458747:AWL458759 AWL524283:AWL524295 AWL589819:AWL589831 AWL655355:AWL655367 AWL720891:AWL720903 AWL786427:AWL786439 AWL851963:AWL851975 AWL917499:AWL917511 AWL983035:AWL983047 BGH65531:BGH65543 BGH131067:BGH131079 BGH196603:BGH196615 BGH262139:BGH262151 BGH327675:BGH327687 BGH393211:BGH393223 BGH458747:BGH458759 BGH524283:BGH524295 BGH589819:BGH589831 BGH655355:BGH655367 BGH720891:BGH720903 BGH786427:BGH786439 BGH851963:BGH851975 BGH917499:BGH917511 BGH983035:BGH983047 BQD65531:BQD65543 BQD131067:BQD131079 BQD196603:BQD196615 BQD262139:BQD262151 BQD327675:BQD327687 BQD393211:BQD393223 BQD458747:BQD458759 BQD524283:BQD524295 BQD589819:BQD589831 BQD655355:BQD655367 BQD720891:BQD720903 BQD786427:BQD786439 BQD851963:BQD851975 BQD917499:BQD917511 BQD983035:BQD983047 BZZ65531:BZZ65543 BZZ131067:BZZ131079 BZZ196603:BZZ196615 BZZ262139:BZZ262151 BZZ327675:BZZ327687 BZZ393211:BZZ393223 BZZ458747:BZZ458759 BZZ524283:BZZ524295 BZZ589819:BZZ589831 BZZ655355:BZZ655367 BZZ720891:BZZ720903 BZZ786427:BZZ786439 BZZ851963:BZZ851975 BZZ917499:BZZ917511 BZZ983035:BZZ983047 CJV65531:CJV65543 CJV131067:CJV131079 CJV196603:CJV196615 CJV262139:CJV262151 CJV327675:CJV327687 CJV393211:CJV393223 CJV458747:CJV458759 CJV524283:CJV524295 CJV589819:CJV589831 CJV655355:CJV655367 CJV720891:CJV720903 CJV786427:CJV786439 CJV851963:CJV851975 CJV917499:CJV917511 CJV983035:CJV983047 CTR65531:CTR65543 CTR131067:CTR131079 CTR196603:CTR196615 CTR262139:CTR262151 CTR327675:CTR327687 CTR393211:CTR393223 CTR458747:CTR458759 CTR524283:CTR524295 CTR589819:CTR589831 CTR655355:CTR655367 CTR720891:CTR720903 CTR786427:CTR786439 CTR851963:CTR851975 CTR917499:CTR917511 CTR983035:CTR983047 DDN65531:DDN65543 DDN131067:DDN131079 DDN196603:DDN196615 DDN262139:DDN262151 DDN327675:DDN327687 DDN393211:DDN393223 DDN458747:DDN458759 DDN524283:DDN524295 DDN589819:DDN589831 DDN655355:DDN655367 DDN720891:DDN720903 DDN786427:DDN786439 DDN851963:DDN851975 DDN917499:DDN917511 DDN983035:DDN983047 DNJ65531:DNJ65543 DNJ131067:DNJ131079 DNJ196603:DNJ196615 DNJ262139:DNJ262151 DNJ327675:DNJ327687 DNJ393211:DNJ393223 DNJ458747:DNJ458759 DNJ524283:DNJ524295 DNJ589819:DNJ589831 DNJ655355:DNJ655367 DNJ720891:DNJ720903 DNJ786427:DNJ786439 DNJ851963:DNJ851975 DNJ917499:DNJ917511 DNJ983035:DNJ983047 DXF65531:DXF65543 DXF131067:DXF131079 DXF196603:DXF196615 DXF262139:DXF262151 DXF327675:DXF327687 DXF393211:DXF393223 DXF458747:DXF458759 DXF524283:DXF524295 DXF589819:DXF589831 DXF655355:DXF655367 DXF720891:DXF720903 DXF786427:DXF786439 DXF851963:DXF851975 DXF917499:DXF917511 DXF983035:DXF983047 EHB65531:EHB65543 EHB131067:EHB131079 EHB196603:EHB196615 EHB262139:EHB262151 EHB327675:EHB327687 EHB393211:EHB393223 EHB458747:EHB458759 EHB524283:EHB524295 EHB589819:EHB589831 EHB655355:EHB655367 EHB720891:EHB720903 EHB786427:EHB786439 EHB851963:EHB851975 EHB917499:EHB917511 EHB983035:EHB983047 EQX65531:EQX65543 EQX131067:EQX131079 EQX196603:EQX196615 EQX262139:EQX262151 EQX327675:EQX327687 EQX393211:EQX393223 EQX458747:EQX458759 EQX524283:EQX524295 EQX589819:EQX589831 EQX655355:EQX655367 EQX720891:EQX720903 EQX786427:EQX786439 EQX851963:EQX851975 EQX917499:EQX917511 EQX983035:EQX983047 FAT65531:FAT65543 FAT131067:FAT131079 FAT196603:FAT196615 FAT262139:FAT262151 FAT327675:FAT327687 FAT393211:FAT393223 FAT458747:FAT458759 FAT524283:FAT524295 FAT589819:FAT589831 FAT655355:FAT655367 FAT720891:FAT720903 FAT786427:FAT786439 FAT851963:FAT851975 FAT917499:FAT917511 FAT983035:FAT983047 FKP65531:FKP65543 FKP131067:FKP131079 FKP196603:FKP196615 FKP262139:FKP262151 FKP327675:FKP327687 FKP393211:FKP393223 FKP458747:FKP458759 FKP524283:FKP524295 FKP589819:FKP589831 FKP655355:FKP655367 FKP720891:FKP720903 FKP786427:FKP786439 FKP851963:FKP851975 FKP917499:FKP917511 FKP983035:FKP983047 FUL65531:FUL65543 FUL131067:FUL131079 FUL196603:FUL196615 FUL262139:FUL262151 FUL327675:FUL327687 FUL393211:FUL393223 FUL458747:FUL458759 FUL524283:FUL524295 FUL589819:FUL589831 FUL655355:FUL655367 FUL720891:FUL720903 FUL786427:FUL786439 FUL851963:FUL851975 FUL917499:FUL917511 FUL983035:FUL983047 GEH65531:GEH65543 GEH131067:GEH131079 GEH196603:GEH196615 GEH262139:GEH262151 GEH327675:GEH327687 GEH393211:GEH393223 GEH458747:GEH458759 GEH524283:GEH524295 GEH589819:GEH589831 GEH655355:GEH655367 GEH720891:GEH720903 GEH786427:GEH786439 GEH851963:GEH851975 GEH917499:GEH917511 GEH983035:GEH983047 GOD65531:GOD65543 GOD131067:GOD131079 GOD196603:GOD196615 GOD262139:GOD262151 GOD327675:GOD327687 GOD393211:GOD393223 GOD458747:GOD458759 GOD524283:GOD524295 GOD589819:GOD589831 GOD655355:GOD655367 GOD720891:GOD720903 GOD786427:GOD786439 GOD851963:GOD851975 GOD917499:GOD917511 GOD983035:GOD983047 GXZ65531:GXZ65543 GXZ131067:GXZ131079 GXZ196603:GXZ196615 GXZ262139:GXZ262151 GXZ327675:GXZ327687 GXZ393211:GXZ393223 GXZ458747:GXZ458759 GXZ524283:GXZ524295 GXZ589819:GXZ589831 GXZ655355:GXZ655367 GXZ720891:GXZ720903 GXZ786427:GXZ786439 GXZ851963:GXZ851975 GXZ917499:GXZ917511 GXZ983035:GXZ983047 HHV65531:HHV65543 HHV131067:HHV131079 HHV196603:HHV196615 HHV262139:HHV262151 HHV327675:HHV327687 HHV393211:HHV393223 HHV458747:HHV458759 HHV524283:HHV524295 HHV589819:HHV589831 HHV655355:HHV655367 HHV720891:HHV720903 HHV786427:HHV786439 HHV851963:HHV851975 HHV917499:HHV917511 HHV983035:HHV983047 HRR65531:HRR65543 HRR131067:HRR131079 HRR196603:HRR196615 HRR262139:HRR262151 HRR327675:HRR327687 HRR393211:HRR393223 HRR458747:HRR458759 HRR524283:HRR524295 HRR589819:HRR589831 HRR655355:HRR655367 HRR720891:HRR720903 HRR786427:HRR786439 HRR851963:HRR851975 HRR917499:HRR917511 HRR983035:HRR983047 IBN65531:IBN65543 IBN131067:IBN131079 IBN196603:IBN196615 IBN262139:IBN262151 IBN327675:IBN327687 IBN393211:IBN393223 IBN458747:IBN458759 IBN524283:IBN524295 IBN589819:IBN589831 IBN655355:IBN655367 IBN720891:IBN720903 IBN786427:IBN786439 IBN851963:IBN851975 IBN917499:IBN917511 IBN983035:IBN983047 ILJ65531:ILJ65543 ILJ131067:ILJ131079 ILJ196603:ILJ196615 ILJ262139:ILJ262151 ILJ327675:ILJ327687 ILJ393211:ILJ393223 ILJ458747:ILJ458759 ILJ524283:ILJ524295 ILJ589819:ILJ589831 ILJ655355:ILJ655367 ILJ720891:ILJ720903 ILJ786427:ILJ786439 ILJ851963:ILJ851975 ILJ917499:ILJ917511 ILJ983035:ILJ983047 IVF65531:IVF65543 IVF131067:IVF131079 IVF196603:IVF196615 IVF262139:IVF262151 IVF327675:IVF327687 IVF393211:IVF393223 IVF458747:IVF458759 IVF524283:IVF524295 IVF589819:IVF589831 IVF655355:IVF655367 IVF720891:IVF720903 IVF786427:IVF786439 IVF851963:IVF851975 IVF917499:IVF917511 IVF983035:IVF983047 JFB65531:JFB65543 JFB131067:JFB131079 JFB196603:JFB196615 JFB262139:JFB262151 JFB327675:JFB327687 JFB393211:JFB393223 JFB458747:JFB458759 JFB524283:JFB524295 JFB589819:JFB589831 JFB655355:JFB655367 JFB720891:JFB720903 JFB786427:JFB786439 JFB851963:JFB851975 JFB917499:JFB917511 JFB983035:JFB983047 JOX65531:JOX65543 JOX131067:JOX131079 JOX196603:JOX196615 JOX262139:JOX262151 JOX327675:JOX327687 JOX393211:JOX393223 JOX458747:JOX458759 JOX524283:JOX524295 JOX589819:JOX589831 JOX655355:JOX655367 JOX720891:JOX720903 JOX786427:JOX786439 JOX851963:JOX851975 JOX917499:JOX917511 JOX983035:JOX983047 JYT65531:JYT65543 JYT131067:JYT131079 JYT196603:JYT196615 JYT262139:JYT262151 JYT327675:JYT327687 JYT393211:JYT393223 JYT458747:JYT458759 JYT524283:JYT524295 JYT589819:JYT589831 JYT655355:JYT655367 JYT720891:JYT720903 JYT786427:JYT786439 JYT851963:JYT851975 JYT917499:JYT917511 JYT983035:JYT983047 KIP65531:KIP65543 KIP131067:KIP131079 KIP196603:KIP196615 KIP262139:KIP262151 KIP327675:KIP327687 KIP393211:KIP393223 KIP458747:KIP458759 KIP524283:KIP524295 KIP589819:KIP589831 KIP655355:KIP655367 KIP720891:KIP720903 KIP786427:KIP786439 KIP851963:KIP851975 KIP917499:KIP917511 KIP983035:KIP983047 KSL65531:KSL65543 KSL131067:KSL131079 KSL196603:KSL196615 KSL262139:KSL262151 KSL327675:KSL327687 KSL393211:KSL393223 KSL458747:KSL458759 KSL524283:KSL524295 KSL589819:KSL589831 KSL655355:KSL655367 KSL720891:KSL720903 KSL786427:KSL786439 KSL851963:KSL851975 KSL917499:KSL917511 KSL983035:KSL983047 LCH65531:LCH65543 LCH131067:LCH131079 LCH196603:LCH196615 LCH262139:LCH262151 LCH327675:LCH327687 LCH393211:LCH393223 LCH458747:LCH458759 LCH524283:LCH524295 LCH589819:LCH589831 LCH655355:LCH655367 LCH720891:LCH720903 LCH786427:LCH786439 LCH851963:LCH851975 LCH917499:LCH917511 LCH983035:LCH983047 LMD65531:LMD65543 LMD131067:LMD131079 LMD196603:LMD196615 LMD262139:LMD262151 LMD327675:LMD327687 LMD393211:LMD393223 LMD458747:LMD458759 LMD524283:LMD524295 LMD589819:LMD589831 LMD655355:LMD655367 LMD720891:LMD720903 LMD786427:LMD786439 LMD851963:LMD851975 LMD917499:LMD917511 LMD983035:LMD983047 LVZ65531:LVZ65543 LVZ131067:LVZ131079 LVZ196603:LVZ196615 LVZ262139:LVZ262151 LVZ327675:LVZ327687 LVZ393211:LVZ393223 LVZ458747:LVZ458759 LVZ524283:LVZ524295 LVZ589819:LVZ589831 LVZ655355:LVZ655367 LVZ720891:LVZ720903 LVZ786427:LVZ786439 LVZ851963:LVZ851975 LVZ917499:LVZ917511 LVZ983035:LVZ983047 MFV65531:MFV65543 MFV131067:MFV131079 MFV196603:MFV196615 MFV262139:MFV262151 MFV327675:MFV327687 MFV393211:MFV393223 MFV458747:MFV458759 MFV524283:MFV524295 MFV589819:MFV589831 MFV655355:MFV655367 MFV720891:MFV720903 MFV786427:MFV786439 MFV851963:MFV851975 MFV917499:MFV917511 MFV983035:MFV983047 MPR65531:MPR65543 MPR131067:MPR131079 MPR196603:MPR196615 MPR262139:MPR262151 MPR327675:MPR327687 MPR393211:MPR393223 MPR458747:MPR458759 MPR524283:MPR524295 MPR589819:MPR589831 MPR655355:MPR655367 MPR720891:MPR720903 MPR786427:MPR786439 MPR851963:MPR851975 MPR917499:MPR917511 MPR983035:MPR983047 MZN65531:MZN65543 MZN131067:MZN131079 MZN196603:MZN196615 MZN262139:MZN262151 MZN327675:MZN327687 MZN393211:MZN393223 MZN458747:MZN458759 MZN524283:MZN524295 MZN589819:MZN589831 MZN655355:MZN655367 MZN720891:MZN720903 MZN786427:MZN786439 MZN851963:MZN851975 MZN917499:MZN917511 MZN983035:MZN983047 NJJ65531:NJJ65543 NJJ131067:NJJ131079 NJJ196603:NJJ196615 NJJ262139:NJJ262151 NJJ327675:NJJ327687 NJJ393211:NJJ393223 NJJ458747:NJJ458759 NJJ524283:NJJ524295 NJJ589819:NJJ589831 NJJ655355:NJJ655367 NJJ720891:NJJ720903 NJJ786427:NJJ786439 NJJ851963:NJJ851975 NJJ917499:NJJ917511 NJJ983035:NJJ983047 NTF65531:NTF65543 NTF131067:NTF131079 NTF196603:NTF196615 NTF262139:NTF262151 NTF327675:NTF327687 NTF393211:NTF393223 NTF458747:NTF458759 NTF524283:NTF524295 NTF589819:NTF589831 NTF655355:NTF655367 NTF720891:NTF720903 NTF786427:NTF786439 NTF851963:NTF851975 NTF917499:NTF917511 NTF983035:NTF983047 ODB65531:ODB65543 ODB131067:ODB131079 ODB196603:ODB196615 ODB262139:ODB262151 ODB327675:ODB327687 ODB393211:ODB393223 ODB458747:ODB458759 ODB524283:ODB524295 ODB589819:ODB589831 ODB655355:ODB655367 ODB720891:ODB720903 ODB786427:ODB786439 ODB851963:ODB851975 ODB917499:ODB917511 ODB983035:ODB983047 OMX65531:OMX65543 OMX131067:OMX131079 OMX196603:OMX196615 OMX262139:OMX262151 OMX327675:OMX327687 OMX393211:OMX393223 OMX458747:OMX458759 OMX524283:OMX524295 OMX589819:OMX589831 OMX655355:OMX655367 OMX720891:OMX720903 OMX786427:OMX786439 OMX851963:OMX851975 OMX917499:OMX917511 OMX983035:OMX983047 OWT65531:OWT65543 OWT131067:OWT131079 OWT196603:OWT196615 OWT262139:OWT262151 OWT327675:OWT327687 OWT393211:OWT393223 OWT458747:OWT458759 OWT524283:OWT524295 OWT589819:OWT589831 OWT655355:OWT655367 OWT720891:OWT720903 OWT786427:OWT786439 OWT851963:OWT851975 OWT917499:OWT917511 OWT983035:OWT983047 PGP65531:PGP65543 PGP131067:PGP131079 PGP196603:PGP196615 PGP262139:PGP262151 PGP327675:PGP327687 PGP393211:PGP393223 PGP458747:PGP458759 PGP524283:PGP524295 PGP589819:PGP589831 PGP655355:PGP655367 PGP720891:PGP720903 PGP786427:PGP786439 PGP851963:PGP851975 PGP917499:PGP917511 PGP983035:PGP983047 PQL65531:PQL65543 PQL131067:PQL131079 PQL196603:PQL196615 PQL262139:PQL262151 PQL327675:PQL327687 PQL393211:PQL393223 PQL458747:PQL458759 PQL524283:PQL524295 PQL589819:PQL589831 PQL655355:PQL655367 PQL720891:PQL720903 PQL786427:PQL786439 PQL851963:PQL851975 PQL917499:PQL917511 PQL983035:PQL983047 QAH65531:QAH65543 QAH131067:QAH131079 QAH196603:QAH196615 QAH262139:QAH262151 QAH327675:QAH327687 QAH393211:QAH393223 QAH458747:QAH458759 QAH524283:QAH524295 QAH589819:QAH589831 QAH655355:QAH655367 QAH720891:QAH720903 QAH786427:QAH786439 QAH851963:QAH851975 QAH917499:QAH917511 QAH983035:QAH983047 QKD65531:QKD65543 QKD131067:QKD131079 QKD196603:QKD196615 QKD262139:QKD262151 QKD327675:QKD327687 QKD393211:QKD393223 QKD458747:QKD458759 QKD524283:QKD524295 QKD589819:QKD589831 QKD655355:QKD655367 QKD720891:QKD720903 QKD786427:QKD786439 QKD851963:QKD851975 QKD917499:QKD917511 QKD983035:QKD983047 QTZ65531:QTZ65543 QTZ131067:QTZ131079 QTZ196603:QTZ196615 QTZ262139:QTZ262151 QTZ327675:QTZ327687 QTZ393211:QTZ393223 QTZ458747:QTZ458759 QTZ524283:QTZ524295 QTZ589819:QTZ589831 QTZ655355:QTZ655367 QTZ720891:QTZ720903 QTZ786427:QTZ786439 QTZ851963:QTZ851975 QTZ917499:QTZ917511 QTZ983035:QTZ983047 RDV65531:RDV65543 RDV131067:RDV131079 RDV196603:RDV196615 RDV262139:RDV262151 RDV327675:RDV327687 RDV393211:RDV393223 RDV458747:RDV458759 RDV524283:RDV524295 RDV589819:RDV589831 RDV655355:RDV655367 RDV720891:RDV720903 RDV786427:RDV786439 RDV851963:RDV851975 RDV917499:RDV917511 RDV983035:RDV983047 RNR65531:RNR65543 RNR131067:RNR131079 RNR196603:RNR196615 RNR262139:RNR262151 RNR327675:RNR327687 RNR393211:RNR393223 RNR458747:RNR458759 RNR524283:RNR524295 RNR589819:RNR589831 RNR655355:RNR655367 RNR720891:RNR720903 RNR786427:RNR786439 RNR851963:RNR851975 RNR917499:RNR917511 RNR983035:RNR983047 RXN65531:RXN65543 RXN131067:RXN131079 RXN196603:RXN196615 RXN262139:RXN262151 RXN327675:RXN327687 RXN393211:RXN393223 RXN458747:RXN458759 RXN524283:RXN524295 RXN589819:RXN589831 RXN655355:RXN655367 RXN720891:RXN720903 RXN786427:RXN786439 RXN851963:RXN851975 RXN917499:RXN917511 RXN983035:RXN983047 SHJ65531:SHJ65543 SHJ131067:SHJ131079 SHJ196603:SHJ196615 SHJ262139:SHJ262151 SHJ327675:SHJ327687 SHJ393211:SHJ393223 SHJ458747:SHJ458759 SHJ524283:SHJ524295 SHJ589819:SHJ589831 SHJ655355:SHJ655367 SHJ720891:SHJ720903 SHJ786427:SHJ786439 SHJ851963:SHJ851975 SHJ917499:SHJ917511 SHJ983035:SHJ983047 SRF65531:SRF65543 SRF131067:SRF131079 SRF196603:SRF196615 SRF262139:SRF262151 SRF327675:SRF327687 SRF393211:SRF393223 SRF458747:SRF458759 SRF524283:SRF524295 SRF589819:SRF589831 SRF655355:SRF655367 SRF720891:SRF720903 SRF786427:SRF786439 SRF851963:SRF851975 SRF917499:SRF917511 SRF983035:SRF983047 TBB65531:TBB65543 TBB131067:TBB131079 TBB196603:TBB196615 TBB262139:TBB262151 TBB327675:TBB327687 TBB393211:TBB393223 TBB458747:TBB458759 TBB524283:TBB524295 TBB589819:TBB589831 TBB655355:TBB655367 TBB720891:TBB720903 TBB786427:TBB786439 TBB851963:TBB851975 TBB917499:TBB917511 TBB983035:TBB983047 TKX65531:TKX65543 TKX131067:TKX131079 TKX196603:TKX196615 TKX262139:TKX262151 TKX327675:TKX327687 TKX393211:TKX393223 TKX458747:TKX458759 TKX524283:TKX524295 TKX589819:TKX589831 TKX655355:TKX655367 TKX720891:TKX720903 TKX786427:TKX786439 TKX851963:TKX851975 TKX917499:TKX917511 TKX983035:TKX983047 TUT65531:TUT65543 TUT131067:TUT131079 TUT196603:TUT196615 TUT262139:TUT262151 TUT327675:TUT327687 TUT393211:TUT393223 TUT458747:TUT458759 TUT524283:TUT524295 TUT589819:TUT589831 TUT655355:TUT655367 TUT720891:TUT720903 TUT786427:TUT786439 TUT851963:TUT851975 TUT917499:TUT917511 TUT983035:TUT983047 UEP65531:UEP65543 UEP131067:UEP131079 UEP196603:UEP196615 UEP262139:UEP262151 UEP327675:UEP327687 UEP393211:UEP393223 UEP458747:UEP458759 UEP524283:UEP524295 UEP589819:UEP589831 UEP655355:UEP655367 UEP720891:UEP720903 UEP786427:UEP786439 UEP851963:UEP851975 UEP917499:UEP917511 UEP983035:UEP983047 UOL65531:UOL65543 UOL131067:UOL131079 UOL196603:UOL196615 UOL262139:UOL262151 UOL327675:UOL327687 UOL393211:UOL393223 UOL458747:UOL458759 UOL524283:UOL524295 UOL589819:UOL589831 UOL655355:UOL655367 UOL720891:UOL720903 UOL786427:UOL786439 UOL851963:UOL851975 UOL917499:UOL917511 UOL983035:UOL983047 UYH65531:UYH65543 UYH131067:UYH131079 UYH196603:UYH196615 UYH262139:UYH262151 UYH327675:UYH327687 UYH393211:UYH393223 UYH458747:UYH458759 UYH524283:UYH524295 UYH589819:UYH589831 UYH655355:UYH655367 UYH720891:UYH720903 UYH786427:UYH786439 UYH851963:UYH851975 UYH917499:UYH917511 UYH983035:UYH983047 VID65531:VID65543 VID131067:VID131079 VID196603:VID196615 VID262139:VID262151 VID327675:VID327687 VID393211:VID393223 VID458747:VID458759 VID524283:VID524295 VID589819:VID589831 VID655355:VID655367 VID720891:VID720903 VID786427:VID786439 VID851963:VID851975 VID917499:VID917511 VID983035:VID983047 VRZ65531:VRZ65543 VRZ131067:VRZ131079 VRZ196603:VRZ196615 VRZ262139:VRZ262151 VRZ327675:VRZ327687 VRZ393211:VRZ393223 VRZ458747:VRZ458759 VRZ524283:VRZ524295 VRZ589819:VRZ589831 VRZ655355:VRZ655367 VRZ720891:VRZ720903 VRZ786427:VRZ786439 VRZ851963:VRZ851975 VRZ917499:VRZ917511 VRZ983035:VRZ983047 WBV65531:WBV65543 WBV131067:WBV131079 WBV196603:WBV196615 WBV262139:WBV262151 WBV327675:WBV327687 WBV393211:WBV393223 WBV458747:WBV458759 WBV524283:WBV524295 WBV589819:WBV589831 WBV655355:WBV655367 WBV720891:WBV720903 WBV786427:WBV786439 WBV851963:WBV851975 WBV917499:WBV917511 WBV983035:WBV983047 WLR65531:WLR65543 WLR131067:WLR131079 WLR196603:WLR196615 WLR262139:WLR262151 WLR327675:WLR327687 WLR393211:WLR393223 WLR458747:WLR458759 WLR524283:WLR524295 WLR589819:WLR589831 WLR655355:WLR655367 WLR720891:WLR720903 WLR786427:WLR786439 WLR851963:WLR851975 WLR917499:WLR917511 WLR983035:WLR983047 WVN983035:WVN983047 WVN65531:WVN65543 WVN131067:WVN131079 WVN196603:WVN196615 WVN262139:WVN262151 WVN327675:WVN327687 WVN393211:WVN393223 WVN458747:WVN458759 WVN524283:WVN524295 WVN589819:WVN589831 WVN655355:WVN655367 WVN720891:WVN720903 WVN786427:WVN786439 WVN851963:WVN851975 WVN917499:WVN917511 WLR4:WLR7 WVN4:WVN7 JB4:JB7 SX4:SX7 ACT4:ACT7 AMP4:AMP7 AWL4:AWL7 BGH4:BGH7 BQD4:BQD7 BZZ4:BZZ7 CJV4:CJV7 CTR4:CTR7 DDN4:DDN7 DNJ4:DNJ7 DXF4:DXF7 EHB4:EHB7 EQX4:EQX7 FAT4:FAT7 FKP4:FKP7 FUL4:FUL7 GEH4:GEH7 GOD4:GOD7 GXZ4:GXZ7 HHV4:HHV7 HRR4:HRR7 IBN4:IBN7 ILJ4:ILJ7 IVF4:IVF7 JFB4:JFB7 JOX4:JOX7 JYT4:JYT7 KIP4:KIP7 KSL4:KSL7 LCH4:LCH7 LMD4:LMD7 LVZ4:LVZ7 MFV4:MFV7 MPR4:MPR7 MZN4:MZN7 NJJ4:NJJ7 NTF4:NTF7 ODB4:ODB7 OMX4:OMX7 OWT4:OWT7 PGP4:PGP7 PQL4:PQL7 QAH4:QAH7 QKD4:QKD7 QTZ4:QTZ7 RDV4:RDV7 RNR4:RNR7 RXN4:RXN7 SHJ4:SHJ7 SRF4:SRF7 TBB4:TBB7 TKX4:TKX7 TUT4:TUT7 UEP4:UEP7 UOL4:UOL7 UYH4:UYH7 VID4:VID7 VRZ4:VRZ7 WBV4:WBV7 F4:F7">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576 I1:I3 I8:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12 WVN4:WVN12 F4:F12">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8841,8 +8411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9682,36 +9252,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="16.5">
       <c r="A3" s="7" t="s">
@@ -9748,7 +9318,7 @@
         <v>42</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>18</v>
@@ -9759,37 +9329,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I4" s="68" t="s">
         <v>44</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K4" s="69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M4" s="69"/>
     </row>
@@ -9798,159 +9368,157 @@
         <v>2</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I5" s="68" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M5" s="69"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="66">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="82.5">
       <c r="A6" s="68">
         <v>3</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I6" s="68" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K6" s="69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="L6" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>220</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="99">
       <c r="A7" s="68">
         <v>4</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G7" s="70" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I7" s="68" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K7" s="69" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="72">
         <v>5</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="H8" s="74" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I8" s="68" t="s">
         <v>44</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L8" s="68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -9959,11 +9527,11 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65523:F65535 F131059:F131071 F196595:F196607 F262131:F262143 F327667:F327679 F393203:F393215 F458739:F458751 F524275:F524287 F589811:F589823 F655347:F655359 F720883:F720895 F786419:F786431 F851955:F851967 F917491:F917503 F983027:F983039 JB65523:JB65535 JB131059:JB131071 JB196595:JB196607 JB262131:JB262143 JB327667:JB327679 JB393203:JB393215 JB458739:JB458751 JB524275:JB524287 JB589811:JB589823 JB655347:JB655359 JB720883:JB720895 JB786419:JB786431 JB851955:JB851967 JB917491:JB917503 JB983027:JB983039 SX65523:SX65535 SX131059:SX131071 SX196595:SX196607 SX262131:SX262143 SX327667:SX327679 SX393203:SX393215 SX458739:SX458751 SX524275:SX524287 SX589811:SX589823 SX655347:SX655359 SX720883:SX720895 SX786419:SX786431 SX851955:SX851967 SX917491:SX917503 SX983027:SX983039 ACT65523:ACT65535 ACT131059:ACT131071 ACT196595:ACT196607 ACT262131:ACT262143 ACT327667:ACT327679 ACT393203:ACT393215 ACT458739:ACT458751 ACT524275:ACT524287 ACT589811:ACT589823 ACT655347:ACT655359 ACT720883:ACT720895 ACT786419:ACT786431 ACT851955:ACT851967 ACT917491:ACT917503 ACT983027:ACT983039 AMP65523:AMP65535 AMP131059:AMP131071 AMP196595:AMP196607 AMP262131:AMP262143 AMP327667:AMP327679 AMP393203:AMP393215 AMP458739:AMP458751 AMP524275:AMP524287 AMP589811:AMP589823 AMP655347:AMP655359 AMP720883:AMP720895 AMP786419:AMP786431 AMP851955:AMP851967 AMP917491:AMP917503 AMP983027:AMP983039 AWL65523:AWL65535 AWL131059:AWL131071 AWL196595:AWL196607 AWL262131:AWL262143 AWL327667:AWL327679 AWL393203:AWL393215 AWL458739:AWL458751 AWL524275:AWL524287 AWL589811:AWL589823 AWL655347:AWL655359 AWL720883:AWL720895 AWL786419:AWL786431 AWL851955:AWL851967 AWL917491:AWL917503 AWL983027:AWL983039 BGH65523:BGH65535 BGH131059:BGH131071 BGH196595:BGH196607 BGH262131:BGH262143 BGH327667:BGH327679 BGH393203:BGH393215 BGH458739:BGH458751 BGH524275:BGH524287 BGH589811:BGH589823 BGH655347:BGH655359 BGH720883:BGH720895 BGH786419:BGH786431 BGH851955:BGH851967 BGH917491:BGH917503 BGH983027:BGH983039 BQD65523:BQD65535 BQD131059:BQD131071 BQD196595:BQD196607 BQD262131:BQD262143 BQD327667:BQD327679 BQD393203:BQD393215 BQD458739:BQD458751 BQD524275:BQD524287 BQD589811:BQD589823 BQD655347:BQD655359 BQD720883:BQD720895 BQD786419:BQD786431 BQD851955:BQD851967 BQD917491:BQD917503 BQD983027:BQD983039 BZZ65523:BZZ65535 BZZ131059:BZZ131071 BZZ196595:BZZ196607 BZZ262131:BZZ262143 BZZ327667:BZZ327679 BZZ393203:BZZ393215 BZZ458739:BZZ458751 BZZ524275:BZZ524287 BZZ589811:BZZ589823 BZZ655347:BZZ655359 BZZ720883:BZZ720895 BZZ786419:BZZ786431 BZZ851955:BZZ851967 BZZ917491:BZZ917503 BZZ983027:BZZ983039 CJV65523:CJV65535 CJV131059:CJV131071 CJV196595:CJV196607 CJV262131:CJV262143 CJV327667:CJV327679 CJV393203:CJV393215 CJV458739:CJV458751 CJV524275:CJV524287 CJV589811:CJV589823 CJV655347:CJV655359 CJV720883:CJV720895 CJV786419:CJV786431 CJV851955:CJV851967 CJV917491:CJV917503 CJV983027:CJV983039 CTR65523:CTR65535 CTR131059:CTR131071 CTR196595:CTR196607 CTR262131:CTR262143 CTR327667:CTR327679 CTR393203:CTR393215 CTR458739:CTR458751 CTR524275:CTR524287 CTR589811:CTR589823 CTR655347:CTR655359 CTR720883:CTR720895 CTR786419:CTR786431 CTR851955:CTR851967 CTR917491:CTR917503 CTR983027:CTR983039 DDN65523:DDN65535 DDN131059:DDN131071 DDN196595:DDN196607 DDN262131:DDN262143 DDN327667:DDN327679 DDN393203:DDN393215 DDN458739:DDN458751 DDN524275:DDN524287 DDN589811:DDN589823 DDN655347:DDN655359 DDN720883:DDN720895 DDN786419:DDN786431 DDN851955:DDN851967 DDN917491:DDN917503 DDN983027:DDN983039 DNJ65523:DNJ65535 DNJ131059:DNJ131071 DNJ196595:DNJ196607 DNJ262131:DNJ262143 DNJ327667:DNJ327679 DNJ393203:DNJ393215 DNJ458739:DNJ458751 DNJ524275:DNJ524287 DNJ589811:DNJ589823 DNJ655347:DNJ655359 DNJ720883:DNJ720895 DNJ786419:DNJ786431 DNJ851955:DNJ851967 DNJ917491:DNJ917503 DNJ983027:DNJ983039 DXF65523:DXF65535 DXF131059:DXF131071 DXF196595:DXF196607 DXF262131:DXF262143 DXF327667:DXF327679 DXF393203:DXF393215 DXF458739:DXF458751 DXF524275:DXF524287 DXF589811:DXF589823 DXF655347:DXF655359 DXF720883:DXF720895 DXF786419:DXF786431 DXF851955:DXF851967 DXF917491:DXF917503 DXF983027:DXF983039 EHB65523:EHB65535 EHB131059:EHB131071 EHB196595:EHB196607 EHB262131:EHB262143 EHB327667:EHB327679 EHB393203:EHB393215 EHB458739:EHB458751 EHB524275:EHB524287 EHB589811:EHB589823 EHB655347:EHB655359 EHB720883:EHB720895 EHB786419:EHB786431 EHB851955:EHB851967 EHB917491:EHB917503 EHB983027:EHB983039 EQX65523:EQX65535 EQX131059:EQX131071 EQX196595:EQX196607 EQX262131:EQX262143 EQX327667:EQX327679 EQX393203:EQX393215 EQX458739:EQX458751 EQX524275:EQX524287 EQX589811:EQX589823 EQX655347:EQX655359 EQX720883:EQX720895 EQX786419:EQX786431 EQX851955:EQX851967 EQX917491:EQX917503 EQX983027:EQX983039 FAT65523:FAT65535 FAT131059:FAT131071 FAT196595:FAT196607 FAT262131:FAT262143 FAT327667:FAT327679 FAT393203:FAT393215 FAT458739:FAT458751 FAT524275:FAT524287 FAT589811:FAT589823 FAT655347:FAT655359 FAT720883:FAT720895 FAT786419:FAT786431 FAT851955:FAT851967 FAT917491:FAT917503 FAT983027:FAT983039 FKP65523:FKP65535 FKP131059:FKP131071 FKP196595:FKP196607 FKP262131:FKP262143 FKP327667:FKP327679 FKP393203:FKP393215 FKP458739:FKP458751 FKP524275:FKP524287 FKP589811:FKP589823 FKP655347:FKP655359 FKP720883:FKP720895 FKP786419:FKP786431 FKP851955:FKP851967 FKP917491:FKP917503 FKP983027:FKP983039 FUL65523:FUL65535 FUL131059:FUL131071 FUL196595:FUL196607 FUL262131:FUL262143 FUL327667:FUL327679 FUL393203:FUL393215 FUL458739:FUL458751 FUL524275:FUL524287 FUL589811:FUL589823 FUL655347:FUL655359 FUL720883:FUL720895 FUL786419:FUL786431 FUL851955:FUL851967 FUL917491:FUL917503 FUL983027:FUL983039 GEH65523:GEH65535 GEH131059:GEH131071 GEH196595:GEH196607 GEH262131:GEH262143 GEH327667:GEH327679 GEH393203:GEH393215 GEH458739:GEH458751 GEH524275:GEH524287 GEH589811:GEH589823 GEH655347:GEH655359 GEH720883:GEH720895 GEH786419:GEH786431 GEH851955:GEH851967 GEH917491:GEH917503 GEH983027:GEH983039 GOD65523:GOD65535 GOD131059:GOD131071 GOD196595:GOD196607 GOD262131:GOD262143 GOD327667:GOD327679 GOD393203:GOD393215 GOD458739:GOD458751 GOD524275:GOD524287 GOD589811:GOD589823 GOD655347:GOD655359 GOD720883:GOD720895 GOD786419:GOD786431 GOD851955:GOD851967 GOD917491:GOD917503 GOD983027:GOD983039 GXZ65523:GXZ65535 GXZ131059:GXZ131071 GXZ196595:GXZ196607 GXZ262131:GXZ262143 GXZ327667:GXZ327679 GXZ393203:GXZ393215 GXZ458739:GXZ458751 GXZ524275:GXZ524287 GXZ589811:GXZ589823 GXZ655347:GXZ655359 GXZ720883:GXZ720895 GXZ786419:GXZ786431 GXZ851955:GXZ851967 GXZ917491:GXZ917503 GXZ983027:GXZ983039 HHV65523:HHV65535 HHV131059:HHV131071 HHV196595:HHV196607 HHV262131:HHV262143 HHV327667:HHV327679 HHV393203:HHV393215 HHV458739:HHV458751 HHV524275:HHV524287 HHV589811:HHV589823 HHV655347:HHV655359 HHV720883:HHV720895 HHV786419:HHV786431 HHV851955:HHV851967 HHV917491:HHV917503 HHV983027:HHV983039 HRR65523:HRR65535 HRR131059:HRR131071 HRR196595:HRR196607 HRR262131:HRR262143 HRR327667:HRR327679 HRR393203:HRR393215 HRR458739:HRR458751 HRR524275:HRR524287 HRR589811:HRR589823 HRR655347:HRR655359 HRR720883:HRR720895 HRR786419:HRR786431 HRR851955:HRR851967 HRR917491:HRR917503 HRR983027:HRR983039 IBN65523:IBN65535 IBN131059:IBN131071 IBN196595:IBN196607 IBN262131:IBN262143 IBN327667:IBN327679 IBN393203:IBN393215 IBN458739:IBN458751 IBN524275:IBN524287 IBN589811:IBN589823 IBN655347:IBN655359 IBN720883:IBN720895 IBN786419:IBN786431 IBN851955:IBN851967 IBN917491:IBN917503 IBN983027:IBN983039 ILJ65523:ILJ65535 ILJ131059:ILJ131071 ILJ196595:ILJ196607 ILJ262131:ILJ262143 ILJ327667:ILJ327679 ILJ393203:ILJ393215 ILJ458739:ILJ458751 ILJ524275:ILJ524287 ILJ589811:ILJ589823 ILJ655347:ILJ655359 ILJ720883:ILJ720895 ILJ786419:ILJ786431 ILJ851955:ILJ851967 ILJ917491:ILJ917503 ILJ983027:ILJ983039 IVF65523:IVF65535 IVF131059:IVF131071 IVF196595:IVF196607 IVF262131:IVF262143 IVF327667:IVF327679 IVF393203:IVF393215 IVF458739:IVF458751 IVF524275:IVF524287 IVF589811:IVF589823 IVF655347:IVF655359 IVF720883:IVF720895 IVF786419:IVF786431 IVF851955:IVF851967 IVF917491:IVF917503 IVF983027:IVF983039 JFB65523:JFB65535 JFB131059:JFB131071 JFB196595:JFB196607 JFB262131:JFB262143 JFB327667:JFB327679 JFB393203:JFB393215 JFB458739:JFB458751 JFB524275:JFB524287 JFB589811:JFB589823 JFB655347:JFB655359 JFB720883:JFB720895 JFB786419:JFB786431 JFB851955:JFB851967 JFB917491:JFB917503 JFB983027:JFB983039 JOX65523:JOX65535 JOX131059:JOX131071 JOX196595:JOX196607 JOX262131:JOX262143 JOX327667:JOX327679 JOX393203:JOX393215 JOX458739:JOX458751 JOX524275:JOX524287 JOX589811:JOX589823 JOX655347:JOX655359 JOX720883:JOX720895 JOX786419:JOX786431 JOX851955:JOX851967 JOX917491:JOX917503 JOX983027:JOX983039 JYT65523:JYT65535 JYT131059:JYT131071 JYT196595:JYT196607 JYT262131:JYT262143 JYT327667:JYT327679 JYT393203:JYT393215 JYT458739:JYT458751 JYT524275:JYT524287 JYT589811:JYT589823 JYT655347:JYT655359 JYT720883:JYT720895 JYT786419:JYT786431 JYT851955:JYT851967 JYT917491:JYT917503 JYT983027:JYT983039 KIP65523:KIP65535 KIP131059:KIP131071 KIP196595:KIP196607 KIP262131:KIP262143 KIP327667:KIP327679 KIP393203:KIP393215 KIP458739:KIP458751 KIP524275:KIP524287 KIP589811:KIP589823 KIP655347:KIP655359 KIP720883:KIP720895 KIP786419:KIP786431 KIP851955:KIP851967 KIP917491:KIP917503 KIP983027:KIP983039 KSL65523:KSL65535 KSL131059:KSL131071 KSL196595:KSL196607 KSL262131:KSL262143 KSL327667:KSL327679 KSL393203:KSL393215 KSL458739:KSL458751 KSL524275:KSL524287 KSL589811:KSL589823 KSL655347:KSL655359 KSL720883:KSL720895 KSL786419:KSL786431 KSL851955:KSL851967 KSL917491:KSL917503 KSL983027:KSL983039 LCH65523:LCH65535 LCH131059:LCH131071 LCH196595:LCH196607 LCH262131:LCH262143 LCH327667:LCH327679 LCH393203:LCH393215 LCH458739:LCH458751 LCH524275:LCH524287 LCH589811:LCH589823 LCH655347:LCH655359 LCH720883:LCH720895 LCH786419:LCH786431 LCH851955:LCH851967 LCH917491:LCH917503 LCH983027:LCH983039 LMD65523:LMD65535 LMD131059:LMD131071 LMD196595:LMD196607 LMD262131:LMD262143 LMD327667:LMD327679 LMD393203:LMD393215 LMD458739:LMD458751 LMD524275:LMD524287 LMD589811:LMD589823 LMD655347:LMD655359 LMD720883:LMD720895 LMD786419:LMD786431 LMD851955:LMD851967 LMD917491:LMD917503 LMD983027:LMD983039 LVZ65523:LVZ65535 LVZ131059:LVZ131071 LVZ196595:LVZ196607 LVZ262131:LVZ262143 LVZ327667:LVZ327679 LVZ393203:LVZ393215 LVZ458739:LVZ458751 LVZ524275:LVZ524287 LVZ589811:LVZ589823 LVZ655347:LVZ655359 LVZ720883:LVZ720895 LVZ786419:LVZ786431 LVZ851955:LVZ851967 LVZ917491:LVZ917503 LVZ983027:LVZ983039 MFV65523:MFV65535 MFV131059:MFV131071 MFV196595:MFV196607 MFV262131:MFV262143 MFV327667:MFV327679 MFV393203:MFV393215 MFV458739:MFV458751 MFV524275:MFV524287 MFV589811:MFV589823 MFV655347:MFV655359 MFV720883:MFV720895 MFV786419:MFV786431 MFV851955:MFV851967 MFV917491:MFV917503 MFV983027:MFV983039 MPR65523:MPR65535 MPR131059:MPR131071 MPR196595:MPR196607 MPR262131:MPR262143 MPR327667:MPR327679 MPR393203:MPR393215 MPR458739:MPR458751 MPR524275:MPR524287 MPR589811:MPR589823 MPR655347:MPR655359 MPR720883:MPR720895 MPR786419:MPR786431 MPR851955:MPR851967 MPR917491:MPR917503 MPR983027:MPR983039 MZN65523:MZN65535 MZN131059:MZN131071 MZN196595:MZN196607 MZN262131:MZN262143 MZN327667:MZN327679 MZN393203:MZN393215 MZN458739:MZN458751 MZN524275:MZN524287 MZN589811:MZN589823 MZN655347:MZN655359 MZN720883:MZN720895 MZN786419:MZN786431 MZN851955:MZN851967 MZN917491:MZN917503 MZN983027:MZN983039 NJJ65523:NJJ65535 NJJ131059:NJJ131071 NJJ196595:NJJ196607 NJJ262131:NJJ262143 NJJ327667:NJJ327679 NJJ393203:NJJ393215 NJJ458739:NJJ458751 NJJ524275:NJJ524287 NJJ589811:NJJ589823 NJJ655347:NJJ655359 NJJ720883:NJJ720895 NJJ786419:NJJ786431 NJJ851955:NJJ851967 NJJ917491:NJJ917503 NJJ983027:NJJ983039 NTF65523:NTF65535 NTF131059:NTF131071 NTF196595:NTF196607 NTF262131:NTF262143 NTF327667:NTF327679 NTF393203:NTF393215 NTF458739:NTF458751 NTF524275:NTF524287 NTF589811:NTF589823 NTF655347:NTF655359 NTF720883:NTF720895 NTF786419:NTF786431 NTF851955:NTF851967 NTF917491:NTF917503 NTF983027:NTF983039 ODB65523:ODB65535 ODB131059:ODB131071 ODB196595:ODB196607 ODB262131:ODB262143 ODB327667:ODB327679 ODB393203:ODB393215 ODB458739:ODB458751 ODB524275:ODB524287 ODB589811:ODB589823 ODB655347:ODB655359 ODB720883:ODB720895 ODB786419:ODB786431 ODB851955:ODB851967 ODB917491:ODB917503 ODB983027:ODB983039 OMX65523:OMX65535 OMX131059:OMX131071 OMX196595:OMX196607 OMX262131:OMX262143 OMX327667:OMX327679 OMX393203:OMX393215 OMX458739:OMX458751 OMX524275:OMX524287 OMX589811:OMX589823 OMX655347:OMX655359 OMX720883:OMX720895 OMX786419:OMX786431 OMX851955:OMX851967 OMX917491:OMX917503 OMX983027:OMX983039 OWT65523:OWT65535 OWT131059:OWT131071 OWT196595:OWT196607 OWT262131:OWT262143 OWT327667:OWT327679 OWT393203:OWT393215 OWT458739:OWT458751 OWT524275:OWT524287 OWT589811:OWT589823 OWT655347:OWT655359 OWT720883:OWT720895 OWT786419:OWT786431 OWT851955:OWT851967 OWT917491:OWT917503 OWT983027:OWT983039 PGP65523:PGP65535 PGP131059:PGP131071 PGP196595:PGP196607 PGP262131:PGP262143 PGP327667:PGP327679 PGP393203:PGP393215 PGP458739:PGP458751 PGP524275:PGP524287 PGP589811:PGP589823 PGP655347:PGP655359 PGP720883:PGP720895 PGP786419:PGP786431 PGP851955:PGP851967 PGP917491:PGP917503 PGP983027:PGP983039 PQL65523:PQL65535 PQL131059:PQL131071 PQL196595:PQL196607 PQL262131:PQL262143 PQL327667:PQL327679 PQL393203:PQL393215 PQL458739:PQL458751 PQL524275:PQL524287 PQL589811:PQL589823 PQL655347:PQL655359 PQL720883:PQL720895 PQL786419:PQL786431 PQL851955:PQL851967 PQL917491:PQL917503 PQL983027:PQL983039 QAH65523:QAH65535 QAH131059:QAH131071 QAH196595:QAH196607 QAH262131:QAH262143 QAH327667:QAH327679 QAH393203:QAH393215 QAH458739:QAH458751 QAH524275:QAH524287 QAH589811:QAH589823 QAH655347:QAH655359 QAH720883:QAH720895 QAH786419:QAH786431 QAH851955:QAH851967 QAH917491:QAH917503 QAH983027:QAH983039 QKD65523:QKD65535 QKD131059:QKD131071 QKD196595:QKD196607 QKD262131:QKD262143 QKD327667:QKD327679 QKD393203:QKD393215 QKD458739:QKD458751 QKD524275:QKD524287 QKD589811:QKD589823 QKD655347:QKD655359 QKD720883:QKD720895 QKD786419:QKD786431 QKD851955:QKD851967 QKD917491:QKD917503 QKD983027:QKD983039 QTZ65523:QTZ65535 QTZ131059:QTZ131071 QTZ196595:QTZ196607 QTZ262131:QTZ262143 QTZ327667:QTZ327679 QTZ393203:QTZ393215 QTZ458739:QTZ458751 QTZ524275:QTZ524287 QTZ589811:QTZ589823 QTZ655347:QTZ655359 QTZ720883:QTZ720895 QTZ786419:QTZ786431 QTZ851955:QTZ851967 QTZ917491:QTZ917503 QTZ983027:QTZ983039 RDV65523:RDV65535 RDV131059:RDV131071 RDV196595:RDV196607 RDV262131:RDV262143 RDV327667:RDV327679 RDV393203:RDV393215 RDV458739:RDV458751 RDV524275:RDV524287 RDV589811:RDV589823 RDV655347:RDV655359 RDV720883:RDV720895 RDV786419:RDV786431 RDV851955:RDV851967 RDV917491:RDV917503 RDV983027:RDV983039 RNR65523:RNR65535 RNR131059:RNR131071 RNR196595:RNR196607 RNR262131:RNR262143 RNR327667:RNR327679 RNR393203:RNR393215 RNR458739:RNR458751 RNR524275:RNR524287 RNR589811:RNR589823 RNR655347:RNR655359 RNR720883:RNR720895 RNR786419:RNR786431 RNR851955:RNR851967 RNR917491:RNR917503 RNR983027:RNR983039 RXN65523:RXN65535 RXN131059:RXN131071 RXN196595:RXN196607 RXN262131:RXN262143 RXN327667:RXN327679 RXN393203:RXN393215 RXN458739:RXN458751 RXN524275:RXN524287 RXN589811:RXN589823 RXN655347:RXN655359 RXN720883:RXN720895 RXN786419:RXN786431 RXN851955:RXN851967 RXN917491:RXN917503 RXN983027:RXN983039 SHJ65523:SHJ65535 SHJ131059:SHJ131071 SHJ196595:SHJ196607 SHJ262131:SHJ262143 SHJ327667:SHJ327679 SHJ393203:SHJ393215 SHJ458739:SHJ458751 SHJ524275:SHJ524287 SHJ589811:SHJ589823 SHJ655347:SHJ655359 SHJ720883:SHJ720895 SHJ786419:SHJ786431 SHJ851955:SHJ851967 SHJ917491:SHJ917503 SHJ983027:SHJ983039 SRF65523:SRF65535 SRF131059:SRF131071 SRF196595:SRF196607 SRF262131:SRF262143 SRF327667:SRF327679 SRF393203:SRF393215 SRF458739:SRF458751 SRF524275:SRF524287 SRF589811:SRF589823 SRF655347:SRF655359 SRF720883:SRF720895 SRF786419:SRF786431 SRF851955:SRF851967 SRF917491:SRF917503 SRF983027:SRF983039 TBB65523:TBB65535 TBB131059:TBB131071 TBB196595:TBB196607 TBB262131:TBB262143 TBB327667:TBB327679 TBB393203:TBB393215 TBB458739:TBB458751 TBB524275:TBB524287 TBB589811:TBB589823 TBB655347:TBB655359 TBB720883:TBB720895 TBB786419:TBB786431 TBB851955:TBB851967 TBB917491:TBB917503 TBB983027:TBB983039 TKX65523:TKX65535 TKX131059:TKX131071 TKX196595:TKX196607 TKX262131:TKX262143 TKX327667:TKX327679 TKX393203:TKX393215 TKX458739:TKX458751 TKX524275:TKX524287 TKX589811:TKX589823 TKX655347:TKX655359 TKX720883:TKX720895 TKX786419:TKX786431 TKX851955:TKX851967 TKX917491:TKX917503 TKX983027:TKX983039 TUT65523:TUT65535 TUT131059:TUT131071 TUT196595:TUT196607 TUT262131:TUT262143 TUT327667:TUT327679 TUT393203:TUT393215 TUT458739:TUT458751 TUT524275:TUT524287 TUT589811:TUT589823 TUT655347:TUT655359 TUT720883:TUT720895 TUT786419:TUT786431 TUT851955:TUT851967 TUT917491:TUT917503 TUT983027:TUT983039 UEP65523:UEP65535 UEP131059:UEP131071 UEP196595:UEP196607 UEP262131:UEP262143 UEP327667:UEP327679 UEP393203:UEP393215 UEP458739:UEP458751 UEP524275:UEP524287 UEP589811:UEP589823 UEP655347:UEP655359 UEP720883:UEP720895 UEP786419:UEP786431 UEP851955:UEP851967 UEP917491:UEP917503 UEP983027:UEP983039 UOL65523:UOL65535 UOL131059:UOL131071 UOL196595:UOL196607 UOL262131:UOL262143 UOL327667:UOL327679 UOL393203:UOL393215 UOL458739:UOL458751 UOL524275:UOL524287 UOL589811:UOL589823 UOL655347:UOL655359 UOL720883:UOL720895 UOL786419:UOL786431 UOL851955:UOL851967 UOL917491:UOL917503 UOL983027:UOL983039 UYH65523:UYH65535 UYH131059:UYH131071 UYH196595:UYH196607 UYH262131:UYH262143 UYH327667:UYH327679 UYH393203:UYH393215 UYH458739:UYH458751 UYH524275:UYH524287 UYH589811:UYH589823 UYH655347:UYH655359 UYH720883:UYH720895 UYH786419:UYH786431 UYH851955:UYH851967 UYH917491:UYH917503 UYH983027:UYH983039 VID65523:VID65535 VID131059:VID131071 VID196595:VID196607 VID262131:VID262143 VID327667:VID327679 VID393203:VID393215 VID458739:VID458751 VID524275:VID524287 VID589811:VID589823 VID655347:VID655359 VID720883:VID720895 VID786419:VID786431 VID851955:VID851967 VID917491:VID917503 VID983027:VID983039 VRZ65523:VRZ65535 VRZ131059:VRZ131071 VRZ196595:VRZ196607 VRZ262131:VRZ262143 VRZ327667:VRZ327679 VRZ393203:VRZ393215 VRZ458739:VRZ458751 VRZ524275:VRZ524287 VRZ589811:VRZ589823 VRZ655347:VRZ655359 VRZ720883:VRZ720895 VRZ786419:VRZ786431 VRZ851955:VRZ851967 VRZ917491:VRZ917503 VRZ983027:VRZ983039 WBV65523:WBV65535 WBV131059:WBV131071 WBV196595:WBV196607 WBV262131:WBV262143 WBV327667:WBV327679 WBV393203:WBV393215 WBV458739:WBV458751 WBV524275:WBV524287 WBV589811:WBV589823 WBV655347:WBV655359 WBV720883:WBV720895 WBV786419:WBV786431 WBV851955:WBV851967 WBV917491:WBV917503 WBV983027:WBV983039 WLR65523:WLR65535 WLR131059:WLR131071 WLR196595:WLR196607 WLR262131:WLR262143 WLR327667:WLR327679 WLR393203:WLR393215 WLR458739:WLR458751 WLR524275:WLR524287 WLR589811:WLR589823 WLR655347:WLR655359 WLR720883:WLR720895 WLR786419:WLR786431 WLR851955:WLR851967 WLR917491:WLR917503 WLR983027:WLR983039 WVN983027:WVN983039 WVN65523:WVN65535 WVN131059:WVN131071 WVN196595:WVN196607 WVN262131:WVN262143 WVN327667:WVN327679 WVN393203:WVN393215 WVN458739:WVN458751 WVN524275:WVN524287 WVN589811:WVN589823 WVN655347:WVN655359 WVN720883:WVN720895 WVN786419:WVN786431 WVN851955:WVN851967 WVN917491:WVN917503 F4:F8 AWL4:AWL8 BGH4:BGH8 BQD4:BQD8 BZZ4:BZZ8 CJV4:CJV8 CTR4:CTR8 DDN4:DDN8 DNJ4:DNJ8 DXF4:DXF8 EHB4:EHB8 EQX4:EQX8 FAT4:FAT8 FKP4:FKP8 FUL4:FUL8 GEH4:GEH8 GOD4:GOD8 GXZ4:GXZ8 HHV4:HHV8 HRR4:HRR8 IBN4:IBN8 ILJ4:ILJ8 IVF4:IVF8 JFB4:JFB8 JOX4:JOX8 JYT4:JYT8 KIP4:KIP8 KSL4:KSL8 LCH4:LCH8 LMD4:LMD8 LVZ4:LVZ8 MFV4:MFV8 MPR4:MPR8 MZN4:MZN8 NJJ4:NJJ8 NTF4:NTF8 ODB4:ODB8 OMX4:OMX8 OWT4:OWT8 PGP4:PGP8 PQL4:PQL8 QAH4:QAH8 QKD4:QKD8 QTZ4:QTZ8 RDV4:RDV8 RNR4:RNR8 RXN4:RXN8 SHJ4:SHJ8 SRF4:SRF8 TBB4:TBB8 TKX4:TKX8 TUT4:TUT8 UEP4:UEP8 UOL4:UOL8 UYH4:UYH8 VID4:VID8 VRZ4:VRZ8 WBV4:WBV8 WLR4:WLR8 AMP4:AMP8 WVN4:WVN8 JB4:JB8 SX4:SX8 ACT4:ACT8">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 JE1:JE1048576 WVQ1:WVQ1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65528:F65540 F131064:F131076 F196600:F196612 F262136:F262148 F327672:F327684 F393208:F393220 F458744:F458756 F524280:F524292 F589816:F589828 F655352:F655364 F720888:F720900 F786424:F786436 F851960:F851972 F917496:F917508 F983032:F983044 JB65528:JB65540 JB131064:JB131076 JB196600:JB196612 JB262136:JB262148 JB327672:JB327684 JB393208:JB393220 JB458744:JB458756 JB524280:JB524292 JB589816:JB589828 JB655352:JB655364 JB720888:JB720900 JB786424:JB786436 JB851960:JB851972 JB917496:JB917508 JB983032:JB983044 SX65528:SX65540 SX131064:SX131076 SX196600:SX196612 SX262136:SX262148 SX327672:SX327684 SX393208:SX393220 SX458744:SX458756 SX524280:SX524292 SX589816:SX589828 SX655352:SX655364 SX720888:SX720900 SX786424:SX786436 SX851960:SX851972 SX917496:SX917508 SX983032:SX983044 ACT65528:ACT65540 ACT131064:ACT131076 ACT196600:ACT196612 ACT262136:ACT262148 ACT327672:ACT327684 ACT393208:ACT393220 ACT458744:ACT458756 ACT524280:ACT524292 ACT589816:ACT589828 ACT655352:ACT655364 ACT720888:ACT720900 ACT786424:ACT786436 ACT851960:ACT851972 ACT917496:ACT917508 ACT983032:ACT983044 AMP65528:AMP65540 AMP131064:AMP131076 AMP196600:AMP196612 AMP262136:AMP262148 AMP327672:AMP327684 AMP393208:AMP393220 AMP458744:AMP458756 AMP524280:AMP524292 AMP589816:AMP589828 AMP655352:AMP655364 AMP720888:AMP720900 AMP786424:AMP786436 AMP851960:AMP851972 AMP917496:AMP917508 AMP983032:AMP983044 AWL65528:AWL65540 AWL131064:AWL131076 AWL196600:AWL196612 AWL262136:AWL262148 AWL327672:AWL327684 AWL393208:AWL393220 AWL458744:AWL458756 AWL524280:AWL524292 AWL589816:AWL589828 AWL655352:AWL655364 AWL720888:AWL720900 AWL786424:AWL786436 AWL851960:AWL851972 AWL917496:AWL917508 AWL983032:AWL983044 BGH65528:BGH65540 BGH131064:BGH131076 BGH196600:BGH196612 BGH262136:BGH262148 BGH327672:BGH327684 BGH393208:BGH393220 BGH458744:BGH458756 BGH524280:BGH524292 BGH589816:BGH589828 BGH655352:BGH655364 BGH720888:BGH720900 BGH786424:BGH786436 BGH851960:BGH851972 BGH917496:BGH917508 BGH983032:BGH983044 BQD65528:BQD65540 BQD131064:BQD131076 BQD196600:BQD196612 BQD262136:BQD262148 BQD327672:BQD327684 BQD393208:BQD393220 BQD458744:BQD458756 BQD524280:BQD524292 BQD589816:BQD589828 BQD655352:BQD655364 BQD720888:BQD720900 BQD786424:BQD786436 BQD851960:BQD851972 BQD917496:BQD917508 BQD983032:BQD983044 BZZ65528:BZZ65540 BZZ131064:BZZ131076 BZZ196600:BZZ196612 BZZ262136:BZZ262148 BZZ327672:BZZ327684 BZZ393208:BZZ393220 BZZ458744:BZZ458756 BZZ524280:BZZ524292 BZZ589816:BZZ589828 BZZ655352:BZZ655364 BZZ720888:BZZ720900 BZZ786424:BZZ786436 BZZ851960:BZZ851972 BZZ917496:BZZ917508 BZZ983032:BZZ983044 CJV65528:CJV65540 CJV131064:CJV131076 CJV196600:CJV196612 CJV262136:CJV262148 CJV327672:CJV327684 CJV393208:CJV393220 CJV458744:CJV458756 CJV524280:CJV524292 CJV589816:CJV589828 CJV655352:CJV655364 CJV720888:CJV720900 CJV786424:CJV786436 CJV851960:CJV851972 CJV917496:CJV917508 CJV983032:CJV983044 CTR65528:CTR65540 CTR131064:CTR131076 CTR196600:CTR196612 CTR262136:CTR262148 CTR327672:CTR327684 CTR393208:CTR393220 CTR458744:CTR458756 CTR524280:CTR524292 CTR589816:CTR589828 CTR655352:CTR655364 CTR720888:CTR720900 CTR786424:CTR786436 CTR851960:CTR851972 CTR917496:CTR917508 CTR983032:CTR983044 DDN65528:DDN65540 DDN131064:DDN131076 DDN196600:DDN196612 DDN262136:DDN262148 DDN327672:DDN327684 DDN393208:DDN393220 DDN458744:DDN458756 DDN524280:DDN524292 DDN589816:DDN589828 DDN655352:DDN655364 DDN720888:DDN720900 DDN786424:DDN786436 DDN851960:DDN851972 DDN917496:DDN917508 DDN983032:DDN983044 DNJ65528:DNJ65540 DNJ131064:DNJ131076 DNJ196600:DNJ196612 DNJ262136:DNJ262148 DNJ327672:DNJ327684 DNJ393208:DNJ393220 DNJ458744:DNJ458756 DNJ524280:DNJ524292 DNJ589816:DNJ589828 DNJ655352:DNJ655364 DNJ720888:DNJ720900 DNJ786424:DNJ786436 DNJ851960:DNJ851972 DNJ917496:DNJ917508 DNJ983032:DNJ983044 DXF65528:DXF65540 DXF131064:DXF131076 DXF196600:DXF196612 DXF262136:DXF262148 DXF327672:DXF327684 DXF393208:DXF393220 DXF458744:DXF458756 DXF524280:DXF524292 DXF589816:DXF589828 DXF655352:DXF655364 DXF720888:DXF720900 DXF786424:DXF786436 DXF851960:DXF851972 DXF917496:DXF917508 DXF983032:DXF983044 EHB65528:EHB65540 EHB131064:EHB131076 EHB196600:EHB196612 EHB262136:EHB262148 EHB327672:EHB327684 EHB393208:EHB393220 EHB458744:EHB458756 EHB524280:EHB524292 EHB589816:EHB589828 EHB655352:EHB655364 EHB720888:EHB720900 EHB786424:EHB786436 EHB851960:EHB851972 EHB917496:EHB917508 EHB983032:EHB983044 EQX65528:EQX65540 EQX131064:EQX131076 EQX196600:EQX196612 EQX262136:EQX262148 EQX327672:EQX327684 EQX393208:EQX393220 EQX458744:EQX458756 EQX524280:EQX524292 EQX589816:EQX589828 EQX655352:EQX655364 EQX720888:EQX720900 EQX786424:EQX786436 EQX851960:EQX851972 EQX917496:EQX917508 EQX983032:EQX983044 FAT65528:FAT65540 FAT131064:FAT131076 FAT196600:FAT196612 FAT262136:FAT262148 FAT327672:FAT327684 FAT393208:FAT393220 FAT458744:FAT458756 FAT524280:FAT524292 FAT589816:FAT589828 FAT655352:FAT655364 FAT720888:FAT720900 FAT786424:FAT786436 FAT851960:FAT851972 FAT917496:FAT917508 FAT983032:FAT983044 FKP65528:FKP65540 FKP131064:FKP131076 FKP196600:FKP196612 FKP262136:FKP262148 FKP327672:FKP327684 FKP393208:FKP393220 FKP458744:FKP458756 FKP524280:FKP524292 FKP589816:FKP589828 FKP655352:FKP655364 FKP720888:FKP720900 FKP786424:FKP786436 FKP851960:FKP851972 FKP917496:FKP917508 FKP983032:FKP983044 FUL65528:FUL65540 FUL131064:FUL131076 FUL196600:FUL196612 FUL262136:FUL262148 FUL327672:FUL327684 FUL393208:FUL393220 FUL458744:FUL458756 FUL524280:FUL524292 FUL589816:FUL589828 FUL655352:FUL655364 FUL720888:FUL720900 FUL786424:FUL786436 FUL851960:FUL851972 FUL917496:FUL917508 FUL983032:FUL983044 GEH65528:GEH65540 GEH131064:GEH131076 GEH196600:GEH196612 GEH262136:GEH262148 GEH327672:GEH327684 GEH393208:GEH393220 GEH458744:GEH458756 GEH524280:GEH524292 GEH589816:GEH589828 GEH655352:GEH655364 GEH720888:GEH720900 GEH786424:GEH786436 GEH851960:GEH851972 GEH917496:GEH917508 GEH983032:GEH983044 GOD65528:GOD65540 GOD131064:GOD131076 GOD196600:GOD196612 GOD262136:GOD262148 GOD327672:GOD327684 GOD393208:GOD393220 GOD458744:GOD458756 GOD524280:GOD524292 GOD589816:GOD589828 GOD655352:GOD655364 GOD720888:GOD720900 GOD786424:GOD786436 GOD851960:GOD851972 GOD917496:GOD917508 GOD983032:GOD983044 GXZ65528:GXZ65540 GXZ131064:GXZ131076 GXZ196600:GXZ196612 GXZ262136:GXZ262148 GXZ327672:GXZ327684 GXZ393208:GXZ393220 GXZ458744:GXZ458756 GXZ524280:GXZ524292 GXZ589816:GXZ589828 GXZ655352:GXZ655364 GXZ720888:GXZ720900 GXZ786424:GXZ786436 GXZ851960:GXZ851972 GXZ917496:GXZ917508 GXZ983032:GXZ983044 HHV65528:HHV65540 HHV131064:HHV131076 HHV196600:HHV196612 HHV262136:HHV262148 HHV327672:HHV327684 HHV393208:HHV393220 HHV458744:HHV458756 HHV524280:HHV524292 HHV589816:HHV589828 HHV655352:HHV655364 HHV720888:HHV720900 HHV786424:HHV786436 HHV851960:HHV851972 HHV917496:HHV917508 HHV983032:HHV983044 HRR65528:HRR65540 HRR131064:HRR131076 HRR196600:HRR196612 HRR262136:HRR262148 HRR327672:HRR327684 HRR393208:HRR393220 HRR458744:HRR458756 HRR524280:HRR524292 HRR589816:HRR589828 HRR655352:HRR655364 HRR720888:HRR720900 HRR786424:HRR786436 HRR851960:HRR851972 HRR917496:HRR917508 HRR983032:HRR983044 IBN65528:IBN65540 IBN131064:IBN131076 IBN196600:IBN196612 IBN262136:IBN262148 IBN327672:IBN327684 IBN393208:IBN393220 IBN458744:IBN458756 IBN524280:IBN524292 IBN589816:IBN589828 IBN655352:IBN655364 IBN720888:IBN720900 IBN786424:IBN786436 IBN851960:IBN851972 IBN917496:IBN917508 IBN983032:IBN983044 ILJ65528:ILJ65540 ILJ131064:ILJ131076 ILJ196600:ILJ196612 ILJ262136:ILJ262148 ILJ327672:ILJ327684 ILJ393208:ILJ393220 ILJ458744:ILJ458756 ILJ524280:ILJ524292 ILJ589816:ILJ589828 ILJ655352:ILJ655364 ILJ720888:ILJ720900 ILJ786424:ILJ786436 ILJ851960:ILJ851972 ILJ917496:ILJ917508 ILJ983032:ILJ983044 IVF65528:IVF65540 IVF131064:IVF131076 IVF196600:IVF196612 IVF262136:IVF262148 IVF327672:IVF327684 IVF393208:IVF393220 IVF458744:IVF458756 IVF524280:IVF524292 IVF589816:IVF589828 IVF655352:IVF655364 IVF720888:IVF720900 IVF786424:IVF786436 IVF851960:IVF851972 IVF917496:IVF917508 IVF983032:IVF983044 JFB65528:JFB65540 JFB131064:JFB131076 JFB196600:JFB196612 JFB262136:JFB262148 JFB327672:JFB327684 JFB393208:JFB393220 JFB458744:JFB458756 JFB524280:JFB524292 JFB589816:JFB589828 JFB655352:JFB655364 JFB720888:JFB720900 JFB786424:JFB786436 JFB851960:JFB851972 JFB917496:JFB917508 JFB983032:JFB983044 JOX65528:JOX65540 JOX131064:JOX131076 JOX196600:JOX196612 JOX262136:JOX262148 JOX327672:JOX327684 JOX393208:JOX393220 JOX458744:JOX458756 JOX524280:JOX524292 JOX589816:JOX589828 JOX655352:JOX655364 JOX720888:JOX720900 JOX786424:JOX786436 JOX851960:JOX851972 JOX917496:JOX917508 JOX983032:JOX983044 JYT65528:JYT65540 JYT131064:JYT131076 JYT196600:JYT196612 JYT262136:JYT262148 JYT327672:JYT327684 JYT393208:JYT393220 JYT458744:JYT458756 JYT524280:JYT524292 JYT589816:JYT589828 JYT655352:JYT655364 JYT720888:JYT720900 JYT786424:JYT786436 JYT851960:JYT851972 JYT917496:JYT917508 JYT983032:JYT983044 KIP65528:KIP65540 KIP131064:KIP131076 KIP196600:KIP196612 KIP262136:KIP262148 KIP327672:KIP327684 KIP393208:KIP393220 KIP458744:KIP458756 KIP524280:KIP524292 KIP589816:KIP589828 KIP655352:KIP655364 KIP720888:KIP720900 KIP786424:KIP786436 KIP851960:KIP851972 KIP917496:KIP917508 KIP983032:KIP983044 KSL65528:KSL65540 KSL131064:KSL131076 KSL196600:KSL196612 KSL262136:KSL262148 KSL327672:KSL327684 KSL393208:KSL393220 KSL458744:KSL458756 KSL524280:KSL524292 KSL589816:KSL589828 KSL655352:KSL655364 KSL720888:KSL720900 KSL786424:KSL786436 KSL851960:KSL851972 KSL917496:KSL917508 KSL983032:KSL983044 LCH65528:LCH65540 LCH131064:LCH131076 LCH196600:LCH196612 LCH262136:LCH262148 LCH327672:LCH327684 LCH393208:LCH393220 LCH458744:LCH458756 LCH524280:LCH524292 LCH589816:LCH589828 LCH655352:LCH655364 LCH720888:LCH720900 LCH786424:LCH786436 LCH851960:LCH851972 LCH917496:LCH917508 LCH983032:LCH983044 LMD65528:LMD65540 LMD131064:LMD131076 LMD196600:LMD196612 LMD262136:LMD262148 LMD327672:LMD327684 LMD393208:LMD393220 LMD458744:LMD458756 LMD524280:LMD524292 LMD589816:LMD589828 LMD655352:LMD655364 LMD720888:LMD720900 LMD786424:LMD786436 LMD851960:LMD851972 LMD917496:LMD917508 LMD983032:LMD983044 LVZ65528:LVZ65540 LVZ131064:LVZ131076 LVZ196600:LVZ196612 LVZ262136:LVZ262148 LVZ327672:LVZ327684 LVZ393208:LVZ393220 LVZ458744:LVZ458756 LVZ524280:LVZ524292 LVZ589816:LVZ589828 LVZ655352:LVZ655364 LVZ720888:LVZ720900 LVZ786424:LVZ786436 LVZ851960:LVZ851972 LVZ917496:LVZ917508 LVZ983032:LVZ983044 MFV65528:MFV65540 MFV131064:MFV131076 MFV196600:MFV196612 MFV262136:MFV262148 MFV327672:MFV327684 MFV393208:MFV393220 MFV458744:MFV458756 MFV524280:MFV524292 MFV589816:MFV589828 MFV655352:MFV655364 MFV720888:MFV720900 MFV786424:MFV786436 MFV851960:MFV851972 MFV917496:MFV917508 MFV983032:MFV983044 MPR65528:MPR65540 MPR131064:MPR131076 MPR196600:MPR196612 MPR262136:MPR262148 MPR327672:MPR327684 MPR393208:MPR393220 MPR458744:MPR458756 MPR524280:MPR524292 MPR589816:MPR589828 MPR655352:MPR655364 MPR720888:MPR720900 MPR786424:MPR786436 MPR851960:MPR851972 MPR917496:MPR917508 MPR983032:MPR983044 MZN65528:MZN65540 MZN131064:MZN131076 MZN196600:MZN196612 MZN262136:MZN262148 MZN327672:MZN327684 MZN393208:MZN393220 MZN458744:MZN458756 MZN524280:MZN524292 MZN589816:MZN589828 MZN655352:MZN655364 MZN720888:MZN720900 MZN786424:MZN786436 MZN851960:MZN851972 MZN917496:MZN917508 MZN983032:MZN983044 NJJ65528:NJJ65540 NJJ131064:NJJ131076 NJJ196600:NJJ196612 NJJ262136:NJJ262148 NJJ327672:NJJ327684 NJJ393208:NJJ393220 NJJ458744:NJJ458756 NJJ524280:NJJ524292 NJJ589816:NJJ589828 NJJ655352:NJJ655364 NJJ720888:NJJ720900 NJJ786424:NJJ786436 NJJ851960:NJJ851972 NJJ917496:NJJ917508 NJJ983032:NJJ983044 NTF65528:NTF65540 NTF131064:NTF131076 NTF196600:NTF196612 NTF262136:NTF262148 NTF327672:NTF327684 NTF393208:NTF393220 NTF458744:NTF458756 NTF524280:NTF524292 NTF589816:NTF589828 NTF655352:NTF655364 NTF720888:NTF720900 NTF786424:NTF786436 NTF851960:NTF851972 NTF917496:NTF917508 NTF983032:NTF983044 ODB65528:ODB65540 ODB131064:ODB131076 ODB196600:ODB196612 ODB262136:ODB262148 ODB327672:ODB327684 ODB393208:ODB393220 ODB458744:ODB458756 ODB524280:ODB524292 ODB589816:ODB589828 ODB655352:ODB655364 ODB720888:ODB720900 ODB786424:ODB786436 ODB851960:ODB851972 ODB917496:ODB917508 ODB983032:ODB983044 OMX65528:OMX65540 OMX131064:OMX131076 OMX196600:OMX196612 OMX262136:OMX262148 OMX327672:OMX327684 OMX393208:OMX393220 OMX458744:OMX458756 OMX524280:OMX524292 OMX589816:OMX589828 OMX655352:OMX655364 OMX720888:OMX720900 OMX786424:OMX786436 OMX851960:OMX851972 OMX917496:OMX917508 OMX983032:OMX983044 OWT65528:OWT65540 OWT131064:OWT131076 OWT196600:OWT196612 OWT262136:OWT262148 OWT327672:OWT327684 OWT393208:OWT393220 OWT458744:OWT458756 OWT524280:OWT524292 OWT589816:OWT589828 OWT655352:OWT655364 OWT720888:OWT720900 OWT786424:OWT786436 OWT851960:OWT851972 OWT917496:OWT917508 OWT983032:OWT983044 PGP65528:PGP65540 PGP131064:PGP131076 PGP196600:PGP196612 PGP262136:PGP262148 PGP327672:PGP327684 PGP393208:PGP393220 PGP458744:PGP458756 PGP524280:PGP524292 PGP589816:PGP589828 PGP655352:PGP655364 PGP720888:PGP720900 PGP786424:PGP786436 PGP851960:PGP851972 PGP917496:PGP917508 PGP983032:PGP983044 PQL65528:PQL65540 PQL131064:PQL131076 PQL196600:PQL196612 PQL262136:PQL262148 PQL327672:PQL327684 PQL393208:PQL393220 PQL458744:PQL458756 PQL524280:PQL524292 PQL589816:PQL589828 PQL655352:PQL655364 PQL720888:PQL720900 PQL786424:PQL786436 PQL851960:PQL851972 PQL917496:PQL917508 PQL983032:PQL983044 QAH65528:QAH65540 QAH131064:QAH131076 QAH196600:QAH196612 QAH262136:QAH262148 QAH327672:QAH327684 QAH393208:QAH393220 QAH458744:QAH458756 QAH524280:QAH524292 QAH589816:QAH589828 QAH655352:QAH655364 QAH720888:QAH720900 QAH786424:QAH786436 QAH851960:QAH851972 QAH917496:QAH917508 QAH983032:QAH983044 QKD65528:QKD65540 QKD131064:QKD131076 QKD196600:QKD196612 QKD262136:QKD262148 QKD327672:QKD327684 QKD393208:QKD393220 QKD458744:QKD458756 QKD524280:QKD524292 QKD589816:QKD589828 QKD655352:QKD655364 QKD720888:QKD720900 QKD786424:QKD786436 QKD851960:QKD851972 QKD917496:QKD917508 QKD983032:QKD983044 QTZ65528:QTZ65540 QTZ131064:QTZ131076 QTZ196600:QTZ196612 QTZ262136:QTZ262148 QTZ327672:QTZ327684 QTZ393208:QTZ393220 QTZ458744:QTZ458756 QTZ524280:QTZ524292 QTZ589816:QTZ589828 QTZ655352:QTZ655364 QTZ720888:QTZ720900 QTZ786424:QTZ786436 QTZ851960:QTZ851972 QTZ917496:QTZ917508 QTZ983032:QTZ983044 RDV65528:RDV65540 RDV131064:RDV131076 RDV196600:RDV196612 RDV262136:RDV262148 RDV327672:RDV327684 RDV393208:RDV393220 RDV458744:RDV458756 RDV524280:RDV524292 RDV589816:RDV589828 RDV655352:RDV655364 RDV720888:RDV720900 RDV786424:RDV786436 RDV851960:RDV851972 RDV917496:RDV917508 RDV983032:RDV983044 RNR65528:RNR65540 RNR131064:RNR131076 RNR196600:RNR196612 RNR262136:RNR262148 RNR327672:RNR327684 RNR393208:RNR393220 RNR458744:RNR458756 RNR524280:RNR524292 RNR589816:RNR589828 RNR655352:RNR655364 RNR720888:RNR720900 RNR786424:RNR786436 RNR851960:RNR851972 RNR917496:RNR917508 RNR983032:RNR983044 RXN65528:RXN65540 RXN131064:RXN131076 RXN196600:RXN196612 RXN262136:RXN262148 RXN327672:RXN327684 RXN393208:RXN393220 RXN458744:RXN458756 RXN524280:RXN524292 RXN589816:RXN589828 RXN655352:RXN655364 RXN720888:RXN720900 RXN786424:RXN786436 RXN851960:RXN851972 RXN917496:RXN917508 RXN983032:RXN983044 SHJ65528:SHJ65540 SHJ131064:SHJ131076 SHJ196600:SHJ196612 SHJ262136:SHJ262148 SHJ327672:SHJ327684 SHJ393208:SHJ393220 SHJ458744:SHJ458756 SHJ524280:SHJ524292 SHJ589816:SHJ589828 SHJ655352:SHJ655364 SHJ720888:SHJ720900 SHJ786424:SHJ786436 SHJ851960:SHJ851972 SHJ917496:SHJ917508 SHJ983032:SHJ983044 SRF65528:SRF65540 SRF131064:SRF131076 SRF196600:SRF196612 SRF262136:SRF262148 SRF327672:SRF327684 SRF393208:SRF393220 SRF458744:SRF458756 SRF524280:SRF524292 SRF589816:SRF589828 SRF655352:SRF655364 SRF720888:SRF720900 SRF786424:SRF786436 SRF851960:SRF851972 SRF917496:SRF917508 SRF983032:SRF983044 TBB65528:TBB65540 TBB131064:TBB131076 TBB196600:TBB196612 TBB262136:TBB262148 TBB327672:TBB327684 TBB393208:TBB393220 TBB458744:TBB458756 TBB524280:TBB524292 TBB589816:TBB589828 TBB655352:TBB655364 TBB720888:TBB720900 TBB786424:TBB786436 TBB851960:TBB851972 TBB917496:TBB917508 TBB983032:TBB983044 TKX65528:TKX65540 TKX131064:TKX131076 TKX196600:TKX196612 TKX262136:TKX262148 TKX327672:TKX327684 TKX393208:TKX393220 TKX458744:TKX458756 TKX524280:TKX524292 TKX589816:TKX589828 TKX655352:TKX655364 TKX720888:TKX720900 TKX786424:TKX786436 TKX851960:TKX851972 TKX917496:TKX917508 TKX983032:TKX983044 TUT65528:TUT65540 TUT131064:TUT131076 TUT196600:TUT196612 TUT262136:TUT262148 TUT327672:TUT327684 TUT393208:TUT393220 TUT458744:TUT458756 TUT524280:TUT524292 TUT589816:TUT589828 TUT655352:TUT655364 TUT720888:TUT720900 TUT786424:TUT786436 TUT851960:TUT851972 TUT917496:TUT917508 TUT983032:TUT983044 UEP65528:UEP65540 UEP131064:UEP131076 UEP196600:UEP196612 UEP262136:UEP262148 UEP327672:UEP327684 UEP393208:UEP393220 UEP458744:UEP458756 UEP524280:UEP524292 UEP589816:UEP589828 UEP655352:UEP655364 UEP720888:UEP720900 UEP786424:UEP786436 UEP851960:UEP851972 UEP917496:UEP917508 UEP983032:UEP983044 UOL65528:UOL65540 UOL131064:UOL131076 UOL196600:UOL196612 UOL262136:UOL262148 UOL327672:UOL327684 UOL393208:UOL393220 UOL458744:UOL458756 UOL524280:UOL524292 UOL589816:UOL589828 UOL655352:UOL655364 UOL720888:UOL720900 UOL786424:UOL786436 UOL851960:UOL851972 UOL917496:UOL917508 UOL983032:UOL983044 UYH65528:UYH65540 UYH131064:UYH131076 UYH196600:UYH196612 UYH262136:UYH262148 UYH327672:UYH327684 UYH393208:UYH393220 UYH458744:UYH458756 UYH524280:UYH524292 UYH589816:UYH589828 UYH655352:UYH655364 UYH720888:UYH720900 UYH786424:UYH786436 UYH851960:UYH851972 UYH917496:UYH917508 UYH983032:UYH983044 VID65528:VID65540 VID131064:VID131076 VID196600:VID196612 VID262136:VID262148 VID327672:VID327684 VID393208:VID393220 VID458744:VID458756 VID524280:VID524292 VID589816:VID589828 VID655352:VID655364 VID720888:VID720900 VID786424:VID786436 VID851960:VID851972 VID917496:VID917508 VID983032:VID983044 VRZ65528:VRZ65540 VRZ131064:VRZ131076 VRZ196600:VRZ196612 VRZ262136:VRZ262148 VRZ327672:VRZ327684 VRZ393208:VRZ393220 VRZ458744:VRZ458756 VRZ524280:VRZ524292 VRZ589816:VRZ589828 VRZ655352:VRZ655364 VRZ720888:VRZ720900 VRZ786424:VRZ786436 VRZ851960:VRZ851972 VRZ917496:VRZ917508 VRZ983032:VRZ983044 WBV65528:WBV65540 WBV131064:WBV131076 WBV196600:WBV196612 WBV262136:WBV262148 WBV327672:WBV327684 WBV393208:WBV393220 WBV458744:WBV458756 WBV524280:WBV524292 WBV589816:WBV589828 WBV655352:WBV655364 WBV720888:WBV720900 WBV786424:WBV786436 WBV851960:WBV851972 WBV917496:WBV917508 WBV983032:WBV983044 WLR65528:WLR65540 WLR131064:WLR131076 WLR196600:WLR196612 WLR262136:WLR262148 WLR327672:WLR327684 WLR393208:WLR393220 WLR458744:WLR458756 WLR524280:WLR524292 WLR589816:WLR589828 WLR655352:WLR655364 WLR720888:WLR720900 WLR786424:WLR786436 WLR851960:WLR851972 WLR917496:WLR917508 WLR983032:WLR983044 WVN983032:WVN983044 WVN65528:WVN65540 WVN131064:WVN131076 WVN196600:WVN196612 WVN262136:WVN262148 WVN327672:WVN327684 WVN393208:WVN393220 WVN458744:WVN458756 WVN524280:WVN524292 WVN589816:WVN589828 WVN655352:WVN655364 WVN720888:WVN720900 WVN786424:WVN786436 WVN851960:WVN851972 WVN917496:WVN917508 F4:F8 ACT4:ACT8 SX4:SX8 JB4:JB8 WVN4:WVN8 AMP4:AMP8 WLR4:WLR8 WBV4:WBV8 VRZ4:VRZ8 VID4:VID8 UYH4:UYH8 UOL4:UOL8 UEP4:UEP8 TUT4:TUT8 TKX4:TKX8 TBB4:TBB8 SRF4:SRF8 SHJ4:SHJ8 RXN4:RXN8 RNR4:RNR8 RDV4:RDV8 QTZ4:QTZ8 QKD4:QKD8 QAH4:QAH8 PQL4:PQL8 PGP4:PGP8 OWT4:OWT8 OMX4:OMX8 ODB4:ODB8 NTF4:NTF8 NJJ4:NJJ8 MZN4:MZN8 MPR4:MPR8 MFV4:MFV8 LVZ4:LVZ8 LMD4:LMD8 LCH4:LCH8 KSL4:KSL8 KIP4:KIP8 JYT4:JYT8 JOX4:JOX8 JFB4:JFB8 IVF4:IVF8 ILJ4:ILJ8 IBN4:IBN8 HRR4:HRR8 HHV4:HHV8 GXZ4:GXZ8 GOD4:GOD8 GEH4:GEH8 FUL4:FUL8 FKP4:FKP8 FAT4:FAT8 EQX4:EQX8 EHB4:EHB8 DXF4:DXF8 DNJ4:DNJ8 DDN4:DDN8 CTR4:CTR8 CJV4:CJV8 BZZ4:BZZ8 BQD4:BQD8 BGH4:BGH8 AWL4:AWL8">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9971,6 +9539,1173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="9" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="259" max="259" width="7" customWidth="1"/>
+    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="261" max="261" width="21" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.25" customWidth="1"/>
+    <col min="264" max="264" width="25.75" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="268" max="268" width="9" customWidth="1"/>
+    <col min="269" max="269" width="17.75" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="515" max="515" width="7" customWidth="1"/>
+    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="517" max="517" width="21" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.25" customWidth="1"/>
+    <col min="520" max="520" width="25.75" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="524" max="524" width="9" customWidth="1"/>
+    <col min="525" max="525" width="17.75" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="771" max="771" width="7" customWidth="1"/>
+    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="773" max="773" width="21" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.25" customWidth="1"/>
+    <col min="776" max="776" width="25.75" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="780" max="780" width="9" customWidth="1"/>
+    <col min="781" max="781" width="17.75" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="1027" max="1027" width="7" customWidth="1"/>
+    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1029" max="1029" width="21" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.25" customWidth="1"/>
+    <col min="1032" max="1032" width="25.75" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1036" max="1036" width="9" customWidth="1"/>
+    <col min="1037" max="1037" width="17.75" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1283" max="1283" width="7" customWidth="1"/>
+    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1285" max="1285" width="21" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.25" customWidth="1"/>
+    <col min="1288" max="1288" width="25.75" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1292" max="1292" width="9" customWidth="1"/>
+    <col min="1293" max="1293" width="17.75" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1539" max="1539" width="7" customWidth="1"/>
+    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1541" max="1541" width="21" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.25" customWidth="1"/>
+    <col min="1544" max="1544" width="25.75" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1548" max="1548" width="9" customWidth="1"/>
+    <col min="1549" max="1549" width="17.75" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1795" max="1795" width="7" customWidth="1"/>
+    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1797" max="1797" width="21" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.25" customWidth="1"/>
+    <col min="1800" max="1800" width="25.75" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1804" max="1804" width="9" customWidth="1"/>
+    <col min="1805" max="1805" width="17.75" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="2051" max="2051" width="7" customWidth="1"/>
+    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2053" max="2053" width="21" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.25" customWidth="1"/>
+    <col min="2056" max="2056" width="25.75" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2060" max="2060" width="9" customWidth="1"/>
+    <col min="2061" max="2061" width="17.75" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2307" max="2307" width="7" customWidth="1"/>
+    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2309" max="2309" width="21" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.25" customWidth="1"/>
+    <col min="2312" max="2312" width="25.75" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2316" max="2316" width="9" customWidth="1"/>
+    <col min="2317" max="2317" width="17.75" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2563" max="2563" width="7" customWidth="1"/>
+    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2565" max="2565" width="21" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.25" customWidth="1"/>
+    <col min="2568" max="2568" width="25.75" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2572" max="2572" width="9" customWidth="1"/>
+    <col min="2573" max="2573" width="17.75" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2819" max="2819" width="7" customWidth="1"/>
+    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2821" max="2821" width="21" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.25" customWidth="1"/>
+    <col min="2824" max="2824" width="25.75" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2828" max="2828" width="9" customWidth="1"/>
+    <col min="2829" max="2829" width="17.75" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="3075" max="3075" width="7" customWidth="1"/>
+    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3077" max="3077" width="21" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.25" customWidth="1"/>
+    <col min="3080" max="3080" width="25.75" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3084" max="3084" width="9" customWidth="1"/>
+    <col min="3085" max="3085" width="17.75" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3331" max="3331" width="7" customWidth="1"/>
+    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3333" max="3333" width="21" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.25" customWidth="1"/>
+    <col min="3336" max="3336" width="25.75" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3340" max="3340" width="9" customWidth="1"/>
+    <col min="3341" max="3341" width="17.75" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3587" max="3587" width="7" customWidth="1"/>
+    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3589" max="3589" width="21" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.25" customWidth="1"/>
+    <col min="3592" max="3592" width="25.75" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3596" max="3596" width="9" customWidth="1"/>
+    <col min="3597" max="3597" width="17.75" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3843" max="3843" width="7" customWidth="1"/>
+    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3845" max="3845" width="21" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.25" customWidth="1"/>
+    <col min="3848" max="3848" width="25.75" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3852" max="3852" width="9" customWidth="1"/>
+    <col min="3853" max="3853" width="17.75" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="4099" max="4099" width="7" customWidth="1"/>
+    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4101" max="4101" width="21" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.25" customWidth="1"/>
+    <col min="4104" max="4104" width="25.75" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4108" max="4108" width="9" customWidth="1"/>
+    <col min="4109" max="4109" width="17.75" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4355" max="4355" width="7" customWidth="1"/>
+    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4357" max="4357" width="21" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.25" customWidth="1"/>
+    <col min="4360" max="4360" width="25.75" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4364" max="4364" width="9" customWidth="1"/>
+    <col min="4365" max="4365" width="17.75" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4611" max="4611" width="7" customWidth="1"/>
+    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4613" max="4613" width="21" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.25" customWidth="1"/>
+    <col min="4616" max="4616" width="25.75" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4620" max="4620" width="9" customWidth="1"/>
+    <col min="4621" max="4621" width="17.75" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4867" max="4867" width="7" customWidth="1"/>
+    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4869" max="4869" width="21" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.25" customWidth="1"/>
+    <col min="4872" max="4872" width="25.75" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4876" max="4876" width="9" customWidth="1"/>
+    <col min="4877" max="4877" width="17.75" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="5123" max="5123" width="7" customWidth="1"/>
+    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5125" max="5125" width="21" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.25" customWidth="1"/>
+    <col min="5128" max="5128" width="25.75" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5132" max="5132" width="9" customWidth="1"/>
+    <col min="5133" max="5133" width="17.75" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5379" max="5379" width="7" customWidth="1"/>
+    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5381" max="5381" width="21" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.25" customWidth="1"/>
+    <col min="5384" max="5384" width="25.75" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5388" max="5388" width="9" customWidth="1"/>
+    <col min="5389" max="5389" width="17.75" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5635" max="5635" width="7" customWidth="1"/>
+    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5637" max="5637" width="21" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.25" customWidth="1"/>
+    <col min="5640" max="5640" width="25.75" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5644" max="5644" width="9" customWidth="1"/>
+    <col min="5645" max="5645" width="17.75" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5891" max="5891" width="7" customWidth="1"/>
+    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5893" max="5893" width="21" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.25" customWidth="1"/>
+    <col min="5896" max="5896" width="25.75" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5900" max="5900" width="9" customWidth="1"/>
+    <col min="5901" max="5901" width="17.75" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="6147" max="6147" width="7" customWidth="1"/>
+    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6149" max="6149" width="21" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.25" customWidth="1"/>
+    <col min="6152" max="6152" width="25.75" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6156" max="6156" width="9" customWidth="1"/>
+    <col min="6157" max="6157" width="17.75" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6403" max="6403" width="7" customWidth="1"/>
+    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6405" max="6405" width="21" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.25" customWidth="1"/>
+    <col min="6408" max="6408" width="25.75" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6412" max="6412" width="9" customWidth="1"/>
+    <col min="6413" max="6413" width="17.75" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6659" max="6659" width="7" customWidth="1"/>
+    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6661" max="6661" width="21" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.25" customWidth="1"/>
+    <col min="6664" max="6664" width="25.75" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6668" max="6668" width="9" customWidth="1"/>
+    <col min="6669" max="6669" width="17.75" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6915" max="6915" width="7" customWidth="1"/>
+    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6917" max="6917" width="21" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.25" customWidth="1"/>
+    <col min="6920" max="6920" width="25.75" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6924" max="6924" width="9" customWidth="1"/>
+    <col min="6925" max="6925" width="17.75" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="7171" max="7171" width="7" customWidth="1"/>
+    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7173" max="7173" width="21" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.25" customWidth="1"/>
+    <col min="7176" max="7176" width="25.75" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7180" max="7180" width="9" customWidth="1"/>
+    <col min="7181" max="7181" width="17.75" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7427" max="7427" width="7" customWidth="1"/>
+    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7429" max="7429" width="21" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.25" customWidth="1"/>
+    <col min="7432" max="7432" width="25.75" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7436" max="7436" width="9" customWidth="1"/>
+    <col min="7437" max="7437" width="17.75" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7683" max="7683" width="7" customWidth="1"/>
+    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7685" max="7685" width="21" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.25" customWidth="1"/>
+    <col min="7688" max="7688" width="25.75" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7692" max="7692" width="9" customWidth="1"/>
+    <col min="7693" max="7693" width="17.75" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7939" max="7939" width="7" customWidth="1"/>
+    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7941" max="7941" width="21" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.25" customWidth="1"/>
+    <col min="7944" max="7944" width="25.75" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7948" max="7948" width="9" customWidth="1"/>
+    <col min="7949" max="7949" width="17.75" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="8195" max="8195" width="7" customWidth="1"/>
+    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8197" max="8197" width="21" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.25" customWidth="1"/>
+    <col min="8200" max="8200" width="25.75" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8204" max="8204" width="9" customWidth="1"/>
+    <col min="8205" max="8205" width="17.75" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8451" max="8451" width="7" customWidth="1"/>
+    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8453" max="8453" width="21" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.25" customWidth="1"/>
+    <col min="8456" max="8456" width="25.75" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8460" max="8460" width="9" customWidth="1"/>
+    <col min="8461" max="8461" width="17.75" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8707" max="8707" width="7" customWidth="1"/>
+    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8709" max="8709" width="21" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.25" customWidth="1"/>
+    <col min="8712" max="8712" width="25.75" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8716" max="8716" width="9" customWidth="1"/>
+    <col min="8717" max="8717" width="17.75" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8963" max="8963" width="7" customWidth="1"/>
+    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8965" max="8965" width="21" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.25" customWidth="1"/>
+    <col min="8968" max="8968" width="25.75" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8972" max="8972" width="9" customWidth="1"/>
+    <col min="8973" max="8973" width="17.75" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="9219" max="9219" width="7" customWidth="1"/>
+    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9221" max="9221" width="21" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.25" customWidth="1"/>
+    <col min="9224" max="9224" width="25.75" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9228" max="9228" width="9" customWidth="1"/>
+    <col min="9229" max="9229" width="17.75" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9475" max="9475" width="7" customWidth="1"/>
+    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9477" max="9477" width="21" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.25" customWidth="1"/>
+    <col min="9480" max="9480" width="25.75" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9484" max="9484" width="9" customWidth="1"/>
+    <col min="9485" max="9485" width="17.75" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9731" max="9731" width="7" customWidth="1"/>
+    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9733" max="9733" width="21" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.25" customWidth="1"/>
+    <col min="9736" max="9736" width="25.75" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9740" max="9740" width="9" customWidth="1"/>
+    <col min="9741" max="9741" width="17.75" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9987" max="9987" width="7" customWidth="1"/>
+    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9989" max="9989" width="21" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.25" customWidth="1"/>
+    <col min="9992" max="9992" width="25.75" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9996" max="9996" width="9" customWidth="1"/>
+    <col min="9997" max="9997" width="17.75" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="10243" max="10243" width="7" customWidth="1"/>
+    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10245" max="10245" width="21" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.25" customWidth="1"/>
+    <col min="10248" max="10248" width="25.75" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10252" max="10252" width="9" customWidth="1"/>
+    <col min="10253" max="10253" width="17.75" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10499" max="10499" width="7" customWidth="1"/>
+    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10501" max="10501" width="21" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.25" customWidth="1"/>
+    <col min="10504" max="10504" width="25.75" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10508" max="10508" width="9" customWidth="1"/>
+    <col min="10509" max="10509" width="17.75" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10755" max="10755" width="7" customWidth="1"/>
+    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10757" max="10757" width="21" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.25" customWidth="1"/>
+    <col min="10760" max="10760" width="25.75" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10764" max="10764" width="9" customWidth="1"/>
+    <col min="10765" max="10765" width="17.75" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="11011" max="11011" width="7" customWidth="1"/>
+    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11013" max="11013" width="21" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.25" customWidth="1"/>
+    <col min="11016" max="11016" width="25.75" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11020" max="11020" width="9" customWidth="1"/>
+    <col min="11021" max="11021" width="17.75" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11267" max="11267" width="7" customWidth="1"/>
+    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11269" max="11269" width="21" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.25" customWidth="1"/>
+    <col min="11272" max="11272" width="25.75" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11276" max="11276" width="9" customWidth="1"/>
+    <col min="11277" max="11277" width="17.75" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11523" max="11523" width="7" customWidth="1"/>
+    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11525" max="11525" width="21" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.25" customWidth="1"/>
+    <col min="11528" max="11528" width="25.75" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11532" max="11532" width="9" customWidth="1"/>
+    <col min="11533" max="11533" width="17.75" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11779" max="11779" width="7" customWidth="1"/>
+    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11781" max="11781" width="21" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.25" customWidth="1"/>
+    <col min="11784" max="11784" width="25.75" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11788" max="11788" width="9" customWidth="1"/>
+    <col min="11789" max="11789" width="17.75" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="12035" max="12035" width="7" customWidth="1"/>
+    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12037" max="12037" width="21" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.25" customWidth="1"/>
+    <col min="12040" max="12040" width="25.75" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12044" max="12044" width="9" customWidth="1"/>
+    <col min="12045" max="12045" width="17.75" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12291" max="12291" width="7" customWidth="1"/>
+    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12293" max="12293" width="21" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.25" customWidth="1"/>
+    <col min="12296" max="12296" width="25.75" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12300" max="12300" width="9" customWidth="1"/>
+    <col min="12301" max="12301" width="17.75" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12547" max="12547" width="7" customWidth="1"/>
+    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12549" max="12549" width="21" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.25" customWidth="1"/>
+    <col min="12552" max="12552" width="25.75" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12556" max="12556" width="9" customWidth="1"/>
+    <col min="12557" max="12557" width="17.75" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12803" max="12803" width="7" customWidth="1"/>
+    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12805" max="12805" width="21" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.25" customWidth="1"/>
+    <col min="12808" max="12808" width="25.75" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12812" max="12812" width="9" customWidth="1"/>
+    <col min="12813" max="12813" width="17.75" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="13059" max="13059" width="7" customWidth="1"/>
+    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13061" max="13061" width="21" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.25" customWidth="1"/>
+    <col min="13064" max="13064" width="25.75" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13068" max="13068" width="9" customWidth="1"/>
+    <col min="13069" max="13069" width="17.75" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13315" max="13315" width="7" customWidth="1"/>
+    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13317" max="13317" width="21" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.25" customWidth="1"/>
+    <col min="13320" max="13320" width="25.75" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13324" max="13324" width="9" customWidth="1"/>
+    <col min="13325" max="13325" width="17.75" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13571" max="13571" width="7" customWidth="1"/>
+    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13573" max="13573" width="21" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.25" customWidth="1"/>
+    <col min="13576" max="13576" width="25.75" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13580" max="13580" width="9" customWidth="1"/>
+    <col min="13581" max="13581" width="17.75" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13827" max="13827" width="7" customWidth="1"/>
+    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13829" max="13829" width="21" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.25" customWidth="1"/>
+    <col min="13832" max="13832" width="25.75" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13836" max="13836" width="9" customWidth="1"/>
+    <col min="13837" max="13837" width="17.75" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="14083" max="14083" width="7" customWidth="1"/>
+    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14085" max="14085" width="21" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.25" customWidth="1"/>
+    <col min="14088" max="14088" width="25.75" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14092" max="14092" width="9" customWidth="1"/>
+    <col min="14093" max="14093" width="17.75" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14339" max="14339" width="7" customWidth="1"/>
+    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14341" max="14341" width="21" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.25" customWidth="1"/>
+    <col min="14344" max="14344" width="25.75" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14348" max="14348" width="9" customWidth="1"/>
+    <col min="14349" max="14349" width="17.75" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14595" max="14595" width="7" customWidth="1"/>
+    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14597" max="14597" width="21" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.25" customWidth="1"/>
+    <col min="14600" max="14600" width="25.75" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14604" max="14604" width="9" customWidth="1"/>
+    <col min="14605" max="14605" width="17.75" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14851" max="14851" width="7" customWidth="1"/>
+    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14853" max="14853" width="21" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.25" customWidth="1"/>
+    <col min="14856" max="14856" width="25.75" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14860" max="14860" width="9" customWidth="1"/>
+    <col min="14861" max="14861" width="17.75" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="15107" max="15107" width="7" customWidth="1"/>
+    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15109" max="15109" width="21" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.25" customWidth="1"/>
+    <col min="15112" max="15112" width="25.75" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15116" max="15116" width="9" customWidth="1"/>
+    <col min="15117" max="15117" width="17.75" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15363" max="15363" width="7" customWidth="1"/>
+    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15365" max="15365" width="21" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.25" customWidth="1"/>
+    <col min="15368" max="15368" width="25.75" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15372" max="15372" width="9" customWidth="1"/>
+    <col min="15373" max="15373" width="17.75" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15619" max="15619" width="7" customWidth="1"/>
+    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15621" max="15621" width="21" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.25" customWidth="1"/>
+    <col min="15624" max="15624" width="25.75" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15628" max="15628" width="9" customWidth="1"/>
+    <col min="15629" max="15629" width="17.75" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15875" max="15875" width="7" customWidth="1"/>
+    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15877" max="15877" width="21" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.25" customWidth="1"/>
+    <col min="15880" max="15880" width="25.75" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15884" max="15884" width="9" customWidth="1"/>
+    <col min="15885" max="15885" width="17.75" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="16131" max="16131" width="7" customWidth="1"/>
+    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16133" max="16133" width="21" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.25" customWidth="1"/>
+    <col min="16136" max="16136" width="25.75" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16140" max="16140" width="9" customWidth="1"/>
+    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="16.5">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="71" customFormat="1" ht="115.5">
+      <c r="A4" s="68">
+        <v>1</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="69"/>
+    </row>
+    <row r="5" spans="1:13" s="71" customFormat="1" ht="82.5">
+      <c r="A5" s="68">
+        <v>2</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:13" s="71" customFormat="1" ht="99">
+      <c r="A6" s="68">
+        <v>3</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A7" s="72">
+        <v>4</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="16.5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="16.5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="16.5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="16.5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="16.5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65536:F65548 F131072:F131084 F196608:F196620 F262144:F262156 F327680:F327692 F393216:F393228 F458752:F458764 F524288:F524300 F589824:F589836 F655360:F655372 F720896:F720908 F786432:F786444 F851968:F851980 F917504:F917516 F983040:F983052 JB65536:JB65548 JB131072:JB131084 JB196608:JB196620 JB262144:JB262156 JB327680:JB327692 JB393216:JB393228 JB458752:JB458764 JB524288:JB524300 JB589824:JB589836 JB655360:JB655372 JB720896:JB720908 JB786432:JB786444 JB851968:JB851980 JB917504:JB917516 JB983040:JB983052 SX65536:SX65548 SX131072:SX131084 SX196608:SX196620 SX262144:SX262156 SX327680:SX327692 SX393216:SX393228 SX458752:SX458764 SX524288:SX524300 SX589824:SX589836 SX655360:SX655372 SX720896:SX720908 SX786432:SX786444 SX851968:SX851980 SX917504:SX917516 SX983040:SX983052 ACT65536:ACT65548 ACT131072:ACT131084 ACT196608:ACT196620 ACT262144:ACT262156 ACT327680:ACT327692 ACT393216:ACT393228 ACT458752:ACT458764 ACT524288:ACT524300 ACT589824:ACT589836 ACT655360:ACT655372 ACT720896:ACT720908 ACT786432:ACT786444 ACT851968:ACT851980 ACT917504:ACT917516 ACT983040:ACT983052 AMP65536:AMP65548 AMP131072:AMP131084 AMP196608:AMP196620 AMP262144:AMP262156 AMP327680:AMP327692 AMP393216:AMP393228 AMP458752:AMP458764 AMP524288:AMP524300 AMP589824:AMP589836 AMP655360:AMP655372 AMP720896:AMP720908 AMP786432:AMP786444 AMP851968:AMP851980 AMP917504:AMP917516 AMP983040:AMP983052 AWL65536:AWL65548 AWL131072:AWL131084 AWL196608:AWL196620 AWL262144:AWL262156 AWL327680:AWL327692 AWL393216:AWL393228 AWL458752:AWL458764 AWL524288:AWL524300 AWL589824:AWL589836 AWL655360:AWL655372 AWL720896:AWL720908 AWL786432:AWL786444 AWL851968:AWL851980 AWL917504:AWL917516 AWL983040:AWL983052 BGH65536:BGH65548 BGH131072:BGH131084 BGH196608:BGH196620 BGH262144:BGH262156 BGH327680:BGH327692 BGH393216:BGH393228 BGH458752:BGH458764 BGH524288:BGH524300 BGH589824:BGH589836 BGH655360:BGH655372 BGH720896:BGH720908 BGH786432:BGH786444 BGH851968:BGH851980 BGH917504:BGH917516 BGH983040:BGH983052 BQD65536:BQD65548 BQD131072:BQD131084 BQD196608:BQD196620 BQD262144:BQD262156 BQD327680:BQD327692 BQD393216:BQD393228 BQD458752:BQD458764 BQD524288:BQD524300 BQD589824:BQD589836 BQD655360:BQD655372 BQD720896:BQD720908 BQD786432:BQD786444 BQD851968:BQD851980 BQD917504:BQD917516 BQD983040:BQD983052 BZZ65536:BZZ65548 BZZ131072:BZZ131084 BZZ196608:BZZ196620 BZZ262144:BZZ262156 BZZ327680:BZZ327692 BZZ393216:BZZ393228 BZZ458752:BZZ458764 BZZ524288:BZZ524300 BZZ589824:BZZ589836 BZZ655360:BZZ655372 BZZ720896:BZZ720908 BZZ786432:BZZ786444 BZZ851968:BZZ851980 BZZ917504:BZZ917516 BZZ983040:BZZ983052 CJV65536:CJV65548 CJV131072:CJV131084 CJV196608:CJV196620 CJV262144:CJV262156 CJV327680:CJV327692 CJV393216:CJV393228 CJV458752:CJV458764 CJV524288:CJV524300 CJV589824:CJV589836 CJV655360:CJV655372 CJV720896:CJV720908 CJV786432:CJV786444 CJV851968:CJV851980 CJV917504:CJV917516 CJV983040:CJV983052 CTR65536:CTR65548 CTR131072:CTR131084 CTR196608:CTR196620 CTR262144:CTR262156 CTR327680:CTR327692 CTR393216:CTR393228 CTR458752:CTR458764 CTR524288:CTR524300 CTR589824:CTR589836 CTR655360:CTR655372 CTR720896:CTR720908 CTR786432:CTR786444 CTR851968:CTR851980 CTR917504:CTR917516 CTR983040:CTR983052 DDN65536:DDN65548 DDN131072:DDN131084 DDN196608:DDN196620 DDN262144:DDN262156 DDN327680:DDN327692 DDN393216:DDN393228 DDN458752:DDN458764 DDN524288:DDN524300 DDN589824:DDN589836 DDN655360:DDN655372 DDN720896:DDN720908 DDN786432:DDN786444 DDN851968:DDN851980 DDN917504:DDN917516 DDN983040:DDN983052 DNJ65536:DNJ65548 DNJ131072:DNJ131084 DNJ196608:DNJ196620 DNJ262144:DNJ262156 DNJ327680:DNJ327692 DNJ393216:DNJ393228 DNJ458752:DNJ458764 DNJ524288:DNJ524300 DNJ589824:DNJ589836 DNJ655360:DNJ655372 DNJ720896:DNJ720908 DNJ786432:DNJ786444 DNJ851968:DNJ851980 DNJ917504:DNJ917516 DNJ983040:DNJ983052 DXF65536:DXF65548 DXF131072:DXF131084 DXF196608:DXF196620 DXF262144:DXF262156 DXF327680:DXF327692 DXF393216:DXF393228 DXF458752:DXF458764 DXF524288:DXF524300 DXF589824:DXF589836 DXF655360:DXF655372 DXF720896:DXF720908 DXF786432:DXF786444 DXF851968:DXF851980 DXF917504:DXF917516 DXF983040:DXF983052 EHB65536:EHB65548 EHB131072:EHB131084 EHB196608:EHB196620 EHB262144:EHB262156 EHB327680:EHB327692 EHB393216:EHB393228 EHB458752:EHB458764 EHB524288:EHB524300 EHB589824:EHB589836 EHB655360:EHB655372 EHB720896:EHB720908 EHB786432:EHB786444 EHB851968:EHB851980 EHB917504:EHB917516 EHB983040:EHB983052 EQX65536:EQX65548 EQX131072:EQX131084 EQX196608:EQX196620 EQX262144:EQX262156 EQX327680:EQX327692 EQX393216:EQX393228 EQX458752:EQX458764 EQX524288:EQX524300 EQX589824:EQX589836 EQX655360:EQX655372 EQX720896:EQX720908 EQX786432:EQX786444 EQX851968:EQX851980 EQX917504:EQX917516 EQX983040:EQX983052 FAT65536:FAT65548 FAT131072:FAT131084 FAT196608:FAT196620 FAT262144:FAT262156 FAT327680:FAT327692 FAT393216:FAT393228 FAT458752:FAT458764 FAT524288:FAT524300 FAT589824:FAT589836 FAT655360:FAT655372 FAT720896:FAT720908 FAT786432:FAT786444 FAT851968:FAT851980 FAT917504:FAT917516 FAT983040:FAT983052 FKP65536:FKP65548 FKP131072:FKP131084 FKP196608:FKP196620 FKP262144:FKP262156 FKP327680:FKP327692 FKP393216:FKP393228 FKP458752:FKP458764 FKP524288:FKP524300 FKP589824:FKP589836 FKP655360:FKP655372 FKP720896:FKP720908 FKP786432:FKP786444 FKP851968:FKP851980 FKP917504:FKP917516 FKP983040:FKP983052 FUL65536:FUL65548 FUL131072:FUL131084 FUL196608:FUL196620 FUL262144:FUL262156 FUL327680:FUL327692 FUL393216:FUL393228 FUL458752:FUL458764 FUL524288:FUL524300 FUL589824:FUL589836 FUL655360:FUL655372 FUL720896:FUL720908 FUL786432:FUL786444 FUL851968:FUL851980 FUL917504:FUL917516 FUL983040:FUL983052 GEH65536:GEH65548 GEH131072:GEH131084 GEH196608:GEH196620 GEH262144:GEH262156 GEH327680:GEH327692 GEH393216:GEH393228 GEH458752:GEH458764 GEH524288:GEH524300 GEH589824:GEH589836 GEH655360:GEH655372 GEH720896:GEH720908 GEH786432:GEH786444 GEH851968:GEH851980 GEH917504:GEH917516 GEH983040:GEH983052 GOD65536:GOD65548 GOD131072:GOD131084 GOD196608:GOD196620 GOD262144:GOD262156 GOD327680:GOD327692 GOD393216:GOD393228 GOD458752:GOD458764 GOD524288:GOD524300 GOD589824:GOD589836 GOD655360:GOD655372 GOD720896:GOD720908 GOD786432:GOD786444 GOD851968:GOD851980 GOD917504:GOD917516 GOD983040:GOD983052 GXZ65536:GXZ65548 GXZ131072:GXZ131084 GXZ196608:GXZ196620 GXZ262144:GXZ262156 GXZ327680:GXZ327692 GXZ393216:GXZ393228 GXZ458752:GXZ458764 GXZ524288:GXZ524300 GXZ589824:GXZ589836 GXZ655360:GXZ655372 GXZ720896:GXZ720908 GXZ786432:GXZ786444 GXZ851968:GXZ851980 GXZ917504:GXZ917516 GXZ983040:GXZ983052 HHV65536:HHV65548 HHV131072:HHV131084 HHV196608:HHV196620 HHV262144:HHV262156 HHV327680:HHV327692 HHV393216:HHV393228 HHV458752:HHV458764 HHV524288:HHV524300 HHV589824:HHV589836 HHV655360:HHV655372 HHV720896:HHV720908 HHV786432:HHV786444 HHV851968:HHV851980 HHV917504:HHV917516 HHV983040:HHV983052 HRR65536:HRR65548 HRR131072:HRR131084 HRR196608:HRR196620 HRR262144:HRR262156 HRR327680:HRR327692 HRR393216:HRR393228 HRR458752:HRR458764 HRR524288:HRR524300 HRR589824:HRR589836 HRR655360:HRR655372 HRR720896:HRR720908 HRR786432:HRR786444 HRR851968:HRR851980 HRR917504:HRR917516 HRR983040:HRR983052 IBN65536:IBN65548 IBN131072:IBN131084 IBN196608:IBN196620 IBN262144:IBN262156 IBN327680:IBN327692 IBN393216:IBN393228 IBN458752:IBN458764 IBN524288:IBN524300 IBN589824:IBN589836 IBN655360:IBN655372 IBN720896:IBN720908 IBN786432:IBN786444 IBN851968:IBN851980 IBN917504:IBN917516 IBN983040:IBN983052 ILJ65536:ILJ65548 ILJ131072:ILJ131084 ILJ196608:ILJ196620 ILJ262144:ILJ262156 ILJ327680:ILJ327692 ILJ393216:ILJ393228 ILJ458752:ILJ458764 ILJ524288:ILJ524300 ILJ589824:ILJ589836 ILJ655360:ILJ655372 ILJ720896:ILJ720908 ILJ786432:ILJ786444 ILJ851968:ILJ851980 ILJ917504:ILJ917516 ILJ983040:ILJ983052 IVF65536:IVF65548 IVF131072:IVF131084 IVF196608:IVF196620 IVF262144:IVF262156 IVF327680:IVF327692 IVF393216:IVF393228 IVF458752:IVF458764 IVF524288:IVF524300 IVF589824:IVF589836 IVF655360:IVF655372 IVF720896:IVF720908 IVF786432:IVF786444 IVF851968:IVF851980 IVF917504:IVF917516 IVF983040:IVF983052 JFB65536:JFB65548 JFB131072:JFB131084 JFB196608:JFB196620 JFB262144:JFB262156 JFB327680:JFB327692 JFB393216:JFB393228 JFB458752:JFB458764 JFB524288:JFB524300 JFB589824:JFB589836 JFB655360:JFB655372 JFB720896:JFB720908 JFB786432:JFB786444 JFB851968:JFB851980 JFB917504:JFB917516 JFB983040:JFB983052 JOX65536:JOX65548 JOX131072:JOX131084 JOX196608:JOX196620 JOX262144:JOX262156 JOX327680:JOX327692 JOX393216:JOX393228 JOX458752:JOX458764 JOX524288:JOX524300 JOX589824:JOX589836 JOX655360:JOX655372 JOX720896:JOX720908 JOX786432:JOX786444 JOX851968:JOX851980 JOX917504:JOX917516 JOX983040:JOX983052 JYT65536:JYT65548 JYT131072:JYT131084 JYT196608:JYT196620 JYT262144:JYT262156 JYT327680:JYT327692 JYT393216:JYT393228 JYT458752:JYT458764 JYT524288:JYT524300 JYT589824:JYT589836 JYT655360:JYT655372 JYT720896:JYT720908 JYT786432:JYT786444 JYT851968:JYT851980 JYT917504:JYT917516 JYT983040:JYT983052 KIP65536:KIP65548 KIP131072:KIP131084 KIP196608:KIP196620 KIP262144:KIP262156 KIP327680:KIP327692 KIP393216:KIP393228 KIP458752:KIP458764 KIP524288:KIP524300 KIP589824:KIP589836 KIP655360:KIP655372 KIP720896:KIP720908 KIP786432:KIP786444 KIP851968:KIP851980 KIP917504:KIP917516 KIP983040:KIP983052 KSL65536:KSL65548 KSL131072:KSL131084 KSL196608:KSL196620 KSL262144:KSL262156 KSL327680:KSL327692 KSL393216:KSL393228 KSL458752:KSL458764 KSL524288:KSL524300 KSL589824:KSL589836 KSL655360:KSL655372 KSL720896:KSL720908 KSL786432:KSL786444 KSL851968:KSL851980 KSL917504:KSL917516 KSL983040:KSL983052 LCH65536:LCH65548 LCH131072:LCH131084 LCH196608:LCH196620 LCH262144:LCH262156 LCH327680:LCH327692 LCH393216:LCH393228 LCH458752:LCH458764 LCH524288:LCH524300 LCH589824:LCH589836 LCH655360:LCH655372 LCH720896:LCH720908 LCH786432:LCH786444 LCH851968:LCH851980 LCH917504:LCH917516 LCH983040:LCH983052 LMD65536:LMD65548 LMD131072:LMD131084 LMD196608:LMD196620 LMD262144:LMD262156 LMD327680:LMD327692 LMD393216:LMD393228 LMD458752:LMD458764 LMD524288:LMD524300 LMD589824:LMD589836 LMD655360:LMD655372 LMD720896:LMD720908 LMD786432:LMD786444 LMD851968:LMD851980 LMD917504:LMD917516 LMD983040:LMD983052 LVZ65536:LVZ65548 LVZ131072:LVZ131084 LVZ196608:LVZ196620 LVZ262144:LVZ262156 LVZ327680:LVZ327692 LVZ393216:LVZ393228 LVZ458752:LVZ458764 LVZ524288:LVZ524300 LVZ589824:LVZ589836 LVZ655360:LVZ655372 LVZ720896:LVZ720908 LVZ786432:LVZ786444 LVZ851968:LVZ851980 LVZ917504:LVZ917516 LVZ983040:LVZ983052 MFV65536:MFV65548 MFV131072:MFV131084 MFV196608:MFV196620 MFV262144:MFV262156 MFV327680:MFV327692 MFV393216:MFV393228 MFV458752:MFV458764 MFV524288:MFV524300 MFV589824:MFV589836 MFV655360:MFV655372 MFV720896:MFV720908 MFV786432:MFV786444 MFV851968:MFV851980 MFV917504:MFV917516 MFV983040:MFV983052 MPR65536:MPR65548 MPR131072:MPR131084 MPR196608:MPR196620 MPR262144:MPR262156 MPR327680:MPR327692 MPR393216:MPR393228 MPR458752:MPR458764 MPR524288:MPR524300 MPR589824:MPR589836 MPR655360:MPR655372 MPR720896:MPR720908 MPR786432:MPR786444 MPR851968:MPR851980 MPR917504:MPR917516 MPR983040:MPR983052 MZN65536:MZN65548 MZN131072:MZN131084 MZN196608:MZN196620 MZN262144:MZN262156 MZN327680:MZN327692 MZN393216:MZN393228 MZN458752:MZN458764 MZN524288:MZN524300 MZN589824:MZN589836 MZN655360:MZN655372 MZN720896:MZN720908 MZN786432:MZN786444 MZN851968:MZN851980 MZN917504:MZN917516 MZN983040:MZN983052 NJJ65536:NJJ65548 NJJ131072:NJJ131084 NJJ196608:NJJ196620 NJJ262144:NJJ262156 NJJ327680:NJJ327692 NJJ393216:NJJ393228 NJJ458752:NJJ458764 NJJ524288:NJJ524300 NJJ589824:NJJ589836 NJJ655360:NJJ655372 NJJ720896:NJJ720908 NJJ786432:NJJ786444 NJJ851968:NJJ851980 NJJ917504:NJJ917516 NJJ983040:NJJ983052 NTF65536:NTF65548 NTF131072:NTF131084 NTF196608:NTF196620 NTF262144:NTF262156 NTF327680:NTF327692 NTF393216:NTF393228 NTF458752:NTF458764 NTF524288:NTF524300 NTF589824:NTF589836 NTF655360:NTF655372 NTF720896:NTF720908 NTF786432:NTF786444 NTF851968:NTF851980 NTF917504:NTF917516 NTF983040:NTF983052 ODB65536:ODB65548 ODB131072:ODB131084 ODB196608:ODB196620 ODB262144:ODB262156 ODB327680:ODB327692 ODB393216:ODB393228 ODB458752:ODB458764 ODB524288:ODB524300 ODB589824:ODB589836 ODB655360:ODB655372 ODB720896:ODB720908 ODB786432:ODB786444 ODB851968:ODB851980 ODB917504:ODB917516 ODB983040:ODB983052 OMX65536:OMX65548 OMX131072:OMX131084 OMX196608:OMX196620 OMX262144:OMX262156 OMX327680:OMX327692 OMX393216:OMX393228 OMX458752:OMX458764 OMX524288:OMX524300 OMX589824:OMX589836 OMX655360:OMX655372 OMX720896:OMX720908 OMX786432:OMX786444 OMX851968:OMX851980 OMX917504:OMX917516 OMX983040:OMX983052 OWT65536:OWT65548 OWT131072:OWT131084 OWT196608:OWT196620 OWT262144:OWT262156 OWT327680:OWT327692 OWT393216:OWT393228 OWT458752:OWT458764 OWT524288:OWT524300 OWT589824:OWT589836 OWT655360:OWT655372 OWT720896:OWT720908 OWT786432:OWT786444 OWT851968:OWT851980 OWT917504:OWT917516 OWT983040:OWT983052 PGP65536:PGP65548 PGP131072:PGP131084 PGP196608:PGP196620 PGP262144:PGP262156 PGP327680:PGP327692 PGP393216:PGP393228 PGP458752:PGP458764 PGP524288:PGP524300 PGP589824:PGP589836 PGP655360:PGP655372 PGP720896:PGP720908 PGP786432:PGP786444 PGP851968:PGP851980 PGP917504:PGP917516 PGP983040:PGP983052 PQL65536:PQL65548 PQL131072:PQL131084 PQL196608:PQL196620 PQL262144:PQL262156 PQL327680:PQL327692 PQL393216:PQL393228 PQL458752:PQL458764 PQL524288:PQL524300 PQL589824:PQL589836 PQL655360:PQL655372 PQL720896:PQL720908 PQL786432:PQL786444 PQL851968:PQL851980 PQL917504:PQL917516 PQL983040:PQL983052 QAH65536:QAH65548 QAH131072:QAH131084 QAH196608:QAH196620 QAH262144:QAH262156 QAH327680:QAH327692 QAH393216:QAH393228 QAH458752:QAH458764 QAH524288:QAH524300 QAH589824:QAH589836 QAH655360:QAH655372 QAH720896:QAH720908 QAH786432:QAH786444 QAH851968:QAH851980 QAH917504:QAH917516 QAH983040:QAH983052 QKD65536:QKD65548 QKD131072:QKD131084 QKD196608:QKD196620 QKD262144:QKD262156 QKD327680:QKD327692 QKD393216:QKD393228 QKD458752:QKD458764 QKD524288:QKD524300 QKD589824:QKD589836 QKD655360:QKD655372 QKD720896:QKD720908 QKD786432:QKD786444 QKD851968:QKD851980 QKD917504:QKD917516 QKD983040:QKD983052 QTZ65536:QTZ65548 QTZ131072:QTZ131084 QTZ196608:QTZ196620 QTZ262144:QTZ262156 QTZ327680:QTZ327692 QTZ393216:QTZ393228 QTZ458752:QTZ458764 QTZ524288:QTZ524300 QTZ589824:QTZ589836 QTZ655360:QTZ655372 QTZ720896:QTZ720908 QTZ786432:QTZ786444 QTZ851968:QTZ851980 QTZ917504:QTZ917516 QTZ983040:QTZ983052 RDV65536:RDV65548 RDV131072:RDV131084 RDV196608:RDV196620 RDV262144:RDV262156 RDV327680:RDV327692 RDV393216:RDV393228 RDV458752:RDV458764 RDV524288:RDV524300 RDV589824:RDV589836 RDV655360:RDV655372 RDV720896:RDV720908 RDV786432:RDV786444 RDV851968:RDV851980 RDV917504:RDV917516 RDV983040:RDV983052 RNR65536:RNR65548 RNR131072:RNR131084 RNR196608:RNR196620 RNR262144:RNR262156 RNR327680:RNR327692 RNR393216:RNR393228 RNR458752:RNR458764 RNR524288:RNR524300 RNR589824:RNR589836 RNR655360:RNR655372 RNR720896:RNR720908 RNR786432:RNR786444 RNR851968:RNR851980 RNR917504:RNR917516 RNR983040:RNR983052 RXN65536:RXN65548 RXN131072:RXN131084 RXN196608:RXN196620 RXN262144:RXN262156 RXN327680:RXN327692 RXN393216:RXN393228 RXN458752:RXN458764 RXN524288:RXN524300 RXN589824:RXN589836 RXN655360:RXN655372 RXN720896:RXN720908 RXN786432:RXN786444 RXN851968:RXN851980 RXN917504:RXN917516 RXN983040:RXN983052 SHJ65536:SHJ65548 SHJ131072:SHJ131084 SHJ196608:SHJ196620 SHJ262144:SHJ262156 SHJ327680:SHJ327692 SHJ393216:SHJ393228 SHJ458752:SHJ458764 SHJ524288:SHJ524300 SHJ589824:SHJ589836 SHJ655360:SHJ655372 SHJ720896:SHJ720908 SHJ786432:SHJ786444 SHJ851968:SHJ851980 SHJ917504:SHJ917516 SHJ983040:SHJ983052 SRF65536:SRF65548 SRF131072:SRF131084 SRF196608:SRF196620 SRF262144:SRF262156 SRF327680:SRF327692 SRF393216:SRF393228 SRF458752:SRF458764 SRF524288:SRF524300 SRF589824:SRF589836 SRF655360:SRF655372 SRF720896:SRF720908 SRF786432:SRF786444 SRF851968:SRF851980 SRF917504:SRF917516 SRF983040:SRF983052 TBB65536:TBB65548 TBB131072:TBB131084 TBB196608:TBB196620 TBB262144:TBB262156 TBB327680:TBB327692 TBB393216:TBB393228 TBB458752:TBB458764 TBB524288:TBB524300 TBB589824:TBB589836 TBB655360:TBB655372 TBB720896:TBB720908 TBB786432:TBB786444 TBB851968:TBB851980 TBB917504:TBB917516 TBB983040:TBB983052 TKX65536:TKX65548 TKX131072:TKX131084 TKX196608:TKX196620 TKX262144:TKX262156 TKX327680:TKX327692 TKX393216:TKX393228 TKX458752:TKX458764 TKX524288:TKX524300 TKX589824:TKX589836 TKX655360:TKX655372 TKX720896:TKX720908 TKX786432:TKX786444 TKX851968:TKX851980 TKX917504:TKX917516 TKX983040:TKX983052 TUT65536:TUT65548 TUT131072:TUT131084 TUT196608:TUT196620 TUT262144:TUT262156 TUT327680:TUT327692 TUT393216:TUT393228 TUT458752:TUT458764 TUT524288:TUT524300 TUT589824:TUT589836 TUT655360:TUT655372 TUT720896:TUT720908 TUT786432:TUT786444 TUT851968:TUT851980 TUT917504:TUT917516 TUT983040:TUT983052 UEP65536:UEP65548 UEP131072:UEP131084 UEP196608:UEP196620 UEP262144:UEP262156 UEP327680:UEP327692 UEP393216:UEP393228 UEP458752:UEP458764 UEP524288:UEP524300 UEP589824:UEP589836 UEP655360:UEP655372 UEP720896:UEP720908 UEP786432:UEP786444 UEP851968:UEP851980 UEP917504:UEP917516 UEP983040:UEP983052 UOL65536:UOL65548 UOL131072:UOL131084 UOL196608:UOL196620 UOL262144:UOL262156 UOL327680:UOL327692 UOL393216:UOL393228 UOL458752:UOL458764 UOL524288:UOL524300 UOL589824:UOL589836 UOL655360:UOL655372 UOL720896:UOL720908 UOL786432:UOL786444 UOL851968:UOL851980 UOL917504:UOL917516 UOL983040:UOL983052 UYH65536:UYH65548 UYH131072:UYH131084 UYH196608:UYH196620 UYH262144:UYH262156 UYH327680:UYH327692 UYH393216:UYH393228 UYH458752:UYH458764 UYH524288:UYH524300 UYH589824:UYH589836 UYH655360:UYH655372 UYH720896:UYH720908 UYH786432:UYH786444 UYH851968:UYH851980 UYH917504:UYH917516 UYH983040:UYH983052 VID65536:VID65548 VID131072:VID131084 VID196608:VID196620 VID262144:VID262156 VID327680:VID327692 VID393216:VID393228 VID458752:VID458764 VID524288:VID524300 VID589824:VID589836 VID655360:VID655372 VID720896:VID720908 VID786432:VID786444 VID851968:VID851980 VID917504:VID917516 VID983040:VID983052 VRZ65536:VRZ65548 VRZ131072:VRZ131084 VRZ196608:VRZ196620 VRZ262144:VRZ262156 VRZ327680:VRZ327692 VRZ393216:VRZ393228 VRZ458752:VRZ458764 VRZ524288:VRZ524300 VRZ589824:VRZ589836 VRZ655360:VRZ655372 VRZ720896:VRZ720908 VRZ786432:VRZ786444 VRZ851968:VRZ851980 VRZ917504:VRZ917516 VRZ983040:VRZ983052 WBV65536:WBV65548 WBV131072:WBV131084 WBV196608:WBV196620 WBV262144:WBV262156 WBV327680:WBV327692 WBV393216:WBV393228 WBV458752:WBV458764 WBV524288:WBV524300 WBV589824:WBV589836 WBV655360:WBV655372 WBV720896:WBV720908 WBV786432:WBV786444 WBV851968:WBV851980 WBV917504:WBV917516 WBV983040:WBV983052 WLR65536:WLR65548 WLR131072:WLR131084 WLR196608:WLR196620 WLR262144:WLR262156 WLR327680:WLR327692 WLR393216:WLR393228 WLR458752:WLR458764 WLR524288:WLR524300 WLR589824:WLR589836 WLR655360:WLR655372 WLR720896:WLR720908 WLR786432:WLR786444 WLR851968:WLR851980 WLR917504:WLR917516 WLR983040:WLR983052 WVN983040:WVN983052 WVN65536:WVN65548 WVN131072:WVN131084 WVN196608:WVN196620 WVN262144:WVN262156 WVN327680:WVN327692 WVN393216:WVN393228 WVN458752:WVN458764 WVN524288:WVN524300 WVN589824:WVN589836 WVN655360:WVN655372 WVN720896:WVN720908 WVN786432:WVN786444 WVN851968:WVN851980 WVN917504:WVN917516 F4:F12 WVN4:WVN12 WLR4:WLR12 WBV4:WBV12 VRZ4:VRZ12 VID4:VID12 UYH4:UYH12 UOL4:UOL12 UEP4:UEP12 TUT4:TUT12 TKX4:TKX12 TBB4:TBB12 SRF4:SRF12 SHJ4:SHJ12 RXN4:RXN12 RNR4:RNR12 RDV4:RDV12 QTZ4:QTZ12 QKD4:QKD12 QAH4:QAH12 PQL4:PQL12 PGP4:PGP12 OWT4:OWT12 OMX4:OMX12 ODB4:ODB12 NTF4:NTF12 NJJ4:NJJ12 MZN4:MZN12 MPR4:MPR12 MFV4:MFV12 LVZ4:LVZ12 LMD4:LMD12 LCH4:LCH12 KSL4:KSL12 KIP4:KIP12 JYT4:JYT12 JOX4:JOX12 JFB4:JFB12 IVF4:IVF12 ILJ4:ILJ12 IBN4:IBN12 HRR4:HRR12 HHV4:HHV12 GXZ4:GXZ12 GOD4:GOD12 GEH4:GEH12 FUL4:FUL12 FKP4:FKP12 FAT4:FAT12 EQX4:EQX12 EHB4:EHB12 DXF4:DXF12 DNJ4:DNJ12 DDN4:DDN12 CTR4:CTR12 CJV4:CJV12 BZZ4:BZZ12 BQD4:BQD12 BGH4:BGH12 AWL4:AWL12 AMP4:AMP12 ACT4:ACT12 SX4:SX12 JB4:JB12">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 JE1:JE1048576 I1:I3 I8:I1048576">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Mogo_Doc\VersionRecords\Version 5.0.4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27345" windowHeight="13365" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27348" windowHeight="13368"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -1210,8 +1215,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1333,6 +1338,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2101,43 +2107,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="52.875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="52.88671875" style="18" customWidth="1"/>
     <col min="4" max="4" width="15" style="17" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="18" customWidth="1"/>
-    <col min="15" max="15" width="14.375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="5.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="18" customWidth="1"/>
     <col min="17" max="17" width="12" style="19" customWidth="1"/>
     <col min="18" max="18" width="17" style="19" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="19" customWidth="1"/>
-    <col min="20" max="20" width="34.375" style="18" customWidth="1"/>
-    <col min="21" max="21" width="8.875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" style="19" customWidth="1"/>
+    <col min="20" max="20" width="34.33203125" style="18" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" customWidth="1"/>
     <col min="22" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="13" customFormat="1" ht="27">
+    <row r="1" spans="1:21" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="2" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>1</v>
       </c>
@@ -2250,7 +2257,7 @@
       <c r="T2" s="53"/>
       <c r="U2" s="54"/>
     </row>
-    <row r="3" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="3" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>2</v>
       </c>
@@ -2303,7 +2310,7 @@
       <c r="T3" s="53"/>
       <c r="U3" s="54"/>
     </row>
-    <row r="4" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="4" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>3</v>
       </c>
@@ -2356,7 +2363,7 @@
       <c r="T4" s="59"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <v>4</v>
       </c>
@@ -2409,7 +2416,7 @@
       <c r="T5" s="59"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="6" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>5</v>
       </c>
@@ -2462,7 +2469,7 @@
       <c r="T6" s="59"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="7" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>6</v>
       </c>
@@ -2515,7 +2522,7 @@
       <c r="T7" s="59"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="8" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>7</v>
       </c>
@@ -2568,7 +2575,7 @@
       <c r="T8" s="59"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="9" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>8</v>
       </c>
@@ -2621,7 +2628,7 @@
       <c r="T9" s="59"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="10" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -2674,7 +2681,7 @@
       <c r="T10" s="59"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="11" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -2727,7 +2734,7 @@
       <c r="T11" s="59"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -2780,7 +2787,7 @@
       <c r="T12" s="59"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="13" spans="1:21" s="60" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -2833,7 +2840,7 @@
       <c r="T13" s="59"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1">
+    <row r="14" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -2886,7 +2893,7 @@
       <c r="T14" s="51"/>
       <c r="U14" s="61"/>
     </row>
-    <row r="15" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="15" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -2939,7 +2946,7 @@
       <c r="T15" s="53"/>
       <c r="U15" s="54"/>
     </row>
-    <row r="16" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="16" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -2992,7 +2999,7 @@
       <c r="T16" s="53"/>
       <c r="U16" s="54"/>
     </row>
-    <row r="17" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="17" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -3045,7 +3052,7 @@
       <c r="T17" s="53"/>
       <c r="U17" s="54"/>
     </row>
-    <row r="18" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="18" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>17</v>
       </c>
@@ -3100,7 +3107,7 @@
       </c>
       <c r="U18" s="54"/>
     </row>
-    <row r="19" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="19" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>18</v>
       </c>
@@ -3155,7 +3162,7 @@
       </c>
       <c r="U19" s="54"/>
     </row>
-    <row r="20" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1">
+    <row r="20" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>19</v>
       </c>
@@ -3208,7 +3215,7 @@
       <c r="T20" s="51"/>
       <c r="U20" s="61"/>
     </row>
-    <row r="21" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="21" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>20</v>
       </c>
@@ -3261,7 +3268,7 @@
       <c r="T21" s="53"/>
       <c r="U21" s="54"/>
     </row>
-    <row r="22" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="22" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>21</v>
       </c>
@@ -3314,7 +3321,7 @@
       <c r="T22" s="53"/>
       <c r="U22" s="54"/>
     </row>
-    <row r="23" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="23" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>22</v>
       </c>
@@ -3367,7 +3374,7 @@
       <c r="T23" s="53"/>
       <c r="U23" s="54"/>
     </row>
-    <row r="24" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="24" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>23</v>
       </c>
@@ -3420,7 +3427,7 @@
       <c r="T24" s="53"/>
       <c r="U24" s="54"/>
     </row>
-    <row r="25" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
+    <row r="25" spans="1:21" s="16" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>24</v>
       </c>
@@ -3473,7 +3480,7 @@
       <c r="T25" s="43"/>
       <c r="U25" s="44"/>
     </row>
-    <row r="26" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
+    <row r="26" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>25</v>
       </c>
@@ -3526,7 +3533,7 @@
       <c r="T26" s="43"/>
       <c r="U26" s="44"/>
     </row>
-    <row r="27" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1">
+    <row r="27" spans="1:21" s="62" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
         <v>26</v>
       </c>
@@ -3578,7 +3585,7 @@
       <c r="S27" s="51"/>
       <c r="T27" s="61"/>
     </row>
-    <row r="28" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="28" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>27</v>
       </c>
@@ -3630,7 +3637,7 @@
       <c r="S28" s="53"/>
       <c r="T28" s="54"/>
     </row>
-    <row r="29" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="29" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47">
         <v>28</v>
       </c>
@@ -3682,7 +3689,7 @@
       <c r="S29" s="53"/>
       <c r="T29" s="54"/>
     </row>
-    <row r="30" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="30" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>29</v>
       </c>
@@ -3734,7 +3741,7 @@
       <c r="S30" s="53"/>
       <c r="T30" s="54"/>
     </row>
-    <row r="31" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
+    <row r="31" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47">
         <v>30</v>
       </c>
@@ -3786,7 +3793,7 @@
       <c r="S31" s="43"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
+    <row r="32" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>31</v>
       </c>
@@ -3838,7 +3845,7 @@
       <c r="S32" s="43"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
+    <row r="33" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
         <v>32</v>
       </c>
@@ -3890,7 +3897,7 @@
       <c r="S33" s="43"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
+    <row r="34" spans="1:21" s="16" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>33</v>
       </c>
@@ -3942,7 +3949,7 @@
       <c r="S34" s="43"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:21" s="16" customFormat="1" ht="17.25" customHeight="1">
+    <row r="35" spans="1:21" s="16" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
         <v>34</v>
       </c>
@@ -3994,7 +4001,7 @@
       <c r="S35" s="43"/>
       <c r="T35" s="44"/>
     </row>
-    <row r="36" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="36" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
         <v>35</v>
       </c>
@@ -4047,7 +4054,7 @@
       <c r="T36" s="53"/>
       <c r="U36" s="54"/>
     </row>
-    <row r="37" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="37" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>36</v>
       </c>
@@ -4100,7 +4107,7 @@
       <c r="T37" s="65"/>
       <c r="U37" s="54"/>
     </row>
-    <row r="38" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="38" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>37</v>
       </c>
@@ -4153,7 +4160,7 @@
       <c r="T38" s="65"/>
       <c r="U38" s="54"/>
     </row>
-    <row r="39" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="39" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
         <v>38</v>
       </c>
@@ -4206,7 +4213,7 @@
       <c r="T39" s="53"/>
       <c r="U39" s="54"/>
     </row>
-    <row r="40" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="40" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>39</v>
       </c>
@@ -4259,7 +4266,7 @@
       <c r="T40" s="53"/>
       <c r="U40" s="54"/>
     </row>
-    <row r="41" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="41" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
         <v>40</v>
       </c>
@@ -4312,7 +4319,7 @@
       <c r="T41" s="53"/>
       <c r="U41" s="54"/>
     </row>
-    <row r="42" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="42" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
         <v>41</v>
       </c>
@@ -4365,7 +4372,7 @@
       <c r="T42" s="53"/>
       <c r="U42" s="54"/>
     </row>
-    <row r="43" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="43" spans="1:21" s="55" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
         <v>42</v>
       </c>
@@ -4418,7 +4425,7 @@
       <c r="T43" s="53"/>
       <c r="U43" s="54"/>
     </row>
-    <row r="44" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="44" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>43</v>
       </c>
@@ -4471,7 +4478,7 @@
       <c r="T44" s="53"/>
       <c r="U44" s="54"/>
     </row>
-    <row r="45" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="45" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
         <v>44</v>
       </c>
@@ -4524,7 +4531,7 @@
       <c r="T45" s="53"/>
       <c r="U45" s="54"/>
     </row>
-    <row r="46" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="46" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
         <v>45</v>
       </c>
@@ -4577,7 +4584,7 @@
       <c r="T46" s="53"/>
       <c r="U46" s="54"/>
     </row>
-    <row r="47" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="47" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47">
         <v>46</v>
       </c>
@@ -4622,7 +4629,7 @@
       <c r="T47" s="53"/>
       <c r="U47" s="54"/>
     </row>
-    <row r="48" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="48" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47">
         <v>47</v>
       </c>
@@ -4675,7 +4682,7 @@
       <c r="T48" s="53"/>
       <c r="U48" s="54"/>
     </row>
-    <row r="49" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="49" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
         <v>48</v>
       </c>
@@ -4728,7 +4735,7 @@
       <c r="T49" s="53"/>
       <c r="U49" s="54"/>
     </row>
-    <row r="50" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="50" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
         <v>49</v>
       </c>
@@ -4781,7 +4788,7 @@
       <c r="T50" s="53"/>
       <c r="U50" s="54"/>
     </row>
-    <row r="51" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="51" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47">
         <v>50</v>
       </c>
@@ -4834,7 +4841,7 @@
       <c r="T51" s="53"/>
       <c r="U51" s="54"/>
     </row>
-    <row r="52" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="52" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47">
         <v>51</v>
       </c>
@@ -4887,7 +4894,7 @@
       <c r="T52" s="53"/>
       <c r="U52" s="54"/>
     </row>
-    <row r="53" spans="1:21" s="55" customFormat="1" ht="16.5">
+    <row r="53" spans="1:21" s="55" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47">
         <v>52</v>
       </c>
@@ -4942,7 +4949,7 @@
       <c r="T53" s="53"/>
       <c r="U53" s="54"/>
     </row>
-    <row r="54" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="54" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47">
         <v>53</v>
       </c>
@@ -4993,7 +5000,7 @@
       <c r="T54" s="53"/>
       <c r="U54" s="54"/>
     </row>
-    <row r="55" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="55" spans="1:21" s="55" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47">
         <v>54</v>
       </c>
@@ -5046,7 +5053,7 @@
       </c>
       <c r="U55" s="54"/>
     </row>
-    <row r="56" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="56" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47">
         <v>55</v>
       </c>
@@ -5097,7 +5104,7 @@
       <c r="T56" s="53"/>
       <c r="U56" s="54"/>
     </row>
-    <row r="57" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="57" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47">
         <v>56</v>
       </c>
@@ -5148,7 +5155,7 @@
       <c r="T57" s="53"/>
       <c r="U57" s="54"/>
     </row>
-    <row r="58" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="58" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47">
         <v>57</v>
       </c>
@@ -5199,7 +5206,7 @@
       <c r="T58" s="53"/>
       <c r="U58" s="54"/>
     </row>
-    <row r="59" spans="1:21" s="55" customFormat="1" ht="16.5">
+    <row r="59" spans="1:21" s="55" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47">
         <v>58</v>
       </c>
@@ -5250,7 +5257,7 @@
       <c r="T59" s="53"/>
       <c r="U59" s="54"/>
     </row>
-    <row r="60" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="60" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="46"/>
       <c r="C60" s="29"/>
@@ -5273,7 +5280,7 @@
       <c r="T60" s="38"/>
       <c r="U60" s="39"/>
     </row>
-    <row r="61" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="61" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="28"/>
@@ -5296,7 +5303,7 @@
       <c r="T61" s="38"/>
       <c r="U61" s="39"/>
     </row>
-    <row r="62" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="62" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
       <c r="B62" s="46"/>
       <c r="C62" s="30"/>
@@ -5319,7 +5326,7 @@
       <c r="T62" s="38"/>
       <c r="U62" s="39"/>
     </row>
-    <row r="63" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="63" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="46"/>
       <c r="C63" s="29"/>
@@ -5342,7 +5349,7 @@
       <c r="T63" s="38"/>
       <c r="U63" s="39"/>
     </row>
-    <row r="64" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="64" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="28"/>
@@ -5365,7 +5372,7 @@
       <c r="T64" s="38"/>
       <c r="U64" s="39"/>
     </row>
-    <row r="65" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="65" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="28"/>
@@ -5388,7 +5395,7 @@
       <c r="T65" s="38"/>
       <c r="U65" s="39"/>
     </row>
-    <row r="66" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="66" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="28"/>
@@ -5411,7 +5418,7 @@
       <c r="T66" s="38"/>
       <c r="U66" s="39"/>
     </row>
-    <row r="67" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="67" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="28"/>
@@ -5434,7 +5441,7 @@
       <c r="T67" s="38"/>
       <c r="U67" s="39"/>
     </row>
-    <row r="68" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="68" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="28"/>
@@ -5457,7 +5464,7 @@
       <c r="T68" s="38"/>
       <c r="U68" s="39"/>
     </row>
-    <row r="69" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="69" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="28"/>
@@ -5480,7 +5487,7 @@
       <c r="T69" s="38"/>
       <c r="U69" s="39"/>
     </row>
-    <row r="70" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="70" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="28"/>
@@ -5503,7 +5510,7 @@
       <c r="T70" s="38"/>
       <c r="U70" s="39"/>
     </row>
-    <row r="71" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="71" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="28"/>
@@ -5526,7 +5533,7 @@
       <c r="T71" s="38"/>
       <c r="U71" s="39"/>
     </row>
-    <row r="72" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="72" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="28"/>
@@ -5549,7 +5556,7 @@
       <c r="T72" s="38"/>
       <c r="U72" s="39"/>
     </row>
-    <row r="73" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="73" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="28"/>
@@ -5572,7 +5579,7 @@
       <c r="T73" s="38"/>
       <c r="U73" s="39"/>
     </row>
-    <row r="74" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="74" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="28"/>
@@ -5595,7 +5602,7 @@
       <c r="T74" s="38"/>
       <c r="U74" s="39"/>
     </row>
-    <row r="75" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="75" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="28"/>
@@ -5618,7 +5625,7 @@
       <c r="T75" s="38"/>
       <c r="U75" s="39"/>
     </row>
-    <row r="76" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="76" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="28"/>
@@ -5641,7 +5648,7 @@
       <c r="T76" s="38"/>
       <c r="U76" s="39"/>
     </row>
-    <row r="77" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="77" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="28"/>
@@ -5664,7 +5671,7 @@
       <c r="T77" s="38"/>
       <c r="U77" s="39"/>
     </row>
-    <row r="78" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="78" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="28"/>
@@ -5687,7 +5694,7 @@
       <c r="T78" s="38"/>
       <c r="U78" s="39"/>
     </row>
-    <row r="79" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="79" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="28"/>
@@ -5710,7 +5717,7 @@
       <c r="T79" s="38"/>
       <c r="U79" s="39"/>
     </row>
-    <row r="80" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="80" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="28"/>
@@ -5733,7 +5740,7 @@
       <c r="T80" s="38"/>
       <c r="U80" s="39"/>
     </row>
-    <row r="81" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="81" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="28"/>
@@ -5756,7 +5763,7 @@
       <c r="T81" s="38"/>
       <c r="U81" s="39"/>
     </row>
-    <row r="82" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="82" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="28"/>
@@ -5779,7 +5786,7 @@
       <c r="T82" s="38"/>
       <c r="U82" s="39"/>
     </row>
-    <row r="83" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="83" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="28"/>
@@ -5802,7 +5809,7 @@
       <c r="T83" s="38"/>
       <c r="U83" s="39"/>
     </row>
-    <row r="84" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="84" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="28"/>
@@ -5825,7 +5832,7 @@
       <c r="T84" s="38"/>
       <c r="U84" s="39"/>
     </row>
-    <row r="85" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="85" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="28"/>
@@ -5848,7 +5855,7 @@
       <c r="T85" s="38"/>
       <c r="U85" s="39"/>
     </row>
-    <row r="86" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="86" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="28"/>
@@ -5871,7 +5878,7 @@
       <c r="T86" s="38"/>
       <c r="U86" s="39"/>
     </row>
-    <row r="87" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="87" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="28"/>
@@ -5894,7 +5901,7 @@
       <c r="T87" s="38"/>
       <c r="U87" s="39"/>
     </row>
-    <row r="88" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="88" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="28"/>
@@ -5917,7 +5924,7 @@
       <c r="T88" s="38"/>
       <c r="U88" s="39"/>
     </row>
-    <row r="89" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="89" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="28"/>
@@ -5940,7 +5947,7 @@
       <c r="T89" s="38"/>
       <c r="U89" s="39"/>
     </row>
-    <row r="90" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="90" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="28"/>
@@ -5963,7 +5970,7 @@
       <c r="T90" s="38"/>
       <c r="U90" s="39"/>
     </row>
-    <row r="91" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="91" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="28"/>
@@ -5986,7 +5993,7 @@
       <c r="T91" s="38"/>
       <c r="U91" s="39"/>
     </row>
-    <row r="92" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="92" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="28"/>
@@ -6009,7 +6016,7 @@
       <c r="T92" s="38"/>
       <c r="U92" s="39"/>
     </row>
-    <row r="93" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="93" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="28"/>
@@ -6032,7 +6039,7 @@
       <c r="T93" s="38"/>
       <c r="U93" s="39"/>
     </row>
-    <row r="94" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="94" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="28"/>
@@ -6055,7 +6062,7 @@
       <c r="T94" s="38"/>
       <c r="U94" s="39"/>
     </row>
-    <row r="95" spans="1:21" s="14" customFormat="1" ht="16.5">
+    <row r="95" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="24"/>
@@ -6078,7 +6085,7 @@
       <c r="T95" s="38"/>
       <c r="U95" s="39"/>
     </row>
-    <row r="96" spans="1:21" s="15" customFormat="1" ht="27" customHeight="1">
+    <row r="96" spans="1:21" s="15" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="46"/>
       <c r="C96" s="27"/>
@@ -6101,7 +6108,7 @@
       <c r="T96" s="41"/>
       <c r="U96" s="42"/>
     </row>
-    <row r="97" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
+    <row r="97" spans="1:21" s="14" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="24"/>
@@ -6124,7 +6131,7 @@
       <c r="T97" s="41"/>
       <c r="U97" s="39"/>
     </row>
-    <row r="98" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
+    <row r="98" spans="1:21" s="14" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="24"/>
@@ -6147,7 +6154,7 @@
       <c r="T98" s="38"/>
       <c r="U98" s="39"/>
     </row>
-    <row r="99" spans="1:21" s="14" customFormat="1" ht="27" customHeight="1">
+    <row r="99" spans="1:21" s="14" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="24"/>
@@ -6170,7 +6177,7 @@
       <c r="T99" s="38"/>
       <c r="U99" s="39"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
       <c r="C100" s="40"/>
@@ -6192,7 +6199,7 @@
       <c r="S100" s="34"/>
       <c r="T100" s="40"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="40"/>
@@ -6214,7 +6221,7 @@
       <c r="S101" s="34"/>
       <c r="T101" s="40"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="40"/>
@@ -6236,7 +6243,7 @@
       <c r="S102" s="34"/>
       <c r="T102" s="40"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="40"/>
@@ -6258,7 +6265,7 @@
       <c r="S103" s="34"/>
       <c r="T103" s="40"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="40"/>
@@ -6280,7 +6287,7 @@
       <c r="S104" s="34"/>
       <c r="T104" s="40"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="40"/>
@@ -6302,7 +6309,7 @@
       <c r="S105" s="34"/>
       <c r="T105" s="40"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="40"/>
@@ -6324,7 +6331,7 @@
       <c r="S106" s="34"/>
       <c r="T106" s="40"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="40"/>
@@ -6346,7 +6353,7 @@
       <c r="S107" s="34"/>
       <c r="T107" s="40"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="34"/>
       <c r="B108" s="34"/>
       <c r="C108" s="40"/>
@@ -6368,7 +6375,7 @@
       <c r="S108" s="34"/>
       <c r="T108" s="40"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="40"/>
@@ -6390,7 +6397,7 @@
       <c r="S109" s="34"/>
       <c r="T109" s="40"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="34"/>
       <c r="B110" s="34"/>
       <c r="C110" s="40"/>
@@ -6412,7 +6419,7 @@
       <c r="S110" s="34"/>
       <c r="T110" s="40"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="40"/>
@@ -6434,7 +6441,7 @@
       <c r="S111" s="34"/>
       <c r="T111" s="40"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="34"/>
       <c r="B112" s="34"/>
       <c r="C112" s="40"/>
@@ -6456,7 +6463,7 @@
       <c r="S112" s="34"/>
       <c r="T112" s="40"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
       <c r="C113" s="40"/>
@@ -6478,7 +6485,7 @@
       <c r="S113" s="34"/>
       <c r="T113" s="40"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="34"/>
       <c r="B114" s="34"/>
       <c r="C114" s="40"/>
@@ -6500,7 +6507,7 @@
       <c r="S114" s="34"/>
       <c r="T114" s="40"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="40"/>
@@ -6522,7 +6529,7 @@
       <c r="S115" s="34"/>
       <c r="T115" s="40"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="40"/>
@@ -6544,7 +6551,7 @@
       <c r="S116" s="34"/>
       <c r="T116" s="40"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
       <c r="C117" s="40"/>
@@ -6566,7 +6573,7 @@
       <c r="S117" s="34"/>
       <c r="T117" s="40"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="34"/>
       <c r="B118" s="34"/>
       <c r="C118" s="40"/>
@@ -6588,7 +6595,7 @@
       <c r="S118" s="34"/>
       <c r="T118" s="40"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="34"/>
       <c r="B119" s="34"/>
       <c r="C119" s="40"/>
@@ -6610,7 +6617,7 @@
       <c r="S119" s="34"/>
       <c r="T119" s="40"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
       <c r="B120" s="34"/>
       <c r="C120" s="40"/>
@@ -6632,7 +6639,7 @@
       <c r="S120" s="34"/>
       <c r="T120" s="40"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34"/>
       <c r="B121" s="34"/>
       <c r="C121" s="40"/>
@@ -6651,7 +6658,7 @@
       <c r="P121" s="40"/>
       <c r="T121" s="40"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="34"/>
       <c r="B122" s="34"/>
       <c r="C122" s="40"/>
@@ -6670,7 +6677,7 @@
       <c r="P122" s="40"/>
       <c r="T122" s="40"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="34"/>
       <c r="B123" s="34"/>
       <c r="C123" s="40"/>
@@ -6689,7 +6696,7 @@
       <c r="P123" s="40"/>
       <c r="T123" s="40"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="34"/>
       <c r="B124" s="34"/>
       <c r="C124" s="40"/>
@@ -6708,7 +6715,7 @@
       <c r="P124" s="40"/>
       <c r="T124" s="40"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34"/>
       <c r="B125" s="34"/>
       <c r="C125" s="40"/>
@@ -6727,7 +6734,7 @@
       <c r="P125" s="40"/>
       <c r="T125" s="40"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
       <c r="B126" s="34"/>
       <c r="C126" s="40"/>
@@ -6746,7 +6753,7 @@
       <c r="P126" s="40"/>
       <c r="T126" s="40"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34"/>
       <c r="B127" s="34"/>
       <c r="C127" s="40"/>
@@ -6765,7 +6772,7 @@
       <c r="P127" s="40"/>
       <c r="T127" s="40"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="34"/>
       <c r="B128" s="34"/>
       <c r="C128" s="40"/>
@@ -6784,7 +6791,7 @@
       <c r="P128" s="40"/>
       <c r="T128" s="40"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="40"/>
@@ -6803,7 +6810,7 @@
       <c r="P129" s="40"/>
       <c r="T129" s="40"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34"/>
       <c r="B130" s="34"/>
       <c r="C130" s="40"/>
@@ -6822,7 +6829,7 @@
       <c r="P130" s="40"/>
       <c r="T130" s="40"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34"/>
       <c r="B131" s="34"/>
       <c r="C131" s="40"/>
@@ -6841,7 +6848,7 @@
       <c r="P131" s="40"/>
       <c r="T131" s="40"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
       <c r="C132" s="40"/>
@@ -6860,7 +6867,7 @@
       <c r="P132" s="40"/>
       <c r="T132" s="40"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="34"/>
       <c r="B133" s="34"/>
       <c r="C133" s="40"/>
@@ -6879,7 +6886,7 @@
       <c r="P133" s="40"/>
       <c r="T133" s="40"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34"/>
       <c r="B134" s="34"/>
       <c r="C134" s="40"/>
@@ -6898,7 +6905,7 @@
       <c r="P134" s="40"/>
       <c r="T134" s="40"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="34"/>
       <c r="B135" s="34"/>
       <c r="C135" s="40"/>
@@ -6917,7 +6924,7 @@
       <c r="P135" s="40"/>
       <c r="T135" s="40"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="34"/>
       <c r="B136" s="34"/>
       <c r="C136" s="40"/>
@@ -6936,7 +6943,7 @@
       <c r="P136" s="40"/>
       <c r="T136" s="40"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34"/>
       <c r="B137" s="34"/>
       <c r="C137" s="40"/>
@@ -6955,7 +6962,7 @@
       <c r="P137" s="40"/>
       <c r="T137" s="40"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="34"/>
       <c r="B138" s="34"/>
       <c r="C138" s="40"/>
@@ -6974,7 +6981,7 @@
       <c r="P138" s="40"/>
       <c r="T138" s="40"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="34"/>
       <c r="B139" s="34"/>
       <c r="C139" s="40"/>
@@ -6993,7 +7000,7 @@
       <c r="P139" s="40"/>
       <c r="T139" s="40"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="34"/>
       <c r="B140" s="34"/>
       <c r="C140" s="40"/>
@@ -7012,7 +7019,7 @@
       <c r="P140" s="40"/>
       <c r="T140" s="40"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="34"/>
       <c r="B141" s="34"/>
       <c r="C141" s="40"/>
@@ -7031,7 +7038,7 @@
       <c r="P141" s="40"/>
       <c r="T141" s="40"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="34"/>
       <c r="B142" s="34"/>
       <c r="C142" s="40"/>
@@ -7050,7 +7057,7 @@
       <c r="P142" s="40"/>
       <c r="T142" s="40"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="34"/>
       <c r="B143" s="34"/>
       <c r="C143" s="40"/>
@@ -7069,7 +7076,7 @@
       <c r="P143" s="40"/>
       <c r="T143" s="40"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="34"/>
       <c r="B144" s="34"/>
       <c r="C144" s="40"/>
@@ -7088,7 +7095,7 @@
       <c r="P144" s="40"/>
       <c r="T144" s="40"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="40"/>
@@ -7107,7 +7114,7 @@
       <c r="P145" s="40"/>
       <c r="T145" s="40"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
       <c r="B146" s="34"/>
       <c r="C146" s="40"/>
@@ -7126,7 +7133,7 @@
       <c r="P146" s="40"/>
       <c r="T146" s="40"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="34"/>
       <c r="B147" s="34"/>
       <c r="C147" s="40"/>
@@ -7145,7 +7152,7 @@
       <c r="P147" s="40"/>
       <c r="T147" s="40"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="34"/>
       <c r="B148" s="34"/>
       <c r="C148" s="40"/>
@@ -7164,7 +7171,7 @@
       <c r="P148" s="40"/>
       <c r="T148" s="40"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="34"/>
       <c r="B149" s="34"/>
       <c r="C149" s="40"/>
@@ -7183,7 +7190,7 @@
       <c r="P149" s="40"/>
       <c r="T149" s="40"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="34"/>
       <c r="B150" s="34"/>
       <c r="C150" s="40"/>
@@ -7202,7 +7209,7 @@
       <c r="P150" s="40"/>
       <c r="T150" s="40"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="34"/>
       <c r="B151" s="34"/>
       <c r="C151" s="40"/>
@@ -7221,7 +7228,7 @@
       <c r="P151" s="40"/>
       <c r="T151" s="40"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="34"/>
       <c r="B152" s="34"/>
       <c r="C152" s="40"/>
@@ -7240,7 +7247,7 @@
       <c r="P152" s="40"/>
       <c r="T152" s="40"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="34"/>
       <c r="B153" s="34"/>
       <c r="C153" s="40"/>
@@ -7259,7 +7266,7 @@
       <c r="P153" s="40"/>
       <c r="T153" s="40"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="34"/>
       <c r="B154" s="34"/>
       <c r="C154" s="40"/>
@@ -7278,7 +7285,7 @@
       <c r="P154" s="40"/>
       <c r="T154" s="40"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="40"/>
@@ -7299,7 +7306,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U155">
-    <filterColumn colId="1"/>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="New Features"/>
+        <filter val="新特性"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
@@ -7316,850 +7328,850 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="35" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.75" style="60" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" style="60" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="257" max="257" width="3.88671875" customWidth="1"/>
+    <col min="258" max="258" width="10.109375" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="260" max="260" width="12.21875" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.25" customWidth="1"/>
-    <col min="264" max="264" width="25.75" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.109375" customWidth="1"/>
+    <col min="263" max="263" width="82.21875" customWidth="1"/>
+    <col min="264" max="264" width="25.77734375" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.88671875" customWidth="1"/>
+    <col min="267" max="267" width="10.109375" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.75" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.77734375" customWidth="1"/>
+    <col min="513" max="513" width="3.88671875" customWidth="1"/>
+    <col min="514" max="514" width="10.109375" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="516" max="516" width="12.21875" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.25" customWidth="1"/>
-    <col min="520" max="520" width="25.75" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.109375" customWidth="1"/>
+    <col min="519" max="519" width="82.21875" customWidth="1"/>
+    <col min="520" max="520" width="25.77734375" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.88671875" customWidth="1"/>
+    <col min="523" max="523" width="10.109375" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.75" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.77734375" customWidth="1"/>
+    <col min="769" max="769" width="3.88671875" customWidth="1"/>
+    <col min="770" max="770" width="10.109375" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="772" max="772" width="12.21875" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.25" customWidth="1"/>
-    <col min="776" max="776" width="25.75" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.109375" customWidth="1"/>
+    <col min="775" max="775" width="82.21875" customWidth="1"/>
+    <col min="776" max="776" width="25.77734375" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.88671875" customWidth="1"/>
+    <col min="779" max="779" width="10.109375" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.75" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.77734375" customWidth="1"/>
+    <col min="1025" max="1025" width="3.88671875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.109375" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1028" max="1028" width="12.21875" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.25" customWidth="1"/>
-    <col min="1032" max="1032" width="25.75" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.109375" customWidth="1"/>
+    <col min="1031" max="1031" width="82.21875" customWidth="1"/>
+    <col min="1032" max="1032" width="25.77734375" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.88671875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.109375" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.75" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.77734375" customWidth="1"/>
+    <col min="1281" max="1281" width="3.88671875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.109375" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1284" max="1284" width="12.21875" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.25" customWidth="1"/>
-    <col min="1288" max="1288" width="25.75" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.109375" customWidth="1"/>
+    <col min="1287" max="1287" width="82.21875" customWidth="1"/>
+    <col min="1288" max="1288" width="25.77734375" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.88671875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.109375" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.75" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.77734375" customWidth="1"/>
+    <col min="1537" max="1537" width="3.88671875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.109375" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1540" max="1540" width="12.21875" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.25" customWidth="1"/>
-    <col min="1544" max="1544" width="25.75" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.109375" customWidth="1"/>
+    <col min="1543" max="1543" width="82.21875" customWidth="1"/>
+    <col min="1544" max="1544" width="25.77734375" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.88671875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.109375" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.75" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.77734375" customWidth="1"/>
+    <col min="1793" max="1793" width="3.88671875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.109375" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1796" max="1796" width="12.21875" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.25" customWidth="1"/>
-    <col min="1800" max="1800" width="25.75" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.109375" customWidth="1"/>
+    <col min="1799" max="1799" width="82.21875" customWidth="1"/>
+    <col min="1800" max="1800" width="25.77734375" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.88671875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.109375" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.75" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.77734375" customWidth="1"/>
+    <col min="2049" max="2049" width="3.88671875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.109375" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2052" max="2052" width="12.21875" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.25" customWidth="1"/>
-    <col min="2056" max="2056" width="25.75" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.109375" customWidth="1"/>
+    <col min="2055" max="2055" width="82.21875" customWidth="1"/>
+    <col min="2056" max="2056" width="25.77734375" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.88671875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.109375" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.75" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.77734375" customWidth="1"/>
+    <col min="2305" max="2305" width="3.88671875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.109375" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2308" max="2308" width="12.21875" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.25" customWidth="1"/>
-    <col min="2312" max="2312" width="25.75" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.109375" customWidth="1"/>
+    <col min="2311" max="2311" width="82.21875" customWidth="1"/>
+    <col min="2312" max="2312" width="25.77734375" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.88671875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.109375" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.75" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.77734375" customWidth="1"/>
+    <col min="2561" max="2561" width="3.88671875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.109375" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2564" max="2564" width="12.21875" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.25" customWidth="1"/>
-    <col min="2568" max="2568" width="25.75" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.109375" customWidth="1"/>
+    <col min="2567" max="2567" width="82.21875" customWidth="1"/>
+    <col min="2568" max="2568" width="25.77734375" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.88671875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.109375" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.75" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.77734375" customWidth="1"/>
+    <col min="2817" max="2817" width="3.88671875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.109375" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2820" max="2820" width="12.21875" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.25" customWidth="1"/>
-    <col min="2824" max="2824" width="25.75" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.109375" customWidth="1"/>
+    <col min="2823" max="2823" width="82.21875" customWidth="1"/>
+    <col min="2824" max="2824" width="25.77734375" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.88671875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.109375" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.75" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.77734375" customWidth="1"/>
+    <col min="3073" max="3073" width="3.88671875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.109375" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3076" max="3076" width="12.21875" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.25" customWidth="1"/>
-    <col min="3080" max="3080" width="25.75" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.109375" customWidth="1"/>
+    <col min="3079" max="3079" width="82.21875" customWidth="1"/>
+    <col min="3080" max="3080" width="25.77734375" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.88671875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.109375" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.75" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.77734375" customWidth="1"/>
+    <col min="3329" max="3329" width="3.88671875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.109375" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3332" max="3332" width="12.21875" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.25" customWidth="1"/>
-    <col min="3336" max="3336" width="25.75" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.109375" customWidth="1"/>
+    <col min="3335" max="3335" width="82.21875" customWidth="1"/>
+    <col min="3336" max="3336" width="25.77734375" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.88671875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.109375" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.75" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.77734375" customWidth="1"/>
+    <col min="3585" max="3585" width="3.88671875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.109375" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3588" max="3588" width="12.21875" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.25" customWidth="1"/>
-    <col min="3592" max="3592" width="25.75" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.109375" customWidth="1"/>
+    <col min="3591" max="3591" width="82.21875" customWidth="1"/>
+    <col min="3592" max="3592" width="25.77734375" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.88671875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.109375" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.75" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.77734375" customWidth="1"/>
+    <col min="3841" max="3841" width="3.88671875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.109375" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3844" max="3844" width="12.21875" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.25" customWidth="1"/>
-    <col min="3848" max="3848" width="25.75" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.109375" customWidth="1"/>
+    <col min="3847" max="3847" width="82.21875" customWidth="1"/>
+    <col min="3848" max="3848" width="25.77734375" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.88671875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.109375" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.75" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.77734375" customWidth="1"/>
+    <col min="4097" max="4097" width="3.88671875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.109375" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4100" max="4100" width="12.21875" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.25" customWidth="1"/>
-    <col min="4104" max="4104" width="25.75" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.109375" customWidth="1"/>
+    <col min="4103" max="4103" width="82.21875" customWidth="1"/>
+    <col min="4104" max="4104" width="25.77734375" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.88671875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.109375" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.75" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.77734375" customWidth="1"/>
+    <col min="4353" max="4353" width="3.88671875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.109375" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4356" max="4356" width="12.21875" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.25" customWidth="1"/>
-    <col min="4360" max="4360" width="25.75" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.109375" customWidth="1"/>
+    <col min="4359" max="4359" width="82.21875" customWidth="1"/>
+    <col min="4360" max="4360" width="25.77734375" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.88671875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.109375" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.75" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.77734375" customWidth="1"/>
+    <col min="4609" max="4609" width="3.88671875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.109375" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4612" max="4612" width="12.21875" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.25" customWidth="1"/>
-    <col min="4616" max="4616" width="25.75" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.109375" customWidth="1"/>
+    <col min="4615" max="4615" width="82.21875" customWidth="1"/>
+    <col min="4616" max="4616" width="25.77734375" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.88671875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.109375" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.75" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.77734375" customWidth="1"/>
+    <col min="4865" max="4865" width="3.88671875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.109375" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4868" max="4868" width="12.21875" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.25" customWidth="1"/>
-    <col min="4872" max="4872" width="25.75" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.109375" customWidth="1"/>
+    <col min="4871" max="4871" width="82.21875" customWidth="1"/>
+    <col min="4872" max="4872" width="25.77734375" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.88671875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.109375" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.75" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.77734375" customWidth="1"/>
+    <col min="5121" max="5121" width="3.88671875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.109375" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5124" max="5124" width="12.21875" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.25" customWidth="1"/>
-    <col min="5128" max="5128" width="25.75" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.109375" customWidth="1"/>
+    <col min="5127" max="5127" width="82.21875" customWidth="1"/>
+    <col min="5128" max="5128" width="25.77734375" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.88671875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.109375" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.75" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.77734375" customWidth="1"/>
+    <col min="5377" max="5377" width="3.88671875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.109375" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5380" max="5380" width="12.21875" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.25" customWidth="1"/>
-    <col min="5384" max="5384" width="25.75" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.109375" customWidth="1"/>
+    <col min="5383" max="5383" width="82.21875" customWidth="1"/>
+    <col min="5384" max="5384" width="25.77734375" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.88671875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.109375" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.75" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.77734375" customWidth="1"/>
+    <col min="5633" max="5633" width="3.88671875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.109375" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5636" max="5636" width="12.21875" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.25" customWidth="1"/>
-    <col min="5640" max="5640" width="25.75" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.109375" customWidth="1"/>
+    <col min="5639" max="5639" width="82.21875" customWidth="1"/>
+    <col min="5640" max="5640" width="25.77734375" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.88671875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.109375" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.75" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.77734375" customWidth="1"/>
+    <col min="5889" max="5889" width="3.88671875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.109375" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5892" max="5892" width="12.21875" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.25" customWidth="1"/>
-    <col min="5896" max="5896" width="25.75" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.109375" customWidth="1"/>
+    <col min="5895" max="5895" width="82.21875" customWidth="1"/>
+    <col min="5896" max="5896" width="25.77734375" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.88671875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.109375" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.75" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.77734375" customWidth="1"/>
+    <col min="6145" max="6145" width="3.88671875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.109375" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6148" max="6148" width="12.21875" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.25" customWidth="1"/>
-    <col min="6152" max="6152" width="25.75" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.109375" customWidth="1"/>
+    <col min="6151" max="6151" width="82.21875" customWidth="1"/>
+    <col min="6152" max="6152" width="25.77734375" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.88671875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.109375" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.75" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.77734375" customWidth="1"/>
+    <col min="6401" max="6401" width="3.88671875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.109375" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6404" max="6404" width="12.21875" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.25" customWidth="1"/>
-    <col min="6408" max="6408" width="25.75" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.109375" customWidth="1"/>
+    <col min="6407" max="6407" width="82.21875" customWidth="1"/>
+    <col min="6408" max="6408" width="25.77734375" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.88671875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.109375" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.75" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.77734375" customWidth="1"/>
+    <col min="6657" max="6657" width="3.88671875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.109375" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6660" max="6660" width="12.21875" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.25" customWidth="1"/>
-    <col min="6664" max="6664" width="25.75" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.109375" customWidth="1"/>
+    <col min="6663" max="6663" width="82.21875" customWidth="1"/>
+    <col min="6664" max="6664" width="25.77734375" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.88671875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.109375" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.75" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.77734375" customWidth="1"/>
+    <col min="6913" max="6913" width="3.88671875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.109375" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6916" max="6916" width="12.21875" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.25" customWidth="1"/>
-    <col min="6920" max="6920" width="25.75" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.109375" customWidth="1"/>
+    <col min="6919" max="6919" width="82.21875" customWidth="1"/>
+    <col min="6920" max="6920" width="25.77734375" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.88671875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.109375" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.75" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.77734375" customWidth="1"/>
+    <col min="7169" max="7169" width="3.88671875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.109375" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7172" max="7172" width="12.21875" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.25" customWidth="1"/>
-    <col min="7176" max="7176" width="25.75" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.109375" customWidth="1"/>
+    <col min="7175" max="7175" width="82.21875" customWidth="1"/>
+    <col min="7176" max="7176" width="25.77734375" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.88671875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.109375" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.75" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.77734375" customWidth="1"/>
+    <col min="7425" max="7425" width="3.88671875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.109375" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7428" max="7428" width="12.21875" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.25" customWidth="1"/>
-    <col min="7432" max="7432" width="25.75" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.109375" customWidth="1"/>
+    <col min="7431" max="7431" width="82.21875" customWidth="1"/>
+    <col min="7432" max="7432" width="25.77734375" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.88671875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.109375" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.75" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.77734375" customWidth="1"/>
+    <col min="7681" max="7681" width="3.88671875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.109375" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7684" max="7684" width="12.21875" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.25" customWidth="1"/>
-    <col min="7688" max="7688" width="25.75" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.109375" customWidth="1"/>
+    <col min="7687" max="7687" width="82.21875" customWidth="1"/>
+    <col min="7688" max="7688" width="25.77734375" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.88671875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.109375" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.75" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.77734375" customWidth="1"/>
+    <col min="7937" max="7937" width="3.88671875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.109375" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7940" max="7940" width="12.21875" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.25" customWidth="1"/>
-    <col min="7944" max="7944" width="25.75" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.109375" customWidth="1"/>
+    <col min="7943" max="7943" width="82.21875" customWidth="1"/>
+    <col min="7944" max="7944" width="25.77734375" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.88671875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.109375" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.75" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.77734375" customWidth="1"/>
+    <col min="8193" max="8193" width="3.88671875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.109375" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8196" max="8196" width="12.21875" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.25" customWidth="1"/>
-    <col min="8200" max="8200" width="25.75" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.109375" customWidth="1"/>
+    <col min="8199" max="8199" width="82.21875" customWidth="1"/>
+    <col min="8200" max="8200" width="25.77734375" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.88671875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.109375" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.75" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.77734375" customWidth="1"/>
+    <col min="8449" max="8449" width="3.88671875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.109375" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8452" max="8452" width="12.21875" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.25" customWidth="1"/>
-    <col min="8456" max="8456" width="25.75" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.109375" customWidth="1"/>
+    <col min="8455" max="8455" width="82.21875" customWidth="1"/>
+    <col min="8456" max="8456" width="25.77734375" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.88671875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.109375" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.75" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.77734375" customWidth="1"/>
+    <col min="8705" max="8705" width="3.88671875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.109375" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8708" max="8708" width="12.21875" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.25" customWidth="1"/>
-    <col min="8712" max="8712" width="25.75" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.109375" customWidth="1"/>
+    <col min="8711" max="8711" width="82.21875" customWidth="1"/>
+    <col min="8712" max="8712" width="25.77734375" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.88671875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.109375" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.75" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.77734375" customWidth="1"/>
+    <col min="8961" max="8961" width="3.88671875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.109375" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8964" max="8964" width="12.21875" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.25" customWidth="1"/>
-    <col min="8968" max="8968" width="25.75" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.109375" customWidth="1"/>
+    <col min="8967" max="8967" width="82.21875" customWidth="1"/>
+    <col min="8968" max="8968" width="25.77734375" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.88671875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.109375" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.75" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.77734375" customWidth="1"/>
+    <col min="9217" max="9217" width="3.88671875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.109375" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9220" max="9220" width="12.21875" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.25" customWidth="1"/>
-    <col min="9224" max="9224" width="25.75" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.109375" customWidth="1"/>
+    <col min="9223" max="9223" width="82.21875" customWidth="1"/>
+    <col min="9224" max="9224" width="25.77734375" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.88671875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.109375" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.75" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.77734375" customWidth="1"/>
+    <col min="9473" max="9473" width="3.88671875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.109375" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9476" max="9476" width="12.21875" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.25" customWidth="1"/>
-    <col min="9480" max="9480" width="25.75" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.109375" customWidth="1"/>
+    <col min="9479" max="9479" width="82.21875" customWidth="1"/>
+    <col min="9480" max="9480" width="25.77734375" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.88671875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.109375" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.75" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.77734375" customWidth="1"/>
+    <col min="9729" max="9729" width="3.88671875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.109375" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9732" max="9732" width="12.21875" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.25" customWidth="1"/>
-    <col min="9736" max="9736" width="25.75" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.109375" customWidth="1"/>
+    <col min="9735" max="9735" width="82.21875" customWidth="1"/>
+    <col min="9736" max="9736" width="25.77734375" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.88671875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.109375" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.75" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.77734375" customWidth="1"/>
+    <col min="9985" max="9985" width="3.88671875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.109375" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9988" max="9988" width="12.21875" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.25" customWidth="1"/>
-    <col min="9992" max="9992" width="25.75" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.109375" customWidth="1"/>
+    <col min="9991" max="9991" width="82.21875" customWidth="1"/>
+    <col min="9992" max="9992" width="25.77734375" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.88671875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.109375" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.75" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.77734375" customWidth="1"/>
+    <col min="10241" max="10241" width="3.88671875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.109375" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10244" max="10244" width="12.21875" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.25" customWidth="1"/>
-    <col min="10248" max="10248" width="25.75" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.109375" customWidth="1"/>
+    <col min="10247" max="10247" width="82.21875" customWidth="1"/>
+    <col min="10248" max="10248" width="25.77734375" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.88671875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.109375" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.75" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.77734375" customWidth="1"/>
+    <col min="10497" max="10497" width="3.88671875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.109375" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10500" max="10500" width="12.21875" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.25" customWidth="1"/>
-    <col min="10504" max="10504" width="25.75" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.109375" customWidth="1"/>
+    <col min="10503" max="10503" width="82.21875" customWidth="1"/>
+    <col min="10504" max="10504" width="25.77734375" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.88671875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.109375" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.75" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.77734375" customWidth="1"/>
+    <col min="10753" max="10753" width="3.88671875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.109375" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10756" max="10756" width="12.21875" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.25" customWidth="1"/>
-    <col min="10760" max="10760" width="25.75" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.109375" customWidth="1"/>
+    <col min="10759" max="10759" width="82.21875" customWidth="1"/>
+    <col min="10760" max="10760" width="25.77734375" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.88671875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.109375" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.75" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.77734375" customWidth="1"/>
+    <col min="11009" max="11009" width="3.88671875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.109375" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11012" max="11012" width="12.21875" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.25" customWidth="1"/>
-    <col min="11016" max="11016" width="25.75" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.109375" customWidth="1"/>
+    <col min="11015" max="11015" width="82.21875" customWidth="1"/>
+    <col min="11016" max="11016" width="25.77734375" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.88671875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.109375" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.75" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.77734375" customWidth="1"/>
+    <col min="11265" max="11265" width="3.88671875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.109375" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11268" max="11268" width="12.21875" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.25" customWidth="1"/>
-    <col min="11272" max="11272" width="25.75" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.109375" customWidth="1"/>
+    <col min="11271" max="11271" width="82.21875" customWidth="1"/>
+    <col min="11272" max="11272" width="25.77734375" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.88671875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.109375" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.75" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.77734375" customWidth="1"/>
+    <col min="11521" max="11521" width="3.88671875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.109375" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11524" max="11524" width="12.21875" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.25" customWidth="1"/>
-    <col min="11528" max="11528" width="25.75" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.109375" customWidth="1"/>
+    <col min="11527" max="11527" width="82.21875" customWidth="1"/>
+    <col min="11528" max="11528" width="25.77734375" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.88671875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.109375" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.75" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.77734375" customWidth="1"/>
+    <col min="11777" max="11777" width="3.88671875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.109375" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11780" max="11780" width="12.21875" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.25" customWidth="1"/>
-    <col min="11784" max="11784" width="25.75" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.109375" customWidth="1"/>
+    <col min="11783" max="11783" width="82.21875" customWidth="1"/>
+    <col min="11784" max="11784" width="25.77734375" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.88671875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.109375" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.75" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.77734375" customWidth="1"/>
+    <col min="12033" max="12033" width="3.88671875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.109375" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12036" max="12036" width="12.21875" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.25" customWidth="1"/>
-    <col min="12040" max="12040" width="25.75" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.109375" customWidth="1"/>
+    <col min="12039" max="12039" width="82.21875" customWidth="1"/>
+    <col min="12040" max="12040" width="25.77734375" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.88671875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.109375" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.75" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.77734375" customWidth="1"/>
+    <col min="12289" max="12289" width="3.88671875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.109375" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12292" max="12292" width="12.21875" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.25" customWidth="1"/>
-    <col min="12296" max="12296" width="25.75" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.109375" customWidth="1"/>
+    <col min="12295" max="12295" width="82.21875" customWidth="1"/>
+    <col min="12296" max="12296" width="25.77734375" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.88671875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.109375" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.75" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.77734375" customWidth="1"/>
+    <col min="12545" max="12545" width="3.88671875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.109375" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12548" max="12548" width="12.21875" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.25" customWidth="1"/>
-    <col min="12552" max="12552" width="25.75" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.109375" customWidth="1"/>
+    <col min="12551" max="12551" width="82.21875" customWidth="1"/>
+    <col min="12552" max="12552" width="25.77734375" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.88671875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.109375" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.75" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.77734375" customWidth="1"/>
+    <col min="12801" max="12801" width="3.88671875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.109375" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12804" max="12804" width="12.21875" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.25" customWidth="1"/>
-    <col min="12808" max="12808" width="25.75" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.109375" customWidth="1"/>
+    <col min="12807" max="12807" width="82.21875" customWidth="1"/>
+    <col min="12808" max="12808" width="25.77734375" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.88671875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.109375" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.75" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.77734375" customWidth="1"/>
+    <col min="13057" max="13057" width="3.88671875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.109375" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13060" max="13060" width="12.21875" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.25" customWidth="1"/>
-    <col min="13064" max="13064" width="25.75" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.109375" customWidth="1"/>
+    <col min="13063" max="13063" width="82.21875" customWidth="1"/>
+    <col min="13064" max="13064" width="25.77734375" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.88671875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.109375" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.75" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.77734375" customWidth="1"/>
+    <col min="13313" max="13313" width="3.88671875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.109375" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13316" max="13316" width="12.21875" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.25" customWidth="1"/>
-    <col min="13320" max="13320" width="25.75" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.109375" customWidth="1"/>
+    <col min="13319" max="13319" width="82.21875" customWidth="1"/>
+    <col min="13320" max="13320" width="25.77734375" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.88671875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.109375" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.75" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.77734375" customWidth="1"/>
+    <col min="13569" max="13569" width="3.88671875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.109375" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13572" max="13572" width="12.21875" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.25" customWidth="1"/>
-    <col min="13576" max="13576" width="25.75" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.109375" customWidth="1"/>
+    <col min="13575" max="13575" width="82.21875" customWidth="1"/>
+    <col min="13576" max="13576" width="25.77734375" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.88671875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.109375" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.75" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.77734375" customWidth="1"/>
+    <col min="13825" max="13825" width="3.88671875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.109375" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13828" max="13828" width="12.21875" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.25" customWidth="1"/>
-    <col min="13832" max="13832" width="25.75" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.109375" customWidth="1"/>
+    <col min="13831" max="13831" width="82.21875" customWidth="1"/>
+    <col min="13832" max="13832" width="25.77734375" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.88671875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.109375" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.75" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.77734375" customWidth="1"/>
+    <col min="14081" max="14081" width="3.88671875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.109375" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14084" max="14084" width="12.21875" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.25" customWidth="1"/>
-    <col min="14088" max="14088" width="25.75" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.109375" customWidth="1"/>
+    <col min="14087" max="14087" width="82.21875" customWidth="1"/>
+    <col min="14088" max="14088" width="25.77734375" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.88671875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.109375" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.75" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.77734375" customWidth="1"/>
+    <col min="14337" max="14337" width="3.88671875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.109375" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14340" max="14340" width="12.21875" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.25" customWidth="1"/>
-    <col min="14344" max="14344" width="25.75" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.109375" customWidth="1"/>
+    <col min="14343" max="14343" width="82.21875" customWidth="1"/>
+    <col min="14344" max="14344" width="25.77734375" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.88671875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.109375" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.75" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.77734375" customWidth="1"/>
+    <col min="14593" max="14593" width="3.88671875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.109375" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14596" max="14596" width="12.21875" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.25" customWidth="1"/>
-    <col min="14600" max="14600" width="25.75" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.109375" customWidth="1"/>
+    <col min="14599" max="14599" width="82.21875" customWidth="1"/>
+    <col min="14600" max="14600" width="25.77734375" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.88671875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.109375" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.75" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.77734375" customWidth="1"/>
+    <col min="14849" max="14849" width="3.88671875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.109375" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14852" max="14852" width="12.21875" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.25" customWidth="1"/>
-    <col min="14856" max="14856" width="25.75" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.109375" customWidth="1"/>
+    <col min="14855" max="14855" width="82.21875" customWidth="1"/>
+    <col min="14856" max="14856" width="25.77734375" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.88671875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.109375" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.75" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.77734375" customWidth="1"/>
+    <col min="15105" max="15105" width="3.88671875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.109375" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15108" max="15108" width="12.21875" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.25" customWidth="1"/>
-    <col min="15112" max="15112" width="25.75" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.109375" customWidth="1"/>
+    <col min="15111" max="15111" width="82.21875" customWidth="1"/>
+    <col min="15112" max="15112" width="25.77734375" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.88671875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.109375" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.75" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.77734375" customWidth="1"/>
+    <col min="15361" max="15361" width="3.88671875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.109375" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15364" max="15364" width="12.21875" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.25" customWidth="1"/>
-    <col min="15368" max="15368" width="25.75" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.109375" customWidth="1"/>
+    <col min="15367" max="15367" width="82.21875" customWidth="1"/>
+    <col min="15368" max="15368" width="25.77734375" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.88671875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.109375" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.75" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.77734375" customWidth="1"/>
+    <col min="15617" max="15617" width="3.88671875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.109375" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15620" max="15620" width="12.21875" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.25" customWidth="1"/>
-    <col min="15624" max="15624" width="25.75" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.109375" customWidth="1"/>
+    <col min="15623" max="15623" width="82.21875" customWidth="1"/>
+    <col min="15624" max="15624" width="25.77734375" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.88671875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.109375" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.75" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.77734375" customWidth="1"/>
+    <col min="15873" max="15873" width="3.88671875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.109375" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15876" max="15876" width="12.21875" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.25" customWidth="1"/>
-    <col min="15880" max="15880" width="25.75" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.109375" customWidth="1"/>
+    <col min="15879" max="15879" width="82.21875" customWidth="1"/>
+    <col min="15880" max="15880" width="25.77734375" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.88671875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.109375" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.75" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.77734375" customWidth="1"/>
+    <col min="16129" max="16129" width="3.88671875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.109375" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16132" max="16132" width="12.21875" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.25" customWidth="1"/>
-    <col min="16136" max="16136" width="25.75" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.109375" customWidth="1"/>
+    <col min="16135" max="16135" width="82.21875" customWidth="1"/>
+    <col min="16136" max="16136" width="25.77734375" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.88671875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.109375" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+    <col min="16141" max="16141" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
@@ -8176,7 +8188,7 @@
       <c r="L1" s="76"/>
       <c r="M1" s="77"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -8191,7 +8203,7 @@
       <c r="L2" s="78"/>
       <c r="M2" s="79"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -8232,7 +8244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="115.5">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>1</v>
       </c>
@@ -8271,7 +8283,7 @@
       </c>
       <c r="M4" s="69"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="82.5">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>2</v>
       </c>
@@ -8310,7 +8322,7 @@
       </c>
       <c r="M5" s="69"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="99">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>3</v>
       </c>
@@ -8349,7 +8361,7 @@
       </c>
       <c r="M6" s="69"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="280.5">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A7" s="72">
         <v>4</v>
       </c>
@@ -8408,850 +8420,850 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="35" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="257" max="257" width="3.88671875" customWidth="1"/>
+    <col min="258" max="258" width="10.109375" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="260" max="260" width="12.21875" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.25" customWidth="1"/>
-    <col min="264" max="264" width="25.75" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.109375" customWidth="1"/>
+    <col min="263" max="263" width="82.21875" customWidth="1"/>
+    <col min="264" max="264" width="25.77734375" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.88671875" customWidth="1"/>
+    <col min="267" max="267" width="10.109375" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.75" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.77734375" customWidth="1"/>
+    <col min="513" max="513" width="3.88671875" customWidth="1"/>
+    <col min="514" max="514" width="10.109375" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="516" max="516" width="12.21875" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.25" customWidth="1"/>
-    <col min="520" max="520" width="25.75" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.109375" customWidth="1"/>
+    <col min="519" max="519" width="82.21875" customWidth="1"/>
+    <col min="520" max="520" width="25.77734375" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.88671875" customWidth="1"/>
+    <col min="523" max="523" width="10.109375" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.75" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.77734375" customWidth="1"/>
+    <col min="769" max="769" width="3.88671875" customWidth="1"/>
+    <col min="770" max="770" width="10.109375" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="772" max="772" width="12.21875" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.25" customWidth="1"/>
-    <col min="776" max="776" width="25.75" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.109375" customWidth="1"/>
+    <col min="775" max="775" width="82.21875" customWidth="1"/>
+    <col min="776" max="776" width="25.77734375" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.88671875" customWidth="1"/>
+    <col min="779" max="779" width="10.109375" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.75" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.77734375" customWidth="1"/>
+    <col min="1025" max="1025" width="3.88671875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.109375" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1028" max="1028" width="12.21875" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.25" customWidth="1"/>
-    <col min="1032" max="1032" width="25.75" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.109375" customWidth="1"/>
+    <col min="1031" max="1031" width="82.21875" customWidth="1"/>
+    <col min="1032" max="1032" width="25.77734375" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.88671875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.109375" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.75" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.77734375" customWidth="1"/>
+    <col min="1281" max="1281" width="3.88671875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.109375" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1284" max="1284" width="12.21875" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.25" customWidth="1"/>
-    <col min="1288" max="1288" width="25.75" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.109375" customWidth="1"/>
+    <col min="1287" max="1287" width="82.21875" customWidth="1"/>
+    <col min="1288" max="1288" width="25.77734375" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.88671875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.109375" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.75" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.77734375" customWidth="1"/>
+    <col min="1537" max="1537" width="3.88671875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.109375" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1540" max="1540" width="12.21875" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.25" customWidth="1"/>
-    <col min="1544" max="1544" width="25.75" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.109375" customWidth="1"/>
+    <col min="1543" max="1543" width="82.21875" customWidth="1"/>
+    <col min="1544" max="1544" width="25.77734375" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.88671875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.109375" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.75" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.77734375" customWidth="1"/>
+    <col min="1793" max="1793" width="3.88671875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.109375" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1796" max="1796" width="12.21875" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.25" customWidth="1"/>
-    <col min="1800" max="1800" width="25.75" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.109375" customWidth="1"/>
+    <col min="1799" max="1799" width="82.21875" customWidth="1"/>
+    <col min="1800" max="1800" width="25.77734375" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.88671875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.109375" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.75" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.77734375" customWidth="1"/>
+    <col min="2049" max="2049" width="3.88671875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.109375" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2052" max="2052" width="12.21875" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.25" customWidth="1"/>
-    <col min="2056" max="2056" width="25.75" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.109375" customWidth="1"/>
+    <col min="2055" max="2055" width="82.21875" customWidth="1"/>
+    <col min="2056" max="2056" width="25.77734375" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.88671875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.109375" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.75" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.77734375" customWidth="1"/>
+    <col min="2305" max="2305" width="3.88671875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.109375" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2308" max="2308" width="12.21875" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.25" customWidth="1"/>
-    <col min="2312" max="2312" width="25.75" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.109375" customWidth="1"/>
+    <col min="2311" max="2311" width="82.21875" customWidth="1"/>
+    <col min="2312" max="2312" width="25.77734375" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.88671875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.109375" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.75" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.77734375" customWidth="1"/>
+    <col min="2561" max="2561" width="3.88671875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.109375" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2564" max="2564" width="12.21875" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.25" customWidth="1"/>
-    <col min="2568" max="2568" width="25.75" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.109375" customWidth="1"/>
+    <col min="2567" max="2567" width="82.21875" customWidth="1"/>
+    <col min="2568" max="2568" width="25.77734375" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.88671875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.109375" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.75" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.77734375" customWidth="1"/>
+    <col min="2817" max="2817" width="3.88671875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.109375" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2820" max="2820" width="12.21875" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.25" customWidth="1"/>
-    <col min="2824" max="2824" width="25.75" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.109375" customWidth="1"/>
+    <col min="2823" max="2823" width="82.21875" customWidth="1"/>
+    <col min="2824" max="2824" width="25.77734375" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.88671875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.109375" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.75" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.77734375" customWidth="1"/>
+    <col min="3073" max="3073" width="3.88671875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.109375" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3076" max="3076" width="12.21875" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.25" customWidth="1"/>
-    <col min="3080" max="3080" width="25.75" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.109375" customWidth="1"/>
+    <col min="3079" max="3079" width="82.21875" customWidth="1"/>
+    <col min="3080" max="3080" width="25.77734375" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.88671875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.109375" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.75" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.77734375" customWidth="1"/>
+    <col min="3329" max="3329" width="3.88671875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.109375" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3332" max="3332" width="12.21875" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.25" customWidth="1"/>
-    <col min="3336" max="3336" width="25.75" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.109375" customWidth="1"/>
+    <col min="3335" max="3335" width="82.21875" customWidth="1"/>
+    <col min="3336" max="3336" width="25.77734375" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.88671875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.109375" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.75" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.77734375" customWidth="1"/>
+    <col min="3585" max="3585" width="3.88671875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.109375" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3588" max="3588" width="12.21875" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.25" customWidth="1"/>
-    <col min="3592" max="3592" width="25.75" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.109375" customWidth="1"/>
+    <col min="3591" max="3591" width="82.21875" customWidth="1"/>
+    <col min="3592" max="3592" width="25.77734375" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.88671875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.109375" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.75" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.77734375" customWidth="1"/>
+    <col min="3841" max="3841" width="3.88671875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.109375" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3844" max="3844" width="12.21875" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.25" customWidth="1"/>
-    <col min="3848" max="3848" width="25.75" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.109375" customWidth="1"/>
+    <col min="3847" max="3847" width="82.21875" customWidth="1"/>
+    <col min="3848" max="3848" width="25.77734375" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.88671875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.109375" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.75" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.77734375" customWidth="1"/>
+    <col min="4097" max="4097" width="3.88671875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.109375" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4100" max="4100" width="12.21875" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.25" customWidth="1"/>
-    <col min="4104" max="4104" width="25.75" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.109375" customWidth="1"/>
+    <col min="4103" max="4103" width="82.21875" customWidth="1"/>
+    <col min="4104" max="4104" width="25.77734375" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.88671875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.109375" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.75" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.77734375" customWidth="1"/>
+    <col min="4353" max="4353" width="3.88671875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.109375" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4356" max="4356" width="12.21875" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.25" customWidth="1"/>
-    <col min="4360" max="4360" width="25.75" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.109375" customWidth="1"/>
+    <col min="4359" max="4359" width="82.21875" customWidth="1"/>
+    <col min="4360" max="4360" width="25.77734375" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.88671875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.109375" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.75" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.77734375" customWidth="1"/>
+    <col min="4609" max="4609" width="3.88671875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.109375" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4612" max="4612" width="12.21875" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.25" customWidth="1"/>
-    <col min="4616" max="4616" width="25.75" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.109375" customWidth="1"/>
+    <col min="4615" max="4615" width="82.21875" customWidth="1"/>
+    <col min="4616" max="4616" width="25.77734375" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.88671875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.109375" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.75" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.77734375" customWidth="1"/>
+    <col min="4865" max="4865" width="3.88671875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.109375" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4868" max="4868" width="12.21875" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.25" customWidth="1"/>
-    <col min="4872" max="4872" width="25.75" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.109375" customWidth="1"/>
+    <col min="4871" max="4871" width="82.21875" customWidth="1"/>
+    <col min="4872" max="4872" width="25.77734375" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.88671875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.109375" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.75" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.77734375" customWidth="1"/>
+    <col min="5121" max="5121" width="3.88671875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.109375" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5124" max="5124" width="12.21875" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.25" customWidth="1"/>
-    <col min="5128" max="5128" width="25.75" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.109375" customWidth="1"/>
+    <col min="5127" max="5127" width="82.21875" customWidth="1"/>
+    <col min="5128" max="5128" width="25.77734375" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.88671875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.109375" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.75" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.77734375" customWidth="1"/>
+    <col min="5377" max="5377" width="3.88671875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.109375" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5380" max="5380" width="12.21875" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.25" customWidth="1"/>
-    <col min="5384" max="5384" width="25.75" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.109375" customWidth="1"/>
+    <col min="5383" max="5383" width="82.21875" customWidth="1"/>
+    <col min="5384" max="5384" width="25.77734375" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.88671875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.109375" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.75" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.77734375" customWidth="1"/>
+    <col min="5633" max="5633" width="3.88671875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.109375" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5636" max="5636" width="12.21875" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.25" customWidth="1"/>
-    <col min="5640" max="5640" width="25.75" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.109375" customWidth="1"/>
+    <col min="5639" max="5639" width="82.21875" customWidth="1"/>
+    <col min="5640" max="5640" width="25.77734375" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.88671875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.109375" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.75" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.77734375" customWidth="1"/>
+    <col min="5889" max="5889" width="3.88671875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.109375" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5892" max="5892" width="12.21875" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.25" customWidth="1"/>
-    <col min="5896" max="5896" width="25.75" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.109375" customWidth="1"/>
+    <col min="5895" max="5895" width="82.21875" customWidth="1"/>
+    <col min="5896" max="5896" width="25.77734375" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.88671875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.109375" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.75" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.77734375" customWidth="1"/>
+    <col min="6145" max="6145" width="3.88671875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.109375" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6148" max="6148" width="12.21875" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.25" customWidth="1"/>
-    <col min="6152" max="6152" width="25.75" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.109375" customWidth="1"/>
+    <col min="6151" max="6151" width="82.21875" customWidth="1"/>
+    <col min="6152" max="6152" width="25.77734375" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.88671875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.109375" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.75" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.77734375" customWidth="1"/>
+    <col min="6401" max="6401" width="3.88671875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.109375" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6404" max="6404" width="12.21875" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.25" customWidth="1"/>
-    <col min="6408" max="6408" width="25.75" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.109375" customWidth="1"/>
+    <col min="6407" max="6407" width="82.21875" customWidth="1"/>
+    <col min="6408" max="6408" width="25.77734375" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.88671875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.109375" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.75" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.77734375" customWidth="1"/>
+    <col min="6657" max="6657" width="3.88671875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.109375" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6660" max="6660" width="12.21875" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.25" customWidth="1"/>
-    <col min="6664" max="6664" width="25.75" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.109375" customWidth="1"/>
+    <col min="6663" max="6663" width="82.21875" customWidth="1"/>
+    <col min="6664" max="6664" width="25.77734375" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.88671875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.109375" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.75" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.77734375" customWidth="1"/>
+    <col min="6913" max="6913" width="3.88671875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.109375" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6916" max="6916" width="12.21875" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.25" customWidth="1"/>
-    <col min="6920" max="6920" width="25.75" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.109375" customWidth="1"/>
+    <col min="6919" max="6919" width="82.21875" customWidth="1"/>
+    <col min="6920" max="6920" width="25.77734375" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.88671875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.109375" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.75" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.77734375" customWidth="1"/>
+    <col min="7169" max="7169" width="3.88671875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.109375" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7172" max="7172" width="12.21875" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.25" customWidth="1"/>
-    <col min="7176" max="7176" width="25.75" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.109375" customWidth="1"/>
+    <col min="7175" max="7175" width="82.21875" customWidth="1"/>
+    <col min="7176" max="7176" width="25.77734375" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.88671875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.109375" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.75" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.77734375" customWidth="1"/>
+    <col min="7425" max="7425" width="3.88671875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.109375" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7428" max="7428" width="12.21875" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.25" customWidth="1"/>
-    <col min="7432" max="7432" width="25.75" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.109375" customWidth="1"/>
+    <col min="7431" max="7431" width="82.21875" customWidth="1"/>
+    <col min="7432" max="7432" width="25.77734375" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.88671875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.109375" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.75" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.77734375" customWidth="1"/>
+    <col min="7681" max="7681" width="3.88671875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.109375" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7684" max="7684" width="12.21875" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.25" customWidth="1"/>
-    <col min="7688" max="7688" width="25.75" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.109375" customWidth="1"/>
+    <col min="7687" max="7687" width="82.21875" customWidth="1"/>
+    <col min="7688" max="7688" width="25.77734375" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.88671875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.109375" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.75" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.77734375" customWidth="1"/>
+    <col min="7937" max="7937" width="3.88671875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.109375" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7940" max="7940" width="12.21875" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.25" customWidth="1"/>
-    <col min="7944" max="7944" width="25.75" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.109375" customWidth="1"/>
+    <col min="7943" max="7943" width="82.21875" customWidth="1"/>
+    <col min="7944" max="7944" width="25.77734375" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.88671875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.109375" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.75" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.77734375" customWidth="1"/>
+    <col min="8193" max="8193" width="3.88671875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.109375" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8196" max="8196" width="12.21875" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.25" customWidth="1"/>
-    <col min="8200" max="8200" width="25.75" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.109375" customWidth="1"/>
+    <col min="8199" max="8199" width="82.21875" customWidth="1"/>
+    <col min="8200" max="8200" width="25.77734375" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.88671875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.109375" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.75" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.77734375" customWidth="1"/>
+    <col min="8449" max="8449" width="3.88671875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.109375" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8452" max="8452" width="12.21875" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.25" customWidth="1"/>
-    <col min="8456" max="8456" width="25.75" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.109375" customWidth="1"/>
+    <col min="8455" max="8455" width="82.21875" customWidth="1"/>
+    <col min="8456" max="8456" width="25.77734375" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.88671875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.109375" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.75" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.77734375" customWidth="1"/>
+    <col min="8705" max="8705" width="3.88671875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.109375" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8708" max="8708" width="12.21875" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.25" customWidth="1"/>
-    <col min="8712" max="8712" width="25.75" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.109375" customWidth="1"/>
+    <col min="8711" max="8711" width="82.21875" customWidth="1"/>
+    <col min="8712" max="8712" width="25.77734375" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.88671875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.109375" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.75" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.77734375" customWidth="1"/>
+    <col min="8961" max="8961" width="3.88671875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.109375" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8964" max="8964" width="12.21875" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.25" customWidth="1"/>
-    <col min="8968" max="8968" width="25.75" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.109375" customWidth="1"/>
+    <col min="8967" max="8967" width="82.21875" customWidth="1"/>
+    <col min="8968" max="8968" width="25.77734375" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.88671875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.109375" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.75" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.77734375" customWidth="1"/>
+    <col min="9217" max="9217" width="3.88671875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.109375" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9220" max="9220" width="12.21875" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.25" customWidth="1"/>
-    <col min="9224" max="9224" width="25.75" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.109375" customWidth="1"/>
+    <col min="9223" max="9223" width="82.21875" customWidth="1"/>
+    <col min="9224" max="9224" width="25.77734375" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.88671875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.109375" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.75" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.77734375" customWidth="1"/>
+    <col min="9473" max="9473" width="3.88671875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.109375" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9476" max="9476" width="12.21875" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.25" customWidth="1"/>
-    <col min="9480" max="9480" width="25.75" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.109375" customWidth="1"/>
+    <col min="9479" max="9479" width="82.21875" customWidth="1"/>
+    <col min="9480" max="9480" width="25.77734375" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.88671875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.109375" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.75" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.77734375" customWidth="1"/>
+    <col min="9729" max="9729" width="3.88671875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.109375" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9732" max="9732" width="12.21875" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.25" customWidth="1"/>
-    <col min="9736" max="9736" width="25.75" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.109375" customWidth="1"/>
+    <col min="9735" max="9735" width="82.21875" customWidth="1"/>
+    <col min="9736" max="9736" width="25.77734375" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.88671875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.109375" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.75" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.77734375" customWidth="1"/>
+    <col min="9985" max="9985" width="3.88671875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.109375" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9988" max="9988" width="12.21875" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.25" customWidth="1"/>
-    <col min="9992" max="9992" width="25.75" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.109375" customWidth="1"/>
+    <col min="9991" max="9991" width="82.21875" customWidth="1"/>
+    <col min="9992" max="9992" width="25.77734375" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.88671875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.109375" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.75" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.77734375" customWidth="1"/>
+    <col min="10241" max="10241" width="3.88671875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.109375" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10244" max="10244" width="12.21875" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.25" customWidth="1"/>
-    <col min="10248" max="10248" width="25.75" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.109375" customWidth="1"/>
+    <col min="10247" max="10247" width="82.21875" customWidth="1"/>
+    <col min="10248" max="10248" width="25.77734375" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.88671875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.109375" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.75" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.77734375" customWidth="1"/>
+    <col min="10497" max="10497" width="3.88671875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.109375" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10500" max="10500" width="12.21875" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.25" customWidth="1"/>
-    <col min="10504" max="10504" width="25.75" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.109375" customWidth="1"/>
+    <col min="10503" max="10503" width="82.21875" customWidth="1"/>
+    <col min="10504" max="10504" width="25.77734375" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.88671875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.109375" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.75" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.77734375" customWidth="1"/>
+    <col min="10753" max="10753" width="3.88671875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.109375" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10756" max="10756" width="12.21875" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.25" customWidth="1"/>
-    <col min="10760" max="10760" width="25.75" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.109375" customWidth="1"/>
+    <col min="10759" max="10759" width="82.21875" customWidth="1"/>
+    <col min="10760" max="10760" width="25.77734375" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.88671875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.109375" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.75" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.77734375" customWidth="1"/>
+    <col min="11009" max="11009" width="3.88671875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.109375" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11012" max="11012" width="12.21875" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.25" customWidth="1"/>
-    <col min="11016" max="11016" width="25.75" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.109375" customWidth="1"/>
+    <col min="11015" max="11015" width="82.21875" customWidth="1"/>
+    <col min="11016" max="11016" width="25.77734375" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.88671875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.109375" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.75" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.77734375" customWidth="1"/>
+    <col min="11265" max="11265" width="3.88671875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.109375" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11268" max="11268" width="12.21875" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.25" customWidth="1"/>
-    <col min="11272" max="11272" width="25.75" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.109375" customWidth="1"/>
+    <col min="11271" max="11271" width="82.21875" customWidth="1"/>
+    <col min="11272" max="11272" width="25.77734375" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.88671875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.109375" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.75" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.77734375" customWidth="1"/>
+    <col min="11521" max="11521" width="3.88671875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.109375" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11524" max="11524" width="12.21875" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.25" customWidth="1"/>
-    <col min="11528" max="11528" width="25.75" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.109375" customWidth="1"/>
+    <col min="11527" max="11527" width="82.21875" customWidth="1"/>
+    <col min="11528" max="11528" width="25.77734375" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.88671875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.109375" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.75" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.77734375" customWidth="1"/>
+    <col min="11777" max="11777" width="3.88671875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.109375" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11780" max="11780" width="12.21875" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.25" customWidth="1"/>
-    <col min="11784" max="11784" width="25.75" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.109375" customWidth="1"/>
+    <col min="11783" max="11783" width="82.21875" customWidth="1"/>
+    <col min="11784" max="11784" width="25.77734375" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.88671875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.109375" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.75" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.77734375" customWidth="1"/>
+    <col min="12033" max="12033" width="3.88671875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.109375" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12036" max="12036" width="12.21875" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.25" customWidth="1"/>
-    <col min="12040" max="12040" width="25.75" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.109375" customWidth="1"/>
+    <col min="12039" max="12039" width="82.21875" customWidth="1"/>
+    <col min="12040" max="12040" width="25.77734375" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.88671875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.109375" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.75" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.77734375" customWidth="1"/>
+    <col min="12289" max="12289" width="3.88671875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.109375" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12292" max="12292" width="12.21875" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.25" customWidth="1"/>
-    <col min="12296" max="12296" width="25.75" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.109375" customWidth="1"/>
+    <col min="12295" max="12295" width="82.21875" customWidth="1"/>
+    <col min="12296" max="12296" width="25.77734375" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.88671875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.109375" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.75" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.77734375" customWidth="1"/>
+    <col min="12545" max="12545" width="3.88671875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.109375" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12548" max="12548" width="12.21875" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.25" customWidth="1"/>
-    <col min="12552" max="12552" width="25.75" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.109375" customWidth="1"/>
+    <col min="12551" max="12551" width="82.21875" customWidth="1"/>
+    <col min="12552" max="12552" width="25.77734375" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.88671875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.109375" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.75" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.77734375" customWidth="1"/>
+    <col min="12801" max="12801" width="3.88671875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.109375" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12804" max="12804" width="12.21875" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.25" customWidth="1"/>
-    <col min="12808" max="12808" width="25.75" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.109375" customWidth="1"/>
+    <col min="12807" max="12807" width="82.21875" customWidth="1"/>
+    <col min="12808" max="12808" width="25.77734375" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.88671875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.109375" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.75" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.77734375" customWidth="1"/>
+    <col min="13057" max="13057" width="3.88671875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.109375" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13060" max="13060" width="12.21875" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.25" customWidth="1"/>
-    <col min="13064" max="13064" width="25.75" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.109375" customWidth="1"/>
+    <col min="13063" max="13063" width="82.21875" customWidth="1"/>
+    <col min="13064" max="13064" width="25.77734375" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.88671875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.109375" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.75" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.77734375" customWidth="1"/>
+    <col min="13313" max="13313" width="3.88671875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.109375" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13316" max="13316" width="12.21875" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.25" customWidth="1"/>
-    <col min="13320" max="13320" width="25.75" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.109375" customWidth="1"/>
+    <col min="13319" max="13319" width="82.21875" customWidth="1"/>
+    <col min="13320" max="13320" width="25.77734375" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.88671875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.109375" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.75" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.77734375" customWidth="1"/>
+    <col min="13569" max="13569" width="3.88671875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.109375" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13572" max="13572" width="12.21875" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.25" customWidth="1"/>
-    <col min="13576" max="13576" width="25.75" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.109375" customWidth="1"/>
+    <col min="13575" max="13575" width="82.21875" customWidth="1"/>
+    <col min="13576" max="13576" width="25.77734375" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.88671875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.109375" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.75" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.77734375" customWidth="1"/>
+    <col min="13825" max="13825" width="3.88671875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.109375" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13828" max="13828" width="12.21875" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.25" customWidth="1"/>
-    <col min="13832" max="13832" width="25.75" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.109375" customWidth="1"/>
+    <col min="13831" max="13831" width="82.21875" customWidth="1"/>
+    <col min="13832" max="13832" width="25.77734375" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.88671875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.109375" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.75" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.77734375" customWidth="1"/>
+    <col min="14081" max="14081" width="3.88671875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.109375" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14084" max="14084" width="12.21875" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.25" customWidth="1"/>
-    <col min="14088" max="14088" width="25.75" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.109375" customWidth="1"/>
+    <col min="14087" max="14087" width="82.21875" customWidth="1"/>
+    <col min="14088" max="14088" width="25.77734375" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.88671875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.109375" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.75" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.77734375" customWidth="1"/>
+    <col min="14337" max="14337" width="3.88671875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.109375" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14340" max="14340" width="12.21875" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.25" customWidth="1"/>
-    <col min="14344" max="14344" width="25.75" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.109375" customWidth="1"/>
+    <col min="14343" max="14343" width="82.21875" customWidth="1"/>
+    <col min="14344" max="14344" width="25.77734375" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.88671875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.109375" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.75" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.77734375" customWidth="1"/>
+    <col min="14593" max="14593" width="3.88671875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.109375" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14596" max="14596" width="12.21875" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.25" customWidth="1"/>
-    <col min="14600" max="14600" width="25.75" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.109375" customWidth="1"/>
+    <col min="14599" max="14599" width="82.21875" customWidth="1"/>
+    <col min="14600" max="14600" width="25.77734375" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.88671875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.109375" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.75" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.77734375" customWidth="1"/>
+    <col min="14849" max="14849" width="3.88671875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.109375" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14852" max="14852" width="12.21875" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.25" customWidth="1"/>
-    <col min="14856" max="14856" width="25.75" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.109375" customWidth="1"/>
+    <col min="14855" max="14855" width="82.21875" customWidth="1"/>
+    <col min="14856" max="14856" width="25.77734375" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.88671875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.109375" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.75" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.77734375" customWidth="1"/>
+    <col min="15105" max="15105" width="3.88671875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.109375" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15108" max="15108" width="12.21875" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.25" customWidth="1"/>
-    <col min="15112" max="15112" width="25.75" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.109375" customWidth="1"/>
+    <col min="15111" max="15111" width="82.21875" customWidth="1"/>
+    <col min="15112" max="15112" width="25.77734375" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.88671875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.109375" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.75" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.77734375" customWidth="1"/>
+    <col min="15361" max="15361" width="3.88671875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.109375" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15364" max="15364" width="12.21875" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.25" customWidth="1"/>
-    <col min="15368" max="15368" width="25.75" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.109375" customWidth="1"/>
+    <col min="15367" max="15367" width="82.21875" customWidth="1"/>
+    <col min="15368" max="15368" width="25.77734375" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.88671875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.109375" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.75" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.77734375" customWidth="1"/>
+    <col min="15617" max="15617" width="3.88671875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.109375" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15620" max="15620" width="12.21875" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.25" customWidth="1"/>
-    <col min="15624" max="15624" width="25.75" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.109375" customWidth="1"/>
+    <col min="15623" max="15623" width="82.21875" customWidth="1"/>
+    <col min="15624" max="15624" width="25.77734375" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.88671875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.109375" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.75" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.77734375" customWidth="1"/>
+    <col min="15873" max="15873" width="3.88671875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.109375" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15876" max="15876" width="12.21875" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.25" customWidth="1"/>
-    <col min="15880" max="15880" width="25.75" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.109375" customWidth="1"/>
+    <col min="15879" max="15879" width="82.21875" customWidth="1"/>
+    <col min="15880" max="15880" width="25.77734375" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.88671875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.109375" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.75" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.77734375" customWidth="1"/>
+    <col min="16129" max="16129" width="3.88671875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.109375" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16132" max="16132" width="12.21875" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.25" customWidth="1"/>
-    <col min="16136" max="16136" width="25.75" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.109375" customWidth="1"/>
+    <col min="16135" max="16135" width="82.21875" customWidth="1"/>
+    <col min="16136" max="16136" width="25.77734375" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.88671875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.109375" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+    <col min="16141" max="16141" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
@@ -9268,7 +9280,7 @@
       <c r="L1" s="76"/>
       <c r="M1" s="77"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -9283,7 +9295,7 @@
       <c r="L2" s="78"/>
       <c r="M2" s="79"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -9324,7 +9336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="115.5">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>1</v>
       </c>
@@ -9363,7 +9375,7 @@
       </c>
       <c r="M4" s="69"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="82.5">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>2</v>
       </c>
@@ -9402,7 +9414,7 @@
       </c>
       <c r="M5" s="69"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="82.5">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>3</v>
       </c>
@@ -9441,7 +9453,7 @@
       </c>
       <c r="M6" s="69"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="99">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>4</v>
       </c>
@@ -9480,7 +9492,7 @@
       </c>
       <c r="M7" s="69"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="72">
         <v>5</v>
       </c>
@@ -9539,850 +9551,850 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="35" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="257" max="257" width="3.88671875" customWidth="1"/>
+    <col min="258" max="258" width="10.109375" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="260" max="260" width="12.21875" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.25" customWidth="1"/>
-    <col min="264" max="264" width="25.75" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.109375" customWidth="1"/>
+    <col min="263" max="263" width="82.21875" customWidth="1"/>
+    <col min="264" max="264" width="25.77734375" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.88671875" customWidth="1"/>
+    <col min="267" max="267" width="10.109375" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.75" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.77734375" customWidth="1"/>
+    <col min="513" max="513" width="3.88671875" customWidth="1"/>
+    <col min="514" max="514" width="10.109375" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="516" max="516" width="12.21875" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.25" customWidth="1"/>
-    <col min="520" max="520" width="25.75" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.109375" customWidth="1"/>
+    <col min="519" max="519" width="82.21875" customWidth="1"/>
+    <col min="520" max="520" width="25.77734375" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.88671875" customWidth="1"/>
+    <col min="523" max="523" width="10.109375" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.75" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.77734375" customWidth="1"/>
+    <col min="769" max="769" width="3.88671875" customWidth="1"/>
+    <col min="770" max="770" width="10.109375" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="772" max="772" width="12.21875" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.25" customWidth="1"/>
-    <col min="776" max="776" width="25.75" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.109375" customWidth="1"/>
+    <col min="775" max="775" width="82.21875" customWidth="1"/>
+    <col min="776" max="776" width="25.77734375" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.88671875" customWidth="1"/>
+    <col min="779" max="779" width="10.109375" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.75" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.77734375" customWidth="1"/>
+    <col min="1025" max="1025" width="3.88671875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.109375" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1028" max="1028" width="12.21875" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.25" customWidth="1"/>
-    <col min="1032" max="1032" width="25.75" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.109375" customWidth="1"/>
+    <col min="1031" max="1031" width="82.21875" customWidth="1"/>
+    <col min="1032" max="1032" width="25.77734375" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.88671875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.109375" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.75" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.77734375" customWidth="1"/>
+    <col min="1281" max="1281" width="3.88671875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.109375" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1284" max="1284" width="12.21875" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.25" customWidth="1"/>
-    <col min="1288" max="1288" width="25.75" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.109375" customWidth="1"/>
+    <col min="1287" max="1287" width="82.21875" customWidth="1"/>
+    <col min="1288" max="1288" width="25.77734375" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.88671875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.109375" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.75" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.77734375" customWidth="1"/>
+    <col min="1537" max="1537" width="3.88671875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.109375" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1540" max="1540" width="12.21875" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.25" customWidth="1"/>
-    <col min="1544" max="1544" width="25.75" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.109375" customWidth="1"/>
+    <col min="1543" max="1543" width="82.21875" customWidth="1"/>
+    <col min="1544" max="1544" width="25.77734375" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.88671875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.109375" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.75" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.77734375" customWidth="1"/>
+    <col min="1793" max="1793" width="3.88671875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.109375" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1796" max="1796" width="12.21875" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.25" customWidth="1"/>
-    <col min="1800" max="1800" width="25.75" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.109375" customWidth="1"/>
+    <col min="1799" max="1799" width="82.21875" customWidth="1"/>
+    <col min="1800" max="1800" width="25.77734375" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.88671875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.109375" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.75" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.77734375" customWidth="1"/>
+    <col min="2049" max="2049" width="3.88671875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.109375" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2052" max="2052" width="12.21875" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.25" customWidth="1"/>
-    <col min="2056" max="2056" width="25.75" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.109375" customWidth="1"/>
+    <col min="2055" max="2055" width="82.21875" customWidth="1"/>
+    <col min="2056" max="2056" width="25.77734375" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.88671875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.109375" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.75" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.77734375" customWidth="1"/>
+    <col min="2305" max="2305" width="3.88671875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.109375" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2308" max="2308" width="12.21875" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.25" customWidth="1"/>
-    <col min="2312" max="2312" width="25.75" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.109375" customWidth="1"/>
+    <col min="2311" max="2311" width="82.21875" customWidth="1"/>
+    <col min="2312" max="2312" width="25.77734375" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.88671875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.109375" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.75" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.77734375" customWidth="1"/>
+    <col min="2561" max="2561" width="3.88671875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.109375" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2564" max="2564" width="12.21875" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.25" customWidth="1"/>
-    <col min="2568" max="2568" width="25.75" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.109375" customWidth="1"/>
+    <col min="2567" max="2567" width="82.21875" customWidth="1"/>
+    <col min="2568" max="2568" width="25.77734375" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.88671875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.109375" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.75" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.77734375" customWidth="1"/>
+    <col min="2817" max="2817" width="3.88671875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.109375" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2820" max="2820" width="12.21875" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.25" customWidth="1"/>
-    <col min="2824" max="2824" width="25.75" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.109375" customWidth="1"/>
+    <col min="2823" max="2823" width="82.21875" customWidth="1"/>
+    <col min="2824" max="2824" width="25.77734375" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.88671875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.109375" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.75" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.77734375" customWidth="1"/>
+    <col min="3073" max="3073" width="3.88671875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.109375" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3076" max="3076" width="12.21875" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.25" customWidth="1"/>
-    <col min="3080" max="3080" width="25.75" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.109375" customWidth="1"/>
+    <col min="3079" max="3079" width="82.21875" customWidth="1"/>
+    <col min="3080" max="3080" width="25.77734375" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.88671875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.109375" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.75" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.77734375" customWidth="1"/>
+    <col min="3329" max="3329" width="3.88671875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.109375" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3332" max="3332" width="12.21875" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.25" customWidth="1"/>
-    <col min="3336" max="3336" width="25.75" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.109375" customWidth="1"/>
+    <col min="3335" max="3335" width="82.21875" customWidth="1"/>
+    <col min="3336" max="3336" width="25.77734375" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.88671875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.109375" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.75" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.77734375" customWidth="1"/>
+    <col min="3585" max="3585" width="3.88671875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.109375" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3588" max="3588" width="12.21875" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.25" customWidth="1"/>
-    <col min="3592" max="3592" width="25.75" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.109375" customWidth="1"/>
+    <col min="3591" max="3591" width="82.21875" customWidth="1"/>
+    <col min="3592" max="3592" width="25.77734375" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.88671875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.109375" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.75" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.77734375" customWidth="1"/>
+    <col min="3841" max="3841" width="3.88671875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.109375" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3844" max="3844" width="12.21875" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.25" customWidth="1"/>
-    <col min="3848" max="3848" width="25.75" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.109375" customWidth="1"/>
+    <col min="3847" max="3847" width="82.21875" customWidth="1"/>
+    <col min="3848" max="3848" width="25.77734375" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.88671875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.109375" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.75" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.77734375" customWidth="1"/>
+    <col min="4097" max="4097" width="3.88671875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.109375" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4100" max="4100" width="12.21875" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.25" customWidth="1"/>
-    <col min="4104" max="4104" width="25.75" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.109375" customWidth="1"/>
+    <col min="4103" max="4103" width="82.21875" customWidth="1"/>
+    <col min="4104" max="4104" width="25.77734375" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.88671875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.109375" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.75" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.77734375" customWidth="1"/>
+    <col min="4353" max="4353" width="3.88671875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.109375" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4356" max="4356" width="12.21875" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.25" customWidth="1"/>
-    <col min="4360" max="4360" width="25.75" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.109375" customWidth="1"/>
+    <col min="4359" max="4359" width="82.21875" customWidth="1"/>
+    <col min="4360" max="4360" width="25.77734375" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.88671875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.109375" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.75" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.77734375" customWidth="1"/>
+    <col min="4609" max="4609" width="3.88671875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.109375" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4612" max="4612" width="12.21875" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.25" customWidth="1"/>
-    <col min="4616" max="4616" width="25.75" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.109375" customWidth="1"/>
+    <col min="4615" max="4615" width="82.21875" customWidth="1"/>
+    <col min="4616" max="4616" width="25.77734375" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.88671875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.109375" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.75" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.77734375" customWidth="1"/>
+    <col min="4865" max="4865" width="3.88671875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.109375" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4868" max="4868" width="12.21875" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.25" customWidth="1"/>
-    <col min="4872" max="4872" width="25.75" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.109375" customWidth="1"/>
+    <col min="4871" max="4871" width="82.21875" customWidth="1"/>
+    <col min="4872" max="4872" width="25.77734375" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.88671875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.109375" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.75" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.77734375" customWidth="1"/>
+    <col min="5121" max="5121" width="3.88671875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.109375" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5124" max="5124" width="12.21875" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.25" customWidth="1"/>
-    <col min="5128" max="5128" width="25.75" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.109375" customWidth="1"/>
+    <col min="5127" max="5127" width="82.21875" customWidth="1"/>
+    <col min="5128" max="5128" width="25.77734375" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.88671875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.109375" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.75" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.77734375" customWidth="1"/>
+    <col min="5377" max="5377" width="3.88671875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.109375" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5380" max="5380" width="12.21875" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.25" customWidth="1"/>
-    <col min="5384" max="5384" width="25.75" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.109375" customWidth="1"/>
+    <col min="5383" max="5383" width="82.21875" customWidth="1"/>
+    <col min="5384" max="5384" width="25.77734375" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.88671875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.109375" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.75" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.77734375" customWidth="1"/>
+    <col min="5633" max="5633" width="3.88671875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.109375" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5636" max="5636" width="12.21875" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.25" customWidth="1"/>
-    <col min="5640" max="5640" width="25.75" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.109375" customWidth="1"/>
+    <col min="5639" max="5639" width="82.21875" customWidth="1"/>
+    <col min="5640" max="5640" width="25.77734375" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.88671875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.109375" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.75" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.77734375" customWidth="1"/>
+    <col min="5889" max="5889" width="3.88671875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.109375" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5892" max="5892" width="12.21875" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.25" customWidth="1"/>
-    <col min="5896" max="5896" width="25.75" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.109375" customWidth="1"/>
+    <col min="5895" max="5895" width="82.21875" customWidth="1"/>
+    <col min="5896" max="5896" width="25.77734375" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.88671875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.109375" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.75" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.77734375" customWidth="1"/>
+    <col min="6145" max="6145" width="3.88671875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.109375" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6148" max="6148" width="12.21875" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.25" customWidth="1"/>
-    <col min="6152" max="6152" width="25.75" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.109375" customWidth="1"/>
+    <col min="6151" max="6151" width="82.21875" customWidth="1"/>
+    <col min="6152" max="6152" width="25.77734375" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.88671875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.109375" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.75" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.77734375" customWidth="1"/>
+    <col min="6401" max="6401" width="3.88671875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.109375" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6404" max="6404" width="12.21875" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.25" customWidth="1"/>
-    <col min="6408" max="6408" width="25.75" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.109375" customWidth="1"/>
+    <col min="6407" max="6407" width="82.21875" customWidth="1"/>
+    <col min="6408" max="6408" width="25.77734375" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.88671875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.109375" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.75" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.77734375" customWidth="1"/>
+    <col min="6657" max="6657" width="3.88671875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.109375" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6660" max="6660" width="12.21875" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.25" customWidth="1"/>
-    <col min="6664" max="6664" width="25.75" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.109375" customWidth="1"/>
+    <col min="6663" max="6663" width="82.21875" customWidth="1"/>
+    <col min="6664" max="6664" width="25.77734375" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.88671875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.109375" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.75" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.77734375" customWidth="1"/>
+    <col min="6913" max="6913" width="3.88671875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.109375" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6916" max="6916" width="12.21875" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.25" customWidth="1"/>
-    <col min="6920" max="6920" width="25.75" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.109375" customWidth="1"/>
+    <col min="6919" max="6919" width="82.21875" customWidth="1"/>
+    <col min="6920" max="6920" width="25.77734375" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.88671875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.109375" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.75" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.77734375" customWidth="1"/>
+    <col min="7169" max="7169" width="3.88671875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.109375" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7172" max="7172" width="12.21875" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.25" customWidth="1"/>
-    <col min="7176" max="7176" width="25.75" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.109375" customWidth="1"/>
+    <col min="7175" max="7175" width="82.21875" customWidth="1"/>
+    <col min="7176" max="7176" width="25.77734375" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.88671875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.109375" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.75" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.77734375" customWidth="1"/>
+    <col min="7425" max="7425" width="3.88671875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.109375" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7428" max="7428" width="12.21875" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.25" customWidth="1"/>
-    <col min="7432" max="7432" width="25.75" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.109375" customWidth="1"/>
+    <col min="7431" max="7431" width="82.21875" customWidth="1"/>
+    <col min="7432" max="7432" width="25.77734375" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.88671875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.109375" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.75" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.77734375" customWidth="1"/>
+    <col min="7681" max="7681" width="3.88671875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.109375" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7684" max="7684" width="12.21875" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.25" customWidth="1"/>
-    <col min="7688" max="7688" width="25.75" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.109375" customWidth="1"/>
+    <col min="7687" max="7687" width="82.21875" customWidth="1"/>
+    <col min="7688" max="7688" width="25.77734375" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.88671875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.109375" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.75" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.77734375" customWidth="1"/>
+    <col min="7937" max="7937" width="3.88671875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.109375" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7940" max="7940" width="12.21875" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.25" customWidth="1"/>
-    <col min="7944" max="7944" width="25.75" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.109375" customWidth="1"/>
+    <col min="7943" max="7943" width="82.21875" customWidth="1"/>
+    <col min="7944" max="7944" width="25.77734375" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.88671875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.109375" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.75" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.77734375" customWidth="1"/>
+    <col min="8193" max="8193" width="3.88671875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.109375" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8196" max="8196" width="12.21875" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.25" customWidth="1"/>
-    <col min="8200" max="8200" width="25.75" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.109375" customWidth="1"/>
+    <col min="8199" max="8199" width="82.21875" customWidth="1"/>
+    <col min="8200" max="8200" width="25.77734375" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.88671875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.109375" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.75" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.77734375" customWidth="1"/>
+    <col min="8449" max="8449" width="3.88671875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.109375" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8452" max="8452" width="12.21875" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.25" customWidth="1"/>
-    <col min="8456" max="8456" width="25.75" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.109375" customWidth="1"/>
+    <col min="8455" max="8455" width="82.21875" customWidth="1"/>
+    <col min="8456" max="8456" width="25.77734375" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.88671875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.109375" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.75" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.77734375" customWidth="1"/>
+    <col min="8705" max="8705" width="3.88671875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.109375" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8708" max="8708" width="12.21875" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.25" customWidth="1"/>
-    <col min="8712" max="8712" width="25.75" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.109375" customWidth="1"/>
+    <col min="8711" max="8711" width="82.21875" customWidth="1"/>
+    <col min="8712" max="8712" width="25.77734375" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.88671875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.109375" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.75" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.77734375" customWidth="1"/>
+    <col min="8961" max="8961" width="3.88671875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.109375" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8964" max="8964" width="12.21875" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.25" customWidth="1"/>
-    <col min="8968" max="8968" width="25.75" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.109375" customWidth="1"/>
+    <col min="8967" max="8967" width="82.21875" customWidth="1"/>
+    <col min="8968" max="8968" width="25.77734375" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.88671875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.109375" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.75" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.77734375" customWidth="1"/>
+    <col min="9217" max="9217" width="3.88671875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.109375" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9220" max="9220" width="12.21875" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.25" customWidth="1"/>
-    <col min="9224" max="9224" width="25.75" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.109375" customWidth="1"/>
+    <col min="9223" max="9223" width="82.21875" customWidth="1"/>
+    <col min="9224" max="9224" width="25.77734375" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.88671875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.109375" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.75" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.77734375" customWidth="1"/>
+    <col min="9473" max="9473" width="3.88671875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.109375" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9476" max="9476" width="12.21875" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.25" customWidth="1"/>
-    <col min="9480" max="9480" width="25.75" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.109375" customWidth="1"/>
+    <col min="9479" max="9479" width="82.21875" customWidth="1"/>
+    <col min="9480" max="9480" width="25.77734375" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.88671875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.109375" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.75" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.77734375" customWidth="1"/>
+    <col min="9729" max="9729" width="3.88671875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.109375" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9732" max="9732" width="12.21875" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.25" customWidth="1"/>
-    <col min="9736" max="9736" width="25.75" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.109375" customWidth="1"/>
+    <col min="9735" max="9735" width="82.21875" customWidth="1"/>
+    <col min="9736" max="9736" width="25.77734375" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.88671875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.109375" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.75" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.77734375" customWidth="1"/>
+    <col min="9985" max="9985" width="3.88671875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.109375" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9988" max="9988" width="12.21875" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.25" customWidth="1"/>
-    <col min="9992" max="9992" width="25.75" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.109375" customWidth="1"/>
+    <col min="9991" max="9991" width="82.21875" customWidth="1"/>
+    <col min="9992" max="9992" width="25.77734375" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.88671875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.109375" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.75" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.77734375" customWidth="1"/>
+    <col min="10241" max="10241" width="3.88671875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.109375" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10244" max="10244" width="12.21875" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.25" customWidth="1"/>
-    <col min="10248" max="10248" width="25.75" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.109375" customWidth="1"/>
+    <col min="10247" max="10247" width="82.21875" customWidth="1"/>
+    <col min="10248" max="10248" width="25.77734375" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.88671875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.109375" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.75" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.77734375" customWidth="1"/>
+    <col min="10497" max="10497" width="3.88671875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.109375" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10500" max="10500" width="12.21875" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.25" customWidth="1"/>
-    <col min="10504" max="10504" width="25.75" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.109375" customWidth="1"/>
+    <col min="10503" max="10503" width="82.21875" customWidth="1"/>
+    <col min="10504" max="10504" width="25.77734375" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.88671875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.109375" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.75" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.77734375" customWidth="1"/>
+    <col min="10753" max="10753" width="3.88671875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.109375" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10756" max="10756" width="12.21875" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.25" customWidth="1"/>
-    <col min="10760" max="10760" width="25.75" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.109375" customWidth="1"/>
+    <col min="10759" max="10759" width="82.21875" customWidth="1"/>
+    <col min="10760" max="10760" width="25.77734375" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.88671875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.109375" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.75" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.77734375" customWidth="1"/>
+    <col min="11009" max="11009" width="3.88671875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.109375" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11012" max="11012" width="12.21875" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.25" customWidth="1"/>
-    <col min="11016" max="11016" width="25.75" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.109375" customWidth="1"/>
+    <col min="11015" max="11015" width="82.21875" customWidth="1"/>
+    <col min="11016" max="11016" width="25.77734375" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.88671875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.109375" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.75" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.77734375" customWidth="1"/>
+    <col min="11265" max="11265" width="3.88671875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.109375" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11268" max="11268" width="12.21875" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.25" customWidth="1"/>
-    <col min="11272" max="11272" width="25.75" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.109375" customWidth="1"/>
+    <col min="11271" max="11271" width="82.21875" customWidth="1"/>
+    <col min="11272" max="11272" width="25.77734375" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.88671875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.109375" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.75" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.77734375" customWidth="1"/>
+    <col min="11521" max="11521" width="3.88671875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.109375" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11524" max="11524" width="12.21875" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.25" customWidth="1"/>
-    <col min="11528" max="11528" width="25.75" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.109375" customWidth="1"/>
+    <col min="11527" max="11527" width="82.21875" customWidth="1"/>
+    <col min="11528" max="11528" width="25.77734375" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.88671875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.109375" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.75" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.77734375" customWidth="1"/>
+    <col min="11777" max="11777" width="3.88671875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.109375" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11780" max="11780" width="12.21875" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.25" customWidth="1"/>
-    <col min="11784" max="11784" width="25.75" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.109375" customWidth="1"/>
+    <col min="11783" max="11783" width="82.21875" customWidth="1"/>
+    <col min="11784" max="11784" width="25.77734375" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.88671875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.109375" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.75" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.77734375" customWidth="1"/>
+    <col min="12033" max="12033" width="3.88671875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.109375" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12036" max="12036" width="12.21875" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.25" customWidth="1"/>
-    <col min="12040" max="12040" width="25.75" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.109375" customWidth="1"/>
+    <col min="12039" max="12039" width="82.21875" customWidth="1"/>
+    <col min="12040" max="12040" width="25.77734375" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.88671875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.109375" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.75" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.77734375" customWidth="1"/>
+    <col min="12289" max="12289" width="3.88671875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.109375" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12292" max="12292" width="12.21875" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.25" customWidth="1"/>
-    <col min="12296" max="12296" width="25.75" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.109375" customWidth="1"/>
+    <col min="12295" max="12295" width="82.21875" customWidth="1"/>
+    <col min="12296" max="12296" width="25.77734375" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.88671875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.109375" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.75" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.77734375" customWidth="1"/>
+    <col min="12545" max="12545" width="3.88671875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.109375" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12548" max="12548" width="12.21875" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.25" customWidth="1"/>
-    <col min="12552" max="12552" width="25.75" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.109375" customWidth="1"/>
+    <col min="12551" max="12551" width="82.21875" customWidth="1"/>
+    <col min="12552" max="12552" width="25.77734375" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.88671875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.109375" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.75" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.77734375" customWidth="1"/>
+    <col min="12801" max="12801" width="3.88671875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.109375" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12804" max="12804" width="12.21875" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.25" customWidth="1"/>
-    <col min="12808" max="12808" width="25.75" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.109375" customWidth="1"/>
+    <col min="12807" max="12807" width="82.21875" customWidth="1"/>
+    <col min="12808" max="12808" width="25.77734375" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.88671875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.109375" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.75" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.77734375" customWidth="1"/>
+    <col min="13057" max="13057" width="3.88671875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.109375" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13060" max="13060" width="12.21875" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.25" customWidth="1"/>
-    <col min="13064" max="13064" width="25.75" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.109375" customWidth="1"/>
+    <col min="13063" max="13063" width="82.21875" customWidth="1"/>
+    <col min="13064" max="13064" width="25.77734375" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.88671875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.109375" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.75" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.77734375" customWidth="1"/>
+    <col min="13313" max="13313" width="3.88671875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.109375" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13316" max="13316" width="12.21875" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.25" customWidth="1"/>
-    <col min="13320" max="13320" width="25.75" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.109375" customWidth="1"/>
+    <col min="13319" max="13319" width="82.21875" customWidth="1"/>
+    <col min="13320" max="13320" width="25.77734375" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.88671875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.109375" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.75" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.77734375" customWidth="1"/>
+    <col min="13569" max="13569" width="3.88671875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.109375" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13572" max="13572" width="12.21875" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.25" customWidth="1"/>
-    <col min="13576" max="13576" width="25.75" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.109375" customWidth="1"/>
+    <col min="13575" max="13575" width="82.21875" customWidth="1"/>
+    <col min="13576" max="13576" width="25.77734375" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.88671875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.109375" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.75" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.77734375" customWidth="1"/>
+    <col min="13825" max="13825" width="3.88671875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.109375" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13828" max="13828" width="12.21875" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.25" customWidth="1"/>
-    <col min="13832" max="13832" width="25.75" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.109375" customWidth="1"/>
+    <col min="13831" max="13831" width="82.21875" customWidth="1"/>
+    <col min="13832" max="13832" width="25.77734375" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.88671875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.109375" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.75" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.77734375" customWidth="1"/>
+    <col min="14081" max="14081" width="3.88671875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.109375" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14084" max="14084" width="12.21875" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.25" customWidth="1"/>
-    <col min="14088" max="14088" width="25.75" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.109375" customWidth="1"/>
+    <col min="14087" max="14087" width="82.21875" customWidth="1"/>
+    <col min="14088" max="14088" width="25.77734375" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.88671875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.109375" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.75" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.77734375" customWidth="1"/>
+    <col min="14337" max="14337" width="3.88671875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.109375" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14340" max="14340" width="12.21875" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.25" customWidth="1"/>
-    <col min="14344" max="14344" width="25.75" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.109375" customWidth="1"/>
+    <col min="14343" max="14343" width="82.21875" customWidth="1"/>
+    <col min="14344" max="14344" width="25.77734375" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.88671875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.109375" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.75" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.77734375" customWidth="1"/>
+    <col min="14593" max="14593" width="3.88671875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.109375" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14596" max="14596" width="12.21875" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.25" customWidth="1"/>
-    <col min="14600" max="14600" width="25.75" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.109375" customWidth="1"/>
+    <col min="14599" max="14599" width="82.21875" customWidth="1"/>
+    <col min="14600" max="14600" width="25.77734375" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.88671875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.109375" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.75" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.77734375" customWidth="1"/>
+    <col min="14849" max="14849" width="3.88671875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.109375" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14852" max="14852" width="12.21875" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.25" customWidth="1"/>
-    <col min="14856" max="14856" width="25.75" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.109375" customWidth="1"/>
+    <col min="14855" max="14855" width="82.21875" customWidth="1"/>
+    <col min="14856" max="14856" width="25.77734375" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.88671875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.109375" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.75" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.77734375" customWidth="1"/>
+    <col min="15105" max="15105" width="3.88671875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.109375" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15108" max="15108" width="12.21875" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.25" customWidth="1"/>
-    <col min="15112" max="15112" width="25.75" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.109375" customWidth="1"/>
+    <col min="15111" max="15111" width="82.21875" customWidth="1"/>
+    <col min="15112" max="15112" width="25.77734375" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.88671875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.109375" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.75" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.77734375" customWidth="1"/>
+    <col min="15361" max="15361" width="3.88671875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.109375" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15364" max="15364" width="12.21875" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.25" customWidth="1"/>
-    <col min="15368" max="15368" width="25.75" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.109375" customWidth="1"/>
+    <col min="15367" max="15367" width="82.21875" customWidth="1"/>
+    <col min="15368" max="15368" width="25.77734375" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.88671875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.109375" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.75" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.77734375" customWidth="1"/>
+    <col min="15617" max="15617" width="3.88671875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.109375" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15620" max="15620" width="12.21875" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.25" customWidth="1"/>
-    <col min="15624" max="15624" width="25.75" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.109375" customWidth="1"/>
+    <col min="15623" max="15623" width="82.21875" customWidth="1"/>
+    <col min="15624" max="15624" width="25.77734375" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.88671875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.109375" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.75" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.77734375" customWidth="1"/>
+    <col min="15873" max="15873" width="3.88671875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.109375" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15876" max="15876" width="12.21875" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.25" customWidth="1"/>
-    <col min="15880" max="15880" width="25.75" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.109375" customWidth="1"/>
+    <col min="15879" max="15879" width="82.21875" customWidth="1"/>
+    <col min="15880" max="15880" width="25.77734375" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.88671875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.109375" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.75" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.77734375" customWidth="1"/>
+    <col min="16129" max="16129" width="3.88671875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.109375" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16132" max="16132" width="12.21875" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.25" customWidth="1"/>
-    <col min="16136" max="16136" width="25.75" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.109375" customWidth="1"/>
+    <col min="16135" max="16135" width="82.21875" customWidth="1"/>
+    <col min="16136" max="16136" width="25.77734375" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.88671875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.109375" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+    <col min="16141" max="16141" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
@@ -10399,7 +10411,7 @@
       <c r="L1" s="76"/>
       <c r="M1" s="77"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -10414,7 +10426,7 @@
       <c r="L2" s="78"/>
       <c r="M2" s="79"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -10455,7 +10467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="71" customFormat="1" ht="115.5">
+    <row r="4" spans="1:13" s="71" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>1</v>
       </c>
@@ -10494,7 +10506,7 @@
       </c>
       <c r="M4" s="69"/>
     </row>
-    <row r="5" spans="1:13" s="71" customFormat="1" ht="82.5">
+    <row r="5" spans="1:13" s="71" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>2</v>
       </c>
@@ -10533,7 +10545,7 @@
       </c>
       <c r="M5" s="69"/>
     </row>
-    <row r="6" spans="1:13" s="71" customFormat="1" ht="99">
+    <row r="6" spans="1:13" s="71" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>3</v>
       </c>
@@ -10572,7 +10584,7 @@
       </c>
       <c r="M6" s="69"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72">
         <v>4</v>
       </c>
@@ -10613,7 +10625,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -10628,7 +10640,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -10643,7 +10655,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -10658,7 +10670,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -10673,7 +10685,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -10706,20 +10718,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -10727,7 +10739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -10735,7 +10747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -10743,7 +10755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -10751,7 +10763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -10759,7 +10771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -10767,7 +10779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
